--- a/publications.xlsx
+++ b/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U81"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,90 +451,80 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>eprint</t>
+          <t>institution</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>institution</t>
+          <t>issn</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>issn</t>
+          <t>journal</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>journal</t>
+          <t>keywords</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>keywords</t>
+          <t>media</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>month</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>number</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>pages</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>pages</t>
+          <t>pdf</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>pdf</t>
+          <t>publisher</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>preprint</t>
+          <t>school</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>publisher</t>
+          <t>title</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>type</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>url</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>volume</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>year</t>
         </is>
@@ -554,12 +544,12 @@
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Northern Lights Deep Learning Conference 2025</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -567,25 +557,23 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Investigating the Impact of Feature Reduction for Deep Learning-based Seasonal Sea Ice Forecasting</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>preprint</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Investigating the Impact of Feature Reduction for Deep Learning-based Seasonal Sea Ice Forecasting</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>preprint</t>
-        </is>
-      </c>
+          <t>https://openreview.net/forum?id=7TwvcPAyxX</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
-        <is>
-          <t>https://openreview.net/forum?id=7TwvcPAyxX</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
@@ -605,46 +593,40 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>EGUsphere</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>1--33</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Probabilistic precipitation downscaling for ungauged mountain sites: a pilot study for the Hindu Kush Karakoram Himalaya</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>preprint</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Probabilistic precipitation downscaling for ungauged mountain sites: a pilot study for the Hindu Kush Karakoram Himalaya</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>preprint</t>
-        </is>
-      </c>
+          <t>https://egusphere.copernicus.org/preprints/2024/egusphere-2024-2805/</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
-        <is>
-          <t>https://egusphere.copernicus.org/preprints/2024/egusphere-2024-2805/</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
@@ -664,12 +646,12 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>PREPRINT (Version 1) available at Research Square</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -677,21 +659,19 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Reclassifying Lethal Heat</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>preprint</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
@@ -711,12 +691,12 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>ArXiv</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -724,21 +704,19 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Defining error accumulation in ML atmospheric simulators</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>preprint</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
@@ -758,12 +736,12 @@
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>NeurIPS 2022 Workshop on Gaussian Processes, Spatiotemporal Modeling, and Decision-making Systems</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -771,25 +749,23 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Multi-fidelity experimental design for ice-sheet simulation</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>preprint</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Multi-fidelity experimental design for ice-sheet simulation</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>preprint</t>
-        </is>
-      </c>
+          <t>https://doi.org/10.48550/arXiv.2307.08449</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48550/arXiv.2307.08449</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -809,12 +785,12 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>NeurIPS 2022 Workshop on Gaussian Processes, Spatiotemporal Modeling, and Decision-making Systems</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -822,25 +798,23 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Ice Core Dating using Probabilistic Programming</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>preprint</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Ice Core Dating using Probabilistic Programming</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>preprint</t>
-        </is>
-      </c>
+          <t>https://arxiv.org/abs/2210.16568</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
-        <is>
-          <t>https://arxiv.org/abs/2210.16568</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
@@ -860,12 +834,12 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>16th Bayesian Modelling Applications Workshop at UAI, 2022</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -875,27 +849,21 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>arXiv</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
+          <t>Kernel Learning for Explainable Climate Science</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>preprint</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Kernel Learning for Explainable Climate Science</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>preprint</t>
-        </is>
-      </c>
+          <t>https://arxiv.org/abs/2209.04947</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
-        <is>
-          <t>https://arxiv.org/abs/2209.04947</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
@@ -915,12 +883,12 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>EarthArXiv</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -928,21 +896,19 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>A continuous vertically resolved ozone dataset from the fusion of chemistry climate models with observations using a Bayesian neural network</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>preprint</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -960,60 +926,54 @@
           <t>https://doi.org/10.1002/2688-8319.70034</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://besjournals.onlinelibrary.wiley.com/doi/pdf/10.1002/2688-8319.70034</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Ecological Solutions and Evidence</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Phys.org, black, https://phys.org/news/2025-05-ai-tool-aids-caribou-arctic.html; Anadolu Agency, blue, https://www.aa.com.tr/en/environment/new-ai-tool-can-help-protect-migration-routes-of-endangered-caribou-in-arctic-study/3583642; Business Weekly, grey, https://www.businessweekly.co.uk/posts/british-antarctic-survey-puts-ai-into-arctic-to-aid-caribou-conservation; Press Release, HotPink, https://www.bas.ac.uk/media-post/new-ai-tool-aids-caribou-conservation-in-a-changing-arctic/; Canada's National Observer, red, https://www.nationalobserver.com/2025/06/11/news/ai-protect-caribou-migration-changing-arctic</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
           <t>e70034</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>AI sea ice forecasts for Arctic conservation: A case study predicting the timing of caribou sea ice migrations</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>AI sea ice forecasts for Arctic conservation: A case study predicting the timing of caribou sea ice migrations</t>
+          <t>https://besjournals.onlinelibrary.wiley.com/doi/abs/10.1002/2688-8319.70034</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>6</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
-        <is>
-          <t>https://besjournals.onlinelibrary.wiley.com/doi/abs/10.1002/2688-8319.70034</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1033,42 +993,40 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Environmental Data Science</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>e26</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Reflective error: a metric for assessing predictive performance at extreme events</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1088,42 +1046,40 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Nature</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Guardian, blue, https://www.theguardian.com/technology/2025/mar/20/ai-aardvark-weather-prediction-forecasting-artificial-intelligence; FT, DarkOrange, https://www.ft.com/content/73492128-5822-4bb2-b953-64217eb303e4; New Scientist, grey, https://www.newscientist.com/article/2472659-ai-can-forecast-the-weather-in-seconds-without-needing-supercomputers/; Independent, red, https://www.independent.co.uk/tech/ai-weather-forecast-aardvark-cambridge-b2717122.html; Blog, black, https://www.turing.ac.uk/blog/project-aardvark-reimagining-ai-weather-prediction</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>End-to-end data-driven weather prediction</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>End-to-end data-driven weather prediction</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
+          <t>https://www.nature.com/articles/s41586-025-08897-0</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
-        <is>
-          <t>https://www.nature.com/articles/s41586-025-08897-0</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1143,12 +1099,12 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Commun Earth Environ</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1156,25 +1112,23 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Calculations of extreme sea level rise scenarios are strongly dependent on ice sheet model resolution</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Calculations of extreme sea level rise scenarios are strongly dependent on ice sheet model resolution</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
+          <t>https://doi.org/10.1038/s43247-025-02010-z</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1038/s43247-025-02010-z</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1194,42 +1148,40 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Environmental Data Science</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>e5</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Streamflow prediction using artificial neural networks and soil moisture proxies</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1249,12 +1201,12 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Environmental Data Science</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1262,25 +1214,23 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Improving the reproducibility in geoscientific papers: lessons learned from a Hackathon in climate science</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1300,50 +1250,48 @@
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Hydrology and Earth System Sciences</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
           <t>4903--4925</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Downscaling precipitation over High-mountain Asia using multi-fidelity Gaussian processes: improved estimates from ERA5</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Downscaling precipitation over High-mountain Asia using multi-fidelity Gaussian processes: improved estimates from ERA5</t>
+          <t>https://hess.copernicus.org/articles/28/4903/2024/</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>28</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
-        <is>
-          <t>https://hess.copernicus.org/articles/28/4903/2024/</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
@@ -1362,51 +1310,49 @@
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0034-4257</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0034-4257</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
           <t>Remote Sensing of Environment</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>114073</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Sea ice detection using concurrent multispectral and synthetic aperture radar imagery</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Sea ice detection using concurrent multispectral and synthetic aperture radar imagery</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S0034425724000841</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>305</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
-        <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0034425724000841</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
@@ -1426,42 +1372,40 @@
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>IEEE Geoscience and Remote Sensing Letters</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>1-5</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Interrogating Sea Ice Predictability With Gradients</t>
         </is>
       </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
@@ -1481,12 +1425,12 @@
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Nature Geoscience</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1494,25 +1438,23 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Prioritize environmental sustainability in use of AI and data science methods</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Prioritize environmental sustainability in use of AI and data science methods</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
+          <t>https://www.nature.com/articles/s41561-023-01369-y</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
-        <is>
-          <t>https://www.nature.com/articles/s41561-023-01369-y</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
@@ -1531,55 +1473,53 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0034-4257</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0034-4257</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
           <t>Remote Sensing of Environment</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Fox Weather, blue, https://www.foxweather.com/weather-news/iceberg-a23a-weddell-sea-antarctic-peninsula; Press Release, DarkOrange, https://www.bas.ac.uk/media-post/using-ai-to-track-icebergs/</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>113780</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Unsupervised machine learning detection of iceberg populations within sea ice from dual-polarisation SAR imagery</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Unsupervised machine learning detection of iceberg populations within sea ice from dual-polarisation SAR imagery</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S0034425723003310</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>297</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
-        <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0034425723003310</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>297</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1599,42 +1539,40 @@
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Environmental Data Science</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>e32</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Environmental sensor placement with convolutional Gaussian neural processes</t>
         </is>
       </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1654,50 +1592,48 @@
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Geoscientific Model Development</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
           <t>4501--4519</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Using probabilistic machine learning to better model temporal patterns in parameterizations: a case study with the Lorenz 96 model</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Using probabilistic machine learning to better model temporal patterns in parameterizations: a case study with the Lorenz 96 model</t>
+          <t>https://gmd.copernicus.org/articles/16/4501/2023/</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>16</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
-        <is>
-          <t>https://gmd.copernicus.org/articles/16/4501/2023/</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1717,12 +1653,12 @@
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>11th International Conference on Learning Representations (ICLR 2023)</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1730,21 +1666,19 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Autoregressive Conditional Neural Processes</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1762,52 +1696,46 @@
           <t>10.1002/cli2.35</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://rmets.onlinelibrary.wiley.com/doi/pdf/10.1002/cli2.35</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Climate Resilience and Sustainability</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Climate Resilience and Sustainability</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
           <t>bias, climate, correction, disruption, economic, exceedance, temperature</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>e35</t>
         </is>
       </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Localized impacts and economic implications from high temperature disruption days under climate change</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Localized impacts and economic implications from high temperature disruption days under climate change</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
+          <t>https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/cli2.35</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
-        <is>
-          <t>https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/cli2.35</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
@@ -1827,50 +1755,48 @@
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Geoscientific Model Development</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
           <t>251--268</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Convolutional conditional neural processes for local climate downscaling</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Convolutional conditional neural processes for local climate downscaling</t>
+          <t>https://gmd.copernicus.org/articles/15/251/2022/</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>15</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
-        <is>
-          <t>https://gmd.copernicus.org/articles/15/251/2022/</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
@@ -1890,54 +1816,52 @@
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Environmental Research Letters</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>nov</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
           <t>124004</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Regional disparities and seasonal differences in climate risk to rice labour</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Regional disparities and seasonal differences in climate risk to rice labour</t>
+          <t>https://doi.org/10.1088/1748-9326/ac3288</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>16</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1088/1748-9326/ac3288</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -1956,47 +1880,45 @@
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0169-5347</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0169-5347</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
           <t>Trends in Ecology &amp; Evolution</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>The New Stack, HotPink, https://thenewstack.io/ai-biodiversity-time-machine-could-decide-for-uncertain-future/</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>The Time Machine framework: monitoring and prediction of biodiversity loss</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>The Time Machine framework: monitoring and prediction of biodiversity loss</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
+          <t>https://www.sciencedirect.com/science/article/pii/S0169534721002597</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
-        <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0169534721002597</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -2016,57 +1938,47 @@
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Nature Communications</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Nvidia Blog, green, https://blogs.nvidia.com/blog/2021/08/31/ai-model-predicts-sea-ice-loss/; Wired, black, https://www.wired.com/story/as-the-arctic-warms-ai-forecasts-scope-out-shifting-sea-ice/; Science News, blue, https://www.sciencenews.org/article/artificial-intelligence-sea-ice-forecast; Eos, grey, https://eos.org/articles/could-ai-be-useful-for-arctic-communities-facing-sea-ice-loss; BBC Podcast, red, https://www.bbc.co.uk/programmes/w3ct1lsl; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-9928807/British-Antarctic-Survey-builds-AI-predict-ice-loss.html</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.31223/X5430P</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Seasonal Arctic sea ice forecasting with probabilistic deep learning</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Seasonal Arctic sea ice forecasting with probabilistic deep learning</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
+          <t>https://www.nature.com/articles/s41467-021-25257-4</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
-          <t>https://www.nature.com/articles/s41467-021-25257-4</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
           <t>2021</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Boston MA, USA</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
           <t>J. C. King, J. Turner, S. Colwell, H. Lu, A. Orr, T. Phillips, J. S. Hosking, G. J. Marshall</t>
@@ -2079,54 +1991,48 @@
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Journal of Climate</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
           <t>4771 - 4783</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>American Meteorological Society</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr"/>
+          <t>Inhomogeneity of the Surface Air Temperature Record from Halley, Antarctica</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Inhomogeneity of the Surface Air Temperature Record from Halley, Antarctica</t>
+          <t>https://journals.ametsoc.org/view/journals/clim/34/12/JCLI-D-20-0748.1.xml</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>34</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
-        <is>
-          <t>https://journals.ametsoc.org/view/journals/clim/34/12/JCLI-D-20-0748.1.xml</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -2144,56 +2050,50 @@
           <t>10.1098/rsta.2020.0091</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://royalsocietypublishing.org/doi/pdf/10.1098/rsta.2020.0091</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Philosophical Transactions of the Royal Society A: Mathematical, Physical and Engineering Sciences</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2194</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
           <t>20200091</t>
         </is>
       </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Towards implementing artificial intelligence post-processing in weather and climate: proposed actions from the Oxford 2019 workshop</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Towards implementing artificial intelligence post-processing in weather and climate: proposed actions from the Oxford 2019 workshop</t>
+          <t>https://royalsocietypublishing.org/doi/abs/10.1098/rsta.2020.0091</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>379</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
-        <is>
-          <t>https://royalsocietypublishing.org/doi/abs/10.1098/rsta.2020.0091</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>379</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -2209,12 +2109,12 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Advances in Neural Information Processing Systems (NeurIPS) 2020</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2222,25 +2122,23 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Ensembling geophysical models with Bayesian Neural Networks</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Ensembling geophysical models with Bayesian Neural Networks</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
+          <t>https://arxiv.org/abs/2010.03561v1</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
-        <is>
-          <t>https://arxiv.org/abs/2010.03561v1</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2256,12 +2154,12 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Proceedings of the 37th International Conference on Machine Learning, Vienna, Austria, PMLR 119, 2020</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2269,25 +2167,23 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Scalable Exact Inference in Multi-Output Gaussian Processes</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Scalable Exact Inference in Multi-Output Gaussian Processes</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
+          <t>https://arxiv.org/abs/1911.06287</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
-        <is>
-          <t>https://arxiv.org/abs/1911.06287</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2307,50 +2203,48 @@
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
           <t>12483--12497</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Polar stratospheric clouds initiated by mountain waves in a global chemistry--climate model: a missing piece in fully modelling polar stratospheric ozone depletion</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Polar stratospheric clouds initiated by mountain waves in a global chemistry--climate model: a missing piece in fully modelling polar stratospheric ozone depletion</t>
+          <t>https://acp.copernicus.org/articles/20/12483/2020/</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>20</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
-        <is>
-          <t>https://acp.copernicus.org/articles/20/12483/2020/</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2370,50 +2264,48 @@
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
           <t>9961--9977</t>
         </is>
       </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Projecting ozone hole recovery using an ensemble of chemistry-climate models weighted by model performance and independence</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Projecting ozone hole recovery using an ensemble of chemistry-climate models weighted by model performance and independence</t>
+          <t>https://acp.copernicus.org/articles/20/9961/2020/</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>20</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
-        <is>
-          <t>https://acp.copernicus.org/articles/20/9961/2020/</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2431,56 +2323,50 @@
           <t>10.1029/2019EA001065</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/pdf/10.1029/2019EA001065</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Earth and Space Science</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
           <t>e2019EA001065</t>
         </is>
       </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Improvements in Circumpolar Southern Hemisphere Extratropical Atmospheric Circulation in CMIP6 Compared to CMIP5</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Improvements in Circumpolar Southern Hemisphere Extratropical Atmospheric Circulation in CMIP6 Compared to CMIP5</t>
+          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019EA001065</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
-        <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019EA001065</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2500,50 +2386,48 @@
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Journal of Climate</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
           <t>null</t>
         </is>
       </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>The impact of changes in tropical sea surface temperatures over 1979-2012 on Northern hemisphere high latitude climate</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>The impact of changes in tropical sea surface temperatures over 1979-2012 on Northern hemisphere high latitude climate</t>
+          <t>https://doi.org/10.1175/JCLI-D-19-0456.1</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1175/JCLI-D-19-0456.1</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2559,12 +2443,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>ICONHIC 2019: 2nd International Conference on Natural Hazards &amp; Infrastructure, Chania, Greece</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2572,25 +2456,23 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Modelling Groundwater - Surface Water Interactions Under Climate Change Scenarios: insights from Axios Delta, Greece</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Modelling Groundwater - Surface Water Interactions Under Climate Change Scenarios: insights from Axios Delta, Greece</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
+          <t>https://www.researchgate.net/profile/K_Voudouris/publication/334130545_Modelling_Groundwater_-Surface_Water_Interactions_Under_Climate_Change_Scenarios_insights_from_Axios_Delta_Greece/links/5d19a640458515c11c06bd23/Modelling-Groundwater-Surface-Water-Interactions-Under-Climate-Change-Scenarios-insights-from-Axios-Delta-Greece.pdf</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
-        <is>
-          <t>https://www.researchgate.net/profile/K_Voudouris/publication/334130545_Modelling_Groundwater_-Surface_Water_Interactions_Under_Climate_Change_Scenarios_insights_from_Axios_Delta_Greece/links/5d19a640458515c11c06bd23/Modelling-Groundwater-Surface-Water-Interactions-Under-Climate-Change-Scenarios-insights-from-Axios-Delta-Greece.pdf</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -2608,52 +2490,46 @@
           <t>10.1029/2019JD030804</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/pdf/10.1029/2019JD030804</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Journal of Geophysical Research: Atmospheres</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Bias correction of high-resolution regional climate model precipitation output gives the best estimates of precipitation in Himalayan catchments</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Bias correction of high-resolution regional climate model precipitation output gives the best estimates of precipitation in Himalayan catchments</t>
+          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019JD030804</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
-        <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019JD030804</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -2673,54 +2549,52 @@
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Geophysical Research Letters</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t>Phys.org, black, https://phys.org/news/2019-03-antarctic-snowfall-dominated-extreme-snowstorms.html</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
           <t>3502-3511</t>
         </is>
       </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>The Dominant Role of Extreme Precipitation Events in Antarctic Snowfall Variability</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>The Dominant Role of Extreme Precipitation Events in Antarctic Snowfall Variability</t>
+          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2018GL081517</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>46</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
-        <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2018GL081517</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -2740,46 +2614,44 @@
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Geophysical Research Letters</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
           <t>4124-4133</t>
         </is>
       </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>Summer Drivers of Atmospheric Variability Affecting Ice Shelf Thinning in the Amundsen Sea Embayment, West Antarctica</t>
         </is>
       </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
-        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -2799,50 +2671,48 @@
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Environmental Research Letters</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
         <is>
           <t>Carbon Brief, blue, https://www.carbonbrief.org/uk-onshore-wind-energy-potential-could-rise-by-10-with-1-5c-warming; Independent, red, https://www.independent.co.uk/climate-change/news/wind-power-uk-global-warming-climate-change-british-antarctic-survey-a8354956.html; Phys.org, black, https://phys.org/news/2018-05-european-energy-potential-degree-warmer.html; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-5736189/Global-warming-make-UK-large-parts-northern-Europe-far-windier.html; Treehugger, green, https://www.treehugger.com/climate-change-could-bring-stronger-winds-more-wind-power-4857464</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
           <t>1--9</t>
         </is>
       </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>Changes in European wind energy generation potential within a 1.5C warmer world</t>
         </is>
       </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr">
-        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -2862,46 +2732,44 @@
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Atmospheric Science Letters</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
           <t>491-496</t>
         </is>
       </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>Causes of the Antarctic region record high temperature at Signy Island, 30th January 1982</t>
         </is>
       </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr">
-        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -2921,46 +2789,44 @@
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Geophysical Research Letters</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
           <t>9084-9092</t>
         </is>
       </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>Accumulation in coastal West Antarctic ice core records and the role of cyclone activity</t>
         </is>
       </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr">
-        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -2980,46 +2846,44 @@
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Journal of Climate</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
           <t>6701-6722</t>
         </is>
       </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>An Assessment of Recent and Future Temperature Change over the Sichuan Basin, China, Using CMIP5 Climate Models</t>
         </is>
       </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -3039,50 +2903,48 @@
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Geophysical Research Letters</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t>Phys.org, black, https://phys.org/news/2017-06-storms-massive-antarctic-sea-ice.html</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
           <t>6868--6875</t>
         </is>
       </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>Unprecedented springtime retreat of Antarctic sea ice in 2016</t>
         </is>
       </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr">
-        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -3102,46 +2964,44 @@
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Advances in Atmospheric Sciences</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
           <t>1--3</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>3rd ANtarctic Gravity Wave Instrument Network (ANGWIN) science workshop</t>
         </is>
       </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr">
-        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -3161,46 +3021,44 @@
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>International Journal of Climatology</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
           <t>2325--2336</t>
         </is>
       </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>Variability and trends in the Southern Hemisphere high latitude, quasi-stationary planetary waves</t>
         </is>
       </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr">
-        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -3220,46 +3078,44 @@
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Nature</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t>Carbon Brief, blue, https://www.carbonbrief.org/natural-forces-overpowering-antarctic-peninsula-warming; Washington Post, black, https://www.washingtonpost.com/news/energy-environment/wp/2016/07/20/the-antarctic-peninsula-is-cooling-but-climate-skeptics-shouldnt-get-too-excited/</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>411--415</t>
         </is>
       </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>Absence of 21st century warming on Antarctic Peninsula consistent with natural variability</t>
         </is>
       </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr">
-        <is>
           <t>535</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
@@ -3279,46 +3135,44 @@
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Journal of Geophysical Research: Atmospheres</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
           <t>1532-1548</t>
         </is>
       </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>An assessment of the Polar Weather Research and Forecasting (WRF) model representation of near-surface meteorological variables over West Antarctica</t>
         </is>
       </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr">
-        <is>
           <t>121</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
@@ -3338,46 +3192,44 @@
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Geophysical Research Letters</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
           <t>367-376</t>
         </is>
       </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>Future circulation changes off West Antarctica: Sensitivity of the Amundsen Sea Low to projected anthropogenic forcing</t>
         </is>
       </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr">
-        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
@@ -3397,46 +3249,44 @@
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Bulletin of the American Meteorological Society</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
           <t>111-121</t>
         </is>
       </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>The Amundsen Sea Low: Variability, Change, and Impact on Antarctic Climate</t>
         </is>
       </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr">
-        <is>
           <t>97</t>
         </is>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
@@ -3456,46 +3306,44 @@
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Climate Dynamics</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
           <t>2391--2402</t>
         </is>
       </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>Antarctic sea ice increase dominated by intrinsic variability of the Amundsen Sea Low</t>
         </is>
       </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr">
-        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
@@ -3515,50 +3363,48 @@
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Geophysical Research Letters</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t>Indian Express, red, https://indianexpress.com/article/trending/trending-globally/west-antarctic-coastal-snow-rose-30-per-cent-in-20th-century/</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
           <t>9387--9393</t>
         </is>
       </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>Twentieth century increase in snowfall in coastal West Antarctica</t>
         </is>
       </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr">
-        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="U53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
@@ -3578,42 +3424,40 @@
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Philosophical Transactions of the Royal Society of London A: Mathematical, Physical and Engineering Sciences</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>2045</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>Recent Changes in Antarctic Sea Ice</t>
         </is>
       </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr">
-        <is>
           <t>373</t>
         </is>
       </c>
-      <c r="U54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
@@ -3633,46 +3477,44 @@
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Atmospheric Science Letters</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
           <t>148-154</t>
         </is>
       </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>Sensitivity of tropical deep convection in global models: effects of horizontal resolution, surface constraints and 3D atmospheric nudging</t>
         </is>
       </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr">
-        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="U55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
@@ -3692,50 +3534,44 @@
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
           <t>1071--1086</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>http://www.atmos-chem-phys.net/15/1071/2015/acp-15-1071-2015.pdf</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>Inclusion of mountain-wave-induced cooling for the formation of PSCs over the Antarctic Peninsula in a chemistry-climate model</t>
         </is>
       </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr">
-        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="U56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
@@ -3755,46 +3591,44 @@
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Atmospheric Science Letters</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
           <t>50-55</t>
         </is>
       </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>Orographic disturbances of surface winds over the shelf waters adjacent to South Georgia</t>
         </is>
       </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr">
-        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="U57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
@@ -3814,46 +3648,44 @@
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Quarterly Journal of the Royal Meteorological Society</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>684</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
           <t>2287-2297</t>
         </is>
       </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>Met Office Unified Model high resolution simulations of a strong wind event in Antarctica</t>
         </is>
       </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr">
-        <is>
           <t>140</t>
         </is>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
@@ -3873,46 +3705,44 @@
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Climate Dynamics</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>7-8</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>7-8</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
           <t>2093-2104</t>
         </is>
       </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>Sources of uncertainty in projections of twenty-first century westerly wind changes over the Amundsen Sea, West Antarctica, in CMIP5 climate models</t>
         </is>
       </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr">
-        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="U59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
@@ -3932,46 +3762,44 @@
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Geophysical Research Letters</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
           <t>5894-5898</t>
         </is>
       </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>Temporal and spatial evolution of the Antarctic sea ice prior to the September 2012 record maximum extent</t>
         </is>
       </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr">
-        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="U60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
@@ -3991,46 +3819,44 @@
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Journal of Climate</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
           <t>6633--6648</t>
         </is>
       </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>The influence of the Amundsen-Bellingshausen Seas Low on the climate of West Antarctica and its representation in coupled climate model simulations</t>
         </is>
       </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr">
-        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="U61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
@@ -4050,46 +3876,44 @@
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>International Journal of Climatology</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
           <t>1818--1829</t>
         </is>
       </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>The Amundsen Sea Low</t>
         </is>
       </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr">
-        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="U62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
@@ -4109,46 +3933,44 @@
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>Journal of Geophysical Research: Earth Surface</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
           <t>315-330</t>
         </is>
       </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>Trends in Antarctic Peninsula surface melting conditions from observations and regional climate modelling</t>
         </is>
       </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr">
-        <is>
           <t>118</t>
         </is>
       </c>
-      <c r="U63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
@@ -4168,46 +3990,44 @@
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>Journal of Climate</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
           <t>1473--1484</t>
         </is>
       </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>An Initial Assessment of Antarctic Sea Ice Extent in the CMIP5 Models</t>
         </is>
       </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr">
-        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="U64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
@@ -4227,46 +4047,44 @@
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>Journal of Climate</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
           <t>662--668</t>
         </is>
       </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>Strong dynamical modulation of the cooling of the polar stratosphere associated with the Antarctic ozone hole</t>
         </is>
       </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr">
-        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="U65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
@@ -4286,46 +4104,44 @@
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>Journal of the Atmospheric Sciences</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
           <t>2917--2932</t>
         </is>
       </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>Possible Dynamical Mechanisms for Southern Hemisphere Climate Change due to the Ozone Hole</t>
         </is>
       </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr">
-        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="U66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
@@ -4345,50 +4161,44 @@
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
           <t>9791--9797</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>http://www.atmos-chem-phys.net/12/9791/2012/acp-12-9791-2012.pdf</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>Tropical convective transport and the Walker circulation</t>
         </is>
       </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr">
-        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="U67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
@@ -4408,50 +4218,44 @@
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
           <t>8103--8131</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>http://www.atmos-chem-phys.net/11/8103/2011/acp-11-8103-2011.pdf</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>Representation of tropical deep convection in atmospheric models - Part 2: Tracer transport</t>
         </is>
       </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr">
-        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="U68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
@@ -4471,50 +4275,44 @@
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
           <t>2765--2786</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>http://www.atmos-chem-phys.org/11/2765/2011/acp-11-2765-2011.pdf</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>Representation of tropical deep convection in atmospheric models - Part 1: Meteorology and comparison with satellite observations</t>
         </is>
       </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr">
-        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="U69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
@@ -4534,50 +4332,44 @@
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
           <t>11175--11188</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>http://www.atmos-chem-phys.net/10/11175/2010/acp-10-11175-2010.pdf</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>Modelling deep convection and its impacts on the tropical tropopause layer</t>
         </is>
       </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr">
-        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="U70" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
@@ -4595,52 +4387,50 @@
           <t>10.5281/zenodo.7712969</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>The Alan Turing Institute</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>March</t>
         </is>
       </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>https://zenodo.org/record/7712969/files/turing_asg_whitepaper_climatechange.pdf</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>https://zenodo.org/record/7712969/files/turing_asg_whitepaper_climatechange.pdf?download=1</t>
+          <t>Zenodo</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Zenodo</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr"/>
+          <t>Tackling climate change with data science and AI</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>techreport</t>
+        </is>
+      </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Tackling climate change with data science and AI</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>techreport</t>
-        </is>
-      </c>
+          <t>https://doi.org/10.5281/zenodo.7712969</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5281/zenodo.7712969</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -4654,40 +4444,38 @@
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>WWF and World Bank Group</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>https://www.wwf.org.uk/sites/default/files/2020-12/Spatial%20Finance_%20Challenges%20and%20Opportunities_Final.pdf</t>
         </is>
       </c>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>Spatial Finance: Challenges and Opportunities in a Changing World</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>techreport</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4701,40 +4489,38 @@
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Global Environmental Research Committee (GERC), Royal Society</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-geoengineering-report.pdf?la=en-GB&amp;hash=A901C6D4434AE240E6836B18083415D0</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-geoengineering-report.pdf</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>Geoengineering</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>techreport</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr">
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -4748,40 +4534,38 @@
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Global Environmental Research Committee (GERC), Royal Society</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-air-quality-report.pdf?la=en-GB&amp;hash=21DBB223960A60E61D6FB0D40D4351C1</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-air-quality-report.pdf</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>Air quality</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>techreport</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -4795,40 +4579,38 @@
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Global Environmental Research Committee (GERC), Royal Society</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-biodiversity-report.pdf?la=en-GB&amp;hash=2C3FD6C62106B60924F10E6B0DEEE67F</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-biodiversity-report.pdf</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>Biodiversity</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>techreport</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -4842,40 +4624,38 @@
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Global Environmental Research Committee (GERC), Royal Society</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-naturalres-food-report.pdf?la=en-GB&amp;hash=54A9DBF67437B62966A6CD8B425A5D17</t>
         </is>
       </c>
+      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>Natural Resources</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>techreport</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr">
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
@@ -4889,40 +4669,38 @@
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Global Environmental Research Committee (GERC), Royal Society</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-climate-report.pdf?la=en-GB&amp;hash=14C82B44FAE7BFABDA959AC81BC0ED5E</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-climate-report.pdf</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>Climate</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>techreport</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr">
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
@@ -4936,40 +4714,38 @@
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Cambridge Centre for Climate Science (CCfCS)</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>https://www.climatescience.cam.ac.uk/docs/ccfcs-ipcc-key-points-pdf</t>
         </is>
       </c>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>Key Points from the IPCC WGI Fifth Assessment Report. Climate Change 2013: The Physical Science Basis</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>techreport</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr">
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
@@ -4992,39 +4768,37 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>March</t>
         </is>
       </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>University of Cambridge</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>The impact of deep convection on the structure of, and transport through, the tropical tropopause layer</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>University of Cambridge</t>
+          <t>phdthesis</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>The impact of deep convection on the structure of, and transport through, the tropical tropopause layer</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>phdthesis</t>
-        </is>
-      </c>
+          <t>http://ethos.bl.uk/OrderDetails.do?uin=uk.bl.ethos.604249</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr">
-        <is>
-          <t>http://ethos.bl.uk/OrderDetails.do?uin=uk.bl.ethos.604249</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
@@ -5049,25 +4823,23 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Amundsen Sea Low (ASL) index</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>datasets</t>
+        </is>
+      </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Amundsen Sea Low (ASL) index</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>datasets</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
           <t>https://scotthosking.com/asl_index</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -5088,25 +4860,23 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Forecasts, neural networks, and results from the paper: 'Seasonal Arctic sea ice forecasting with probabilistic deep learning'</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>datasets</t>
+        </is>
+      </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Forecasts, neural networks, and results from the paper: 'Seasonal Arctic sea ice forecasting with probabilistic deep learning'</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>datasets</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
           <t>https://data.bas.ac.uk/full-record.php?id=GB/NERC/BAS/PDC/01526</t>
         </is>
       </c>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,32 +534,36 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L. Uebbing, H. L. Joakimsen, L. T. Luppino, I. Martinsen, A. McDonald, K. K. Wickstr&amp;oslash;m, S. Lef&amp;egrave;vre, A. B. Salberg, S. Hosking, R. Jenssen</t>
+          <t>B. R. Evans, A. Lowe, A. Crawford, A. Fleming, J. S. Hosking</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://openreview.net/forum?id=7TwvcPAyxX</t>
+          <t>10.5194/egusphere-2025-2886</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Northern Lights Deep Learning Conference 2025</t>
+          <t>EGUsphere</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1--28</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Investigating the Impact of Feature Reduction for Deep Learning-based Seasonal Sea Ice Forecasting</t>
+          <t>Icebergs, jigsaw puzzles and genealogy: Automated multi-generational iceberg tracking and lineage reconstruction</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -569,13 +573,17 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://openreview.net/forum?id=7TwvcPAyxX</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
+          <t>https://egusphere.copernicus.org/preprints/2025/egusphere-2025-2886/</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -583,36 +591,32 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M. Girona-Mata, A. Orr, M. Widmann, D. Bannister, G. H. Dars, S. Hosking, J. Norris, D. Ocio, T. Phillips, J. Steiner, R. E. Turner</t>
+          <t>L. Uebbing, H. L. Joakimsen, L. T. Luppino, I. Martinsen, A. McDonald, K. K. Wickstr&amp;oslash;m, S. Lef&amp;egrave;vre, A. B. Salberg, S. Hosking, R. Jenssen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10.5194/egusphere-2024-2805</t>
+          <t>https://openreview.net/forum?id=7TwvcPAyxX</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EGUsphere</t>
+          <t>Northern Lights Deep Learning Conference 2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1--33</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Probabilistic precipitation downscaling for ungauged mountain sites: a pilot study for the Hindu Kush Karakoram Himalaya</t>
+          <t>Investigating the Impact of Feature Reduction for Deep Learning-based Seasonal Sea Ice Forecasting</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -622,7 +626,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://egusphere.copernicus.org/preprints/2024/egusphere-2024-2805/</t>
+          <t>https://openreview.net/forum?id=7TwvcPAyxX</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
@@ -918,36 +922,32 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>E. Bowler, J. Byrne, L.-M. Leclerc, A. Roberto-Charron, M. S. Rogers, R. D. Cavanagh, J. Harasimo, M. L. Lancaster, R. S. Chan, O. Strickson, J. Wilkinson, R. Downie, J. S. Hosking, T. R. Andersson</t>
+          <t>M. Girona-Mata, A. Orr, M. Widmann, D. Bannister, G. H. Dars, S. Hosking, J. Norris, D. Ocio, T. Phillips, J. Steiner, R. E. Turner</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/2688-8319.70034</t>
+          <t>10.5194/hess-29-3073-2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ecological Solutions and Evidence</t>
+          <t>Hydrology and Earth System Sciences</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Phys.org, black, https://phys.org/news/2025-05-ai-tool-aids-caribou-arctic.html; Anadolu Agency, blue, https://www.aa.com.tr/en/environment/new-ai-tool-can-help-protect-migration-routes-of-endangered-caribou-in-arctic-study/3583642; Business Weekly, grey, https://www.businessweekly.co.uk/posts/british-antarctic-survey-puts-ai-into-arctic-to-aid-caribou-conservation; Press Release, HotPink, https://www.bas.ac.uk/media-post/new-ai-tool-aids-caribou-conservation-in-a-changing-arctic/; Canada's National Observer, red, https://www.nationalobserver.com/2025/06/11/news/ai-protect-caribou-migration-changing-arctic</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>e70034</t>
+          <t>3073--3100</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -955,7 +955,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>AI sea ice forecasts for Arctic conservation: A case study predicting the timing of caribou sea ice migrations</t>
+          <t>Probabilistic precipitation downscaling for ungauged mountain sites: a pilot study for the Hindu Kush Himalaya</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -965,12 +965,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>https://besjournals.onlinelibrary.wiley.com/doi/abs/10.1002/2688-8319.70034</t>
+          <t>https://hess.copernicus.org/articles/29/3073/2025/</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>29</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -983,28 +983,36 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R. E. Rouse, H. Moss, S. Hosking, A. McRobie, E. Shuckburgh</t>
+          <t>E. Bowler, J. Byrne, L.-M. Leclerc, A. Roberto-Charron, M. S. Rogers, R. D. Cavanagh, J. Harasimo, M. L. Lancaster, R. S. Chan, O. Strickson, J. Wilkinson, R. Downie, J. S. Hosking, T. R. Andersson</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10.1017/eds.2025.16</t>
+          <t>https://doi.org/10.1002/2688-8319.70034</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Environmental Data Science</t>
+          <t>Ecological Solutions and Evidence</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Phys.org, black, https://phys.org/news/2025-05-ai-tool-aids-caribou-arctic.html; Anadolu Agency, blue, https://www.aa.com.tr/en/environment/new-ai-tool-can-help-protect-migration-routes-of-endangered-caribou-in-arctic-study/3583642; Business Weekly, grey, https://www.businessweekly.co.uk/posts/british-antarctic-survey-puts-ai-into-arctic-to-aid-caribou-conservation; Press Release, HotPink, https://www.bas.ac.uk/media-post/new-ai-tool-aids-caribou-conservation-in-a-changing-arctic/; Canada's National Observer, red, https://www.nationalobserver.com/2025/06/11/news/ai-protect-caribou-migration-changing-arctic</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>e26</t>
+          <t>e70034</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1012,7 +1020,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Reflective error: a metric for assessing predictive performance at extreme events</t>
+          <t>AI sea ice forecasts for Arctic conservation: A case study predicting the timing of caribou sea ice migrations</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1020,10 +1028,14 @@
           <t>article</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>https://besjournals.onlinelibrary.wiley.com/doi/abs/10.1002/2688-8319.70034</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1036,36 +1048,36 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A. Allen, S. Markou, W. Tebbutt, J. Requeima, W. P. Bruinsma, T. R. Andersson, N. D. Herzog, M. Chantry, J. S. Hosking, R. E. Turner</t>
+          <t>R. E. Rouse, H. Moss, S. Hosking, A. McRobie, E. Shuckburgh</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41586-025-08897-0</t>
+          <t>10.1017/eds.2025.16</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nature</t>
+          <t>Environmental Data Science</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Guardian, blue, https://www.theguardian.com/technology/2025/mar/20/ai-aardvark-weather-prediction-forecasting-artificial-intelligence; FT, DarkOrange, https://www.ft.com/content/73492128-5822-4bb2-b953-64217eb303e4; New Scientist, grey, https://www.newscientist.com/article/2472659-ai-can-forecast-the-weather-in-seconds-without-needing-supercomputers/; Independent, red, https://www.independent.co.uk/tech/ai-weather-forecast-aardvark-cambridge-b2717122.html; Blog, black, https://www.turing.ac.uk/blog/project-aardvark-reimagining-ai-weather-prediction</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>e26</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>End-to-end data-driven weather prediction</t>
+          <t>Reflective error: a metric for assessing predictive performance at extreme events</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1073,12 +1085,12 @@
           <t>article</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>https://www.nature.com/articles/s41586-025-08897-0</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="S12" t="inlineStr">
         <is>
           <t>2025</t>
@@ -1089,23 +1101,27 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R. C. Williams, P. Thodoroff, R. J. Arthern, J. Byrne, J. S. Hosking, M. Kaiser, N. D. Lawrence, I. Kazlauskaite</t>
+          <t>A. Allen, S. Markou, W. Tebbutt, J. Requeima, W. P. Bruinsma, T. R. Andersson, N. D. Herzog, M. Chantry, J. S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10.1038/s43247-025-02010-z</t>
+          <t>https://doi.org/10.1038/s41586-025-08897-0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Commun Earth Environ</t>
+          <t>Nature</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Guardian, blue, https://www.theguardian.com/technology/2025/mar/20/ai-aardvark-weather-prediction-forecasting-artificial-intelligence; FT, DarkOrange, https://www.ft.com/content/73492128-5822-4bb2-b953-64217eb303e4; New Scientist, grey, https://www.newscientist.com/article/2472659-ai-can-forecast-the-weather-in-seconds-without-needing-supercomputers/; Independent, red, https://www.independent.co.uk/tech/ai-weather-forecast-aardvark-cambridge-b2717122.html; Blog, black, https://www.turing.ac.uk/blog/project-aardvark-reimagining-ai-weather-prediction</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1114,7 +1130,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Calculations of extreme sea level rise scenarios are strongly dependent on ice sheet model resolution</t>
+          <t>End-to-end data-driven weather prediction</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1124,7 +1140,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s43247-025-02010-z</t>
+          <t>https://www.nature.com/articles/s41586-025-08897-0</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1138,36 +1154,32 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R. E. Rouse, D. Khamis, S. Hosking, A. McRobie, E. Shuckburgh</t>
+          <t>R. C. Williams, P. Thodoroff, R. J. Arthern, J. Byrne, J. S. Hosking, M. Kaiser, N. D. Lawrence, I. Kazlauskaite</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10.1017/eds.2024.48</t>
+          <t>10.1038/s43247-025-02010-z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Environmental Data Science</t>
+          <t>Commun Earth Environ</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>e5</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Streamflow prediction using artificial neural networks and soil moisture proxies</t>
+          <t>Calculations of extreme sea level rise scenarios are strongly dependent on ice sheet model resolution</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1175,12 +1187,12 @@
           <t>article</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s43247-025-02010-z</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>2025</t>
@@ -1191,12 +1203,12 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A. Coca-Castro, A. Fouilloux, R. Barros Lourenço, A. McDonald, Y. Rao, J. S. Hosking</t>
+          <t>R. E. Rouse, D. Khamis, S. Hosking, A. McRobie, E. Shuckburgh</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10.1017/eds.2024.35</t>
+          <t>10.1017/eds.2024.48</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1210,13 +1222,17 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>e5</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Improving the reproducibility in geoscientific papers: lessons learned from a Hackathon in climate science</t>
+          <t>Streamflow prediction using artificial neural networks and soil moisture proxies</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1240,40 +1256,32 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>K. Tazi, A. Orr, J. Hernandez-Gonz&amp;aacute;lez, S. Hosking, R. E. Turner</t>
+          <t>A. Coca-Castro, A. Fouilloux, R. Barros Lourenço, A. McDonald, Y. Rao, J. S. Hosking</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10.5194/hess-28-4903-2024</t>
+          <t>10.1017/eds.2024.35</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hydrology and Earth System Sciences</t>
+          <t>Environmental Data Science</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>4903--4925</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Downscaling precipitation over High-mountain Asia using multi-fidelity Gaussian processes: improved estimates from ERA5</t>
+          <t>Improving the reproducibility in geoscientific papers: lessons learned from a Hackathon in climate science</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1281,19 +1289,15 @@
           <t>article</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>https://hess.copernicus.org/articles/28/4903/2024/</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1305,32 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>M. S. Rogers, M. Fox, A. Fleming, L. {van Zeeland}, J. Wilkinson, J. S. Hosking</t>
+          <t>K. Tazi, A. Orr, J. Hernandez-Gonz&amp;aacute;lez, S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.rse.2024.114073</t>
+          <t>10.5194/hess-28-4903-2024</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0034-4257</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Remote Sensing of Environment</t>
+          <t>Hydrology and Earth System Sciences</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>114073</t>
+          <t>4903--4925</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1334,7 +1338,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Sea ice detection using concurrent multispectral and synthetic aperture radar imagery</t>
+          <t>Downscaling precipitation over High-mountain Asia using multi-fidelity Gaussian processes: improved estimates from ERA5</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1344,12 +1348,12 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0034425724000841</t>
+          <t>https://hess.copernicus.org/articles/28/4903/2024/</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>28</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1362,19 +1366,23 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>H. L. Joakimsen, I. Martinsen, L. T. Luppino, A. McDonald, S. Hosking, R. Jenssen</t>
+          <t>M. S. Rogers, M. Fox, A. Fleming, L. {van Zeeland}, J. Wilkinson, J. S. Hosking</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10.1109/LGRS.2024.3366308</t>
+          <t>https://doi.org/10.1016/j.rse.2024.114073</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0034-4257</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>IEEE Geoscience and Remote Sensing Letters</t>
+          <t>Remote Sensing of Environment</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1383,7 +1391,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>114073</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -1391,7 +1399,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Interrogating Sea Ice Predictability With Gradients</t>
+          <t>Sea ice detection using concurrent multispectral and synthetic aperture radar imagery</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1399,10 +1407,14 @@
           <t>article</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>https://www.sciencedirect.com/science/article/pii/S0034425724000841</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>305</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -1415,32 +1427,36 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C. Jay, Y. Yu, I. Crawford, S. Archer-Nicholls, P. James, A. Gledson, G. Shaddick, R. Haines, L. Lannelongue, E. Lines, S. Hosking, D. Topping</t>
+          <t>H. L. Joakimsen, I. Martinsen, L. T. Luppino, A. McDonald, S. Hosking, R. Jenssen</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10.1038/s41561-023-01369-y</t>
+          <t>10.1109/LGRS.2024.3366308</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Nature Geoscience</t>
+          <t>IEEE Geoscience and Remote Sensing Letters</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Prioritize environmental sustainability in use of AI and data science methods</t>
+          <t>Interrogating Sea Ice Predictability With Gradients</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1448,12 +1464,12 @@
           <t>article</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>https://www.nature.com/articles/s41561-023-01369-y</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>2024</t>
@@ -1464,44 +1480,32 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B. Evans, A. Faul, A. Fleming, D. G. Vaughan, J. S. Hosking</t>
+          <t>C. Jay, Y. Yu, I. Crawford, S. Archer-Nicholls, P. James, A. Gledson, G. Shaddick, R. Haines, L. Lannelongue, E. Lines, S. Hosking, D. Topping</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10.1016/j.rse.2023.113780</t>
+          <t>10.1038/s41561-023-01369-y</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0034-4257</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Remote Sensing of Environment</t>
+          <t>Nature Geoscience</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Fox Weather, blue, https://www.foxweather.com/weather-news/iceberg-a23a-weddell-sea-antarctic-peninsula; Press Release, DarkOrange, https://www.bas.ac.uk/media-post/using-ai-to-track-icebergs/</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>113780</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Unsupervised machine learning detection of iceberg populations within sea ice from dual-polarisation SAR imagery</t>
+          <t>Prioritize environmental sustainability in use of AI and data science methods</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1511,17 +1515,13 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0034425723003310</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>297</t>
-        </is>
-      </c>
+          <t>https://www.nature.com/articles/s41561-023-01369-y</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
@@ -1529,28 +1529,36 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>T. R. Andersson, W. P. Bruinsma, S. Markou, J. Requeima, A. Coca-Castro, A. Vaughan, A.-L. Ellis, M. A. Lazzara, D. Jones, S. Hosking, R. E. Turner</t>
+          <t>B. Evans, A. Faul, A. Fleming, D. G. Vaughan, J. S. Hosking</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10.1017/eds.2023.22</t>
+          <t>10.1016/j.rse.2023.113780</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0034-4257</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Environmental Data Science</t>
+          <t>Remote Sensing of Environment</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Fox Weather, blue, https://www.foxweather.com/weather-news/iceberg-a23a-weddell-sea-antarctic-peninsula; Press Release, DarkOrange, https://www.bas.ac.uk/media-post/using-ai-to-track-icebergs/</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>e32</t>
+          <t>113780</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -1558,7 +1566,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Environmental sensor placement with convolutional Gaussian neural processes</t>
+          <t>Unsupervised machine learning detection of iceberg populations within sea ice from dual-polarisation SAR imagery</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1566,10 +1574,14 @@
           <t>article</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>https://www.sciencedirect.com/science/article/pii/S0034425723003310</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>297</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -1582,32 +1594,28 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R. Parthipan, H. M. Christensen, J. S. Hosking, D. J. Wischik</t>
+          <t>T. R. Andersson, W. P. Bruinsma, S. Markou, J. Requeima, A. Coca-Castro, A. Vaughan, A.-L. Ellis, M. A. Lazzara, D. Jones, S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10.5194/gmd-16-4501-2023</t>
+          <t>10.1017/eds.2023.22</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Geoscientific Model Development</t>
+          <t>Environmental Data Science</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4501--4519</t>
+          <t>e32</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1615,7 +1623,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Using probabilistic machine learning to better model temporal patterns in parameterizations: a case study with the Lorenz 96 model</t>
+          <t>Environmental sensor placement with convolutional Gaussian neural processes</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1623,14 +1631,10 @@
           <t>article</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>https://gmd.copernicus.org/articles/16/4501/2023/</t>
-        </is>
-      </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1643,32 +1647,40 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>W. P. Bruinsma, S. Markou, J. Requiema, A. Y. Foong, T. R. Andersson, A. Vaughan, A. Buonomo, J. S. Hosking, R. E. Turner</t>
+          <t>R. Parthipan, H. M. Christensen, J. S. Hosking, D. J. Wischik</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10.48550/arXiv.2303.14468</t>
+          <t>10.5194/gmd-16-4501-2023</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>11th International Conference on Learning Representations (ICLR 2023)</t>
+          <t>Geoscientific Model Development</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>4501--4519</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Autoregressive Conditional Neural Processes</t>
+          <t>Using probabilistic machine learning to better model temporal patterns in parameterizations: a case study with the Lorenz 96 model</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1676,8 +1688,16 @@
           <t>article</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>https://gmd.copernicus.org/articles/16/4501/2023/</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1688,40 +1708,32 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>T. Summers, E. Mackie, R. Ueno, C. Simpson, J. S. Hosking, T. Suciu, A. Coburn, E. Shuckburgh</t>
+          <t>W. P. Bruinsma, S. Markou, J. Requiema, A. Y. Foong, T. R. Andersson, A. Vaughan, A. Buonomo, J. S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10.1002/cli2.35</t>
+          <t>10.48550/arXiv.2303.14468</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Climate Resilience and Sustainability</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>bias, climate, correction, disruption, economic, exceedance, temperature</t>
-        </is>
-      </c>
+          <t>11th International Conference on Learning Representations (ICLR 2023)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>e35</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Localized impacts and economic implications from high temperature disruption days under climate change</t>
+          <t>Autoregressive Conditional Neural Processes</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -1729,15 +1741,11 @@
           <t>article</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/cli2.35</t>
-        </is>
-      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -1745,32 +1753,32 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A. Vaughan, W. Tebbutt, J. S. Hosking, R. E. Turner</t>
+          <t>T. Summers, E. Mackie, R. Ueno, C. Simpson, J. S. Hosking, T. Suciu, A. Coburn, E. Shuckburgh</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10.5194/gmd-15-251-2022</t>
+          <t>10.1002/cli2.35</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Geoscientific Model Development</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>Climate Resilience and Sustainability</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>bias, climate, correction, disruption, economic, exceedance, temperature</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>251--268</t>
+          <t>e35</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1778,7 +1786,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Convolutional conditional neural processes for local climate downscaling</t>
+          <t>Localized impacts and economic implications from high temperature disruption days under climate change</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -1788,14 +1796,10 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>https://gmd.copernicus.org/articles/15/251/2022/</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/cli2.35</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
           <t>2022</t>
@@ -1806,36 +1810,32 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C. Simpson, J. S. Hosking, D. Mitchell, R. A. Betts, E. Shuckburgh</t>
+          <t>A. Vaughan, W. Tebbutt, J. S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10.1088/1748-9326/ac3288</t>
+          <t>10.5194/gmd-15-251-2022</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Environmental Research Letters</t>
+          <t>Geoscientific Model Development</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>nov</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>124004</t>
+          <t>251--268</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1843,7 +1843,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Regional disparities and seasonal differences in climate risk to rice labour</t>
+          <t>Convolutional conditional neural processes for local climate downscaling</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -1853,17 +1853,17 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1748-9326/ac3288</t>
+          <t>https://gmd.copernicus.org/articles/15/251/2022/</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
@@ -1871,40 +1871,44 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>N. Eastwood, W. A. Stubbings, M. A. {Abou-Elwafa Abdallah}, I. Durance, J. Paavola, M. Dallimer, J. H. Pantel, S. Johnson, J. Zhou, J. S. Hosking, J. B. Brown, S. Ullah, S. Krause, D. M. Hannah, S. E. Crawford, M. Widmann, L. Orsini</t>
+          <t>C. Simpson, J. S. Hosking, D. Mitchell, R. A. Betts, E. Shuckburgh</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.tree.2021.09.008</t>
+          <t>10.1088/1748-9326/ac3288</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0169-5347</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Trends in Ecology &amp; Evolution</t>
+          <t>Environmental Research Letters</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>The New Stack, HotPink, https://thenewstack.io/ai-biodiversity-time-machine-could-decide-for-uncertain-future/</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>124004</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>The Time Machine framework: monitoring and prediction of biodiversity loss</t>
+          <t>Regional disparities and seasonal differences in climate risk to rice labour</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -1914,10 +1918,14 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0169534721002597</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
+          <t>https://doi.org/10.1088/1748-9326/ac3288</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr">
         <is>
           <t>2021</t>
@@ -1928,25 +1936,29 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>T. Andersson, J. S. Hosking, M. Pérez-Ortiz, B. Paige, A. Elliott, C. Russell, S. Law, D. C. Jones, J. Wilkinson, T. Phillips, J. Byrne, S. Tietsche, B. B. Sarojini, E. Blanchard-Wrigglesworth, Y. Aksenov, R. Downie, E. Shuckburgh</t>
+          <t>N. Eastwood, W. A. Stubbings, M. A. {Abou-Elwafa Abdallah}, I. Durance, J. Paavola, M. Dallimer, J. H. Pantel, S. Johnson, J. Zhou, J. S. Hosking, J. B. Brown, S. Ullah, S. Krause, D. M. Hannah, S. E. Crawford, M. Widmann, L. Orsini</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41467-021-25257-4</t>
+          <t>https://doi.org/10.1016/j.tree.2021.09.008</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0169-5347</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nature Communications</t>
+          <t>Trends in Ecology &amp; Evolution</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Nvidia Blog, green, https://blogs.nvidia.com/blog/2021/08/31/ai-model-predicts-sea-ice-loss/; Wired, black, https://www.wired.com/story/as-the-arctic-warms-ai-forecasts-scope-out-shifting-sea-ice/; Science News, blue, https://www.sciencenews.org/article/artificial-intelligence-sea-ice-forecast; Eos, grey, https://eos.org/articles/could-ai-be-useful-for-arctic-communities-facing-sea-ice-loss; BBC Podcast, red, https://www.bbc.co.uk/programmes/w3ct1lsl; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-9928807/British-Antarctic-Survey-builds-AI-predict-ice-loss.html</t>
+          <t>The New Stack, HotPink, https://thenewstack.io/ai-biodiversity-time-machine-could-decide-for-uncertain-future/</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -1957,7 +1969,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Seasonal Arctic sea ice forecasting with probabilistic deep learning</t>
+          <t>The Time Machine framework: monitoring and prediction of biodiversity loss</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -1967,7 +1979,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>https://www.nature.com/articles/s41467-021-25257-4</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S0169534721002597</t>
         </is>
       </c>
       <c r="R28" t="inlineStr"/>
@@ -1981,40 +1993,36 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>J. C. King, J. Turner, S. Colwell, H. Lu, A. Orr, T. Phillips, J. S. Hosking, G. J. Marshall</t>
+          <t>T. Andersson, J. S. Hosking, M. Pérez-Ortiz, B. Paige, A. Elliott, C. Russell, S. Law, D. C. Jones, J. Wilkinson, T. Phillips, J. Byrne, S. Tietsche, B. B. Sarojini, E. Blanchard-Wrigglesworth, Y. Aksenov, R. Downie, E. Shuckburgh</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-20-0748.1</t>
+          <t>https://doi.org/10.1038/s41467-021-25257-4</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Nature Communications</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Nvidia Blog, green, https://blogs.nvidia.com/blog/2021/08/31/ai-model-predicts-sea-ice-loss/; Wired, black, https://www.wired.com/story/as-the-arctic-warms-ai-forecasts-scope-out-shifting-sea-ice/; Science News, blue, https://www.sciencenews.org/article/artificial-intelligence-sea-ice-forecast; Eos, grey, https://eos.org/articles/could-ai-be-useful-for-arctic-communities-facing-sea-ice-loss; BBC Podcast, red, https://www.bbc.co.uk/programmes/w3ct1lsl; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-9928807/British-Antarctic-Survey-builds-AI-predict-ice-loss.html</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>4771 - 4783</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Inhomogeneity of the Surface Air Temperature Record from Halley, Antarctica</t>
+          <t>Seasonal Arctic sea ice forecasting with probabilistic deep learning</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2024,14 +2032,10 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>https://journals.ametsoc.org/view/journals/clim/34/12/JCLI-D-20-0748.1.xml</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
+          <t>https://www.nature.com/articles/s41467-021-25257-4</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
           <t>2021</t>
@@ -2042,19 +2046,19 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S. E. Haupt, W. Chapman, S. V. Adams, C. Kirkwood, J. S. Hosking, N. H. Robinson, S. Lerch, A. C. Subramanian</t>
+          <t>J. C. King, J. Turner, S. Colwell, H. Lu, A. Orr, T. Phillips, J. S. Hosking, G. J. Marshall</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10.1098/rsta.2020.0091</t>
+          <t>10.1175/JCLI-D-20-0748.1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Philosophical Transactions of the Royal Society A: Mathematical, Physical and Engineering Sciences</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2062,12 +2066,12 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2194</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>20200091</t>
+          <t>4771 - 4783</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2075,7 +2079,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Towards implementing artificial intelligence post-processing in weather and climate: proposed actions from the Oxford 2019 workshop</t>
+          <t>Inhomogeneity of the Surface Air Temperature Record from Halley, Antarctica</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2085,12 +2089,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>https://royalsocietypublishing.org/doi/abs/10.1098/rsta.2020.0091</t>
+          <t>https://journals.ametsoc.org/view/journals/clim/34/12/JCLI-D-20-0748.1.xml</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>34</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2103,28 +2107,40 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>U. Sengupta, M. Amos, J. S. Hosking, C. E. Rasmussen, M. Juniper, P. J. Young</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>S. E. Haupt, W. Chapman, S. V. Adams, C. Kirkwood, J. S. Hosking, N. H. Robinson, S. Lerch, A. C. Subramanian</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>10.1098/rsta.2020.0091</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Advances in Neural Information Processing Systems (NeurIPS) 2020</t>
+          <t>Philosophical Transactions of the Royal Society A: Mathematical, Physical and Engineering Sciences</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>20200091</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Ensembling geophysical models with Bayesian Neural Networks</t>
+          <t>Towards implementing artificial intelligence post-processing in weather and climate: proposed actions from the Oxford 2019 workshop</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2134,13 +2150,17 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2010.03561v1</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
+          <t>https://royalsocietypublishing.org/doi/abs/10.1098/rsta.2020.0091</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2168,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>W. P. Bruinsma, E. Perim, W. Tebbutt, J. S. Hosking, A. Solin, R. E. Turner</t>
+          <t>U. Sengupta, M. Amos, J. S. Hosking, C. E. Rasmussen, M. Juniper, P. J. Young</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -2156,7 +2176,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Proceedings of the 37th International Conference on Machine Learning, Vienna, Austria, PMLR 119, 2020</t>
+          <t>Advances in Neural Information Processing Systems (NeurIPS) 2020</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2169,7 +2189,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Scalable Exact Inference in Multi-Output Gaussian Processes</t>
+          <t>Ensembling geophysical models with Bayesian Neural Networks</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2179,7 +2199,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/1911.06287</t>
+          <t>https://arxiv.org/abs/2010.03561v1</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -2193,40 +2213,28 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A. Orr, J. S. Hosking, A. Delon, L. Hoffmann, R. Spang, T. Moffat-Griffin, J. Keeble, N. L. Abraham, P. Braesicke</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>10.5194/acp-20-12483-2020</t>
-        </is>
-      </c>
+          <t>W. P. Bruinsma, E. Perim, W. Tebbutt, J. S. Hosking, A. Solin, R. E. Turner</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Atmospheric Chemistry and Physics</t>
+          <t>Proceedings of the 37th International Conference on Machine Learning, Vienna, Austria, PMLR 119, 2020</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>12483--12497</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Polar stratospheric clouds initiated by mountain waves in a global chemistry--climate model: a missing piece in fully modelling polar stratospheric ozone depletion</t>
+          <t>Scalable Exact Inference in Multi-Output Gaussian Processes</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2236,14 +2244,10 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>https://acp.copernicus.org/articles/20/12483/2020/</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>https://arxiv.org/abs/1911.06287</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
           <t>2020</t>
@@ -2254,12 +2258,12 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>M. Amos, P. J. Young, J. S. Hosking, J.-F. Lamarque, N. L. Abraham, H. Akiyoshi, A. T. Archibald, S. Bekki, M. Deushi, P. J&amp;ouml;ckel, D. Kinnison, O. Kirner, M. Kunze, M. Marchand, D. A. Plummer, D. Saint-Martin, K. Sudo, S. Tilmes, Y. Yamashita</t>
+          <t>A. Orr, J. S. Hosking, A. Delon, L. Hoffmann, R. Spang, T. Moffat-Griffin, J. Keeble, N. L. Abraham, P. Braesicke</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10.5194/acp-20-9961-2020</t>
+          <t>10.5194/acp-20-12483-2020</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2274,12 +2278,12 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>9961--9977</t>
+          <t>12483--12497</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
@@ -2287,7 +2291,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Projecting ozone hole recovery using an ensemble of chemistry-climate models weighted by model performance and independence</t>
+          <t>Polar stratospheric clouds initiated by mountain waves in a global chemistry--climate model: a missing piece in fully modelling polar stratospheric ozone depletion</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2297,7 +2301,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>https://acp.copernicus.org/articles/20/9961/2020/</t>
+          <t>https://acp.copernicus.org/articles/20/12483/2020/</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -2315,19 +2319,19 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>T. J. Bracegirdle, C. R. Holmes, J. S. Hosking, G. J. Marshall, M. Osman, M. Patterson, T. Rackow</t>
+          <t>M. Amos, P. J. Young, J. S. Hosking, J.-F. Lamarque, N. L. Abraham, H. Akiyoshi, A. T. Archibald, S. Bekki, M. Deushi, P. J&amp;ouml;ckel, D. Kinnison, O. Kirner, M. Kunze, M. Marchand, D. A. Plummer, D. Saint-Martin, K. Sudo, S. Tilmes, Y. Yamashita</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10.1029/2019EA001065</t>
+          <t>10.5194/acp-20-9961-2020</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Earth and Space Science</t>
+          <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2335,12 +2339,12 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>e2019EA001065</t>
+          <t>9961--9977</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
@@ -2348,7 +2352,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Improvements in Circumpolar Southern Hemisphere Extratropical Atmospheric Circulation in CMIP6 Compared to CMIP5</t>
+          <t>Projecting ozone hole recovery using an ensemble of chemistry-climate models weighted by model performance and independence</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -2358,12 +2362,12 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019EA001065</t>
+          <t>https://acp.copernicus.org/articles/20/9961/2020/</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>20</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -2376,19 +2380,19 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>M. R. McCrystall, J. S. Hosking, I. P. White, A. C. Maycock</t>
+          <t>T. J. Bracegirdle, C. R. Holmes, J. S. Hosking, G. J. Marshall, M. Osman, M. Patterson, T. Rackow</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-19-0456.1</t>
+          <t>10.1029/2019EA001065</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Earth and Space Science</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2396,12 +2400,12 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>e2019EA001065</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
@@ -2409,7 +2413,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>The impact of changes in tropical sea surface temperatures over 1979-2012 on Northern hemisphere high latitude climate</t>
+          <t>Improvements in Circumpolar Southern Hemisphere Extratropical Atmospheric Circulation in CMIP6 Compared to CMIP5</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -2419,12 +2423,12 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1175/JCLI-D-19-0456.1</t>
+          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019EA001065</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -2437,28 +2441,40 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>L. Kapetas, N. Kazakis, K. Voudouris, A. T. Martinez, J. S. Hosking</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>M. R. McCrystall, J. S. Hosking, I. P. White, A. C. Maycock</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>10.1175/JCLI-D-19-0456.1</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ICONHIC 2019: 2nd International Conference on Natural Hazards &amp; Infrastructure, Chania, Greece</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Modelling Groundwater - Surface Water Interactions Under Climate Change Scenarios: insights from Axios Delta, Greece</t>
+          <t>The impact of changes in tropical sea surface temperatures over 1979-2012 on Northern hemisphere high latitude climate</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -2468,13 +2484,17 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/profile/K_Voudouris/publication/334130545_Modelling_Groundwater_-Surface_Water_Interactions_Under_Climate_Change_Scenarios_insights_from_Axios_Delta_Greece/links/5d19a640458515c11c06bd23/Modelling-Groundwater-Surface-Water-Interactions-Under-Climate-Change-Scenarios-insights-from-Axios-Delta-Greece.pdf</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr"/>
+          <t>https://doi.org/10.1175/JCLI-D-19-0456.1</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
     </row>
@@ -2482,36 +2502,28 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>D. Bannister, A. Orr, S. K. Jain, I. P. Holman, A. Momblanch, T. Phillips, A. J. Adeloye, B. Snapir, T. W. Waine, J. S. Hosking, C. Allen-Sader</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>10.1029/2019JD030804</t>
-        </is>
-      </c>
+          <t>L. Kapetas, N. Kazakis, K. Voudouris, A. T. Martinez, J. S. Hosking</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Journal of Geophysical Research: Atmospheres</t>
+          <t>ICONHIC 2019: 2nd International Conference on Natural Hazards &amp; Infrastructure, Chania, Greece</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Bias correction of high-resolution regional climate model precipitation output gives the best estimates of precipitation in Himalayan catchments</t>
+          <t>Modelling Groundwater - Surface Water Interactions Under Climate Change Scenarios: insights from Axios Delta, Greece</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -2521,14 +2533,10 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019JD030804</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+          <t>https://www.researchgate.net/profile/K_Voudouris/publication/334130545_Modelling_Groundwater_-Surface_Water_Interactions_Under_Climate_Change_Scenarios_insights_from_Axios_Delta_Greece/links/5d19a640458515c11c06bd23/Modelling-Groundwater-Surface-Water-Interactions-Under-Climate-Change-Scenarios-insights-from-Axios-Delta-Greece.pdf</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
           <t>2019</t>
@@ -2539,44 +2547,36 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>J. Turner, T. Phillips, M. Thamban, W. Rahaman, G. J. Marshall, J. D. Wille, V. Favier, V. H. Winton, E. Thomas, Z. Wang, M. Broeke, J. S. Hosking, T. Lachlan-Cope</t>
+          <t>D. Bannister, A. Orr, S. K. Jain, I. P. Holman, A. Momblanch, T. Phillips, A. J. Adeloye, B. Snapir, T. W. Waine, J. S. Hosking, C. Allen-Sader</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10.1029/2018GL081517</t>
+          <t>10.1029/2019JD030804</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Journal of Geophysical Research: Atmospheres</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Phys.org, black, https://phys.org/news/2019-03-antarctic-snowfall-dominated-extreme-snowstorms.html</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>3502-3511</t>
-        </is>
-      </c>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>The Dominant Role of Extreme Precipitation Events in Antarctic Snowfall Variability</t>
+          <t>Bias correction of high-resolution regional climate model precipitation output gives the best estimates of precipitation in Himalayan catchments</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -2586,12 +2586,12 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2018GL081517</t>
+          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019JD030804</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -2604,12 +2604,12 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P. Deb, A. Orr, D. H. Bromwich, J. P. Nicolas, J. Turner, J. S. Hosking</t>
+          <t>J. Turner, T. Phillips, M. Thamban, W. Rahaman, G. J. Marshall, J. D. Wille, V. Favier, V. H. Winton, E. Thomas, Z. Wang, M. Broeke, J. S. Hosking, T. Lachlan-Cope</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10.1029/2018GL077092</t>
+          <t>10.1029/2018GL081517</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2620,16 +2620,20 @@
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Phys.org, black, https://phys.org/news/2019-03-antarctic-snowfall-dominated-extreme-snowstorms.html</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>4124-4133</t>
+          <t>3502-3511</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -2637,7 +2641,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Summer Drivers of Atmospheric Variability Affecting Ice Shelf Thinning in the Amundsen Sea Embayment, West Antarctica</t>
+          <t>The Dominant Role of Extreme Precipitation Events in Antarctic Snowfall Variability</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -2645,15 +2649,19 @@
           <t>article</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2018GL081517</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
@@ -2661,36 +2669,32 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>J. S. Hosking, D. MacLeod, T. Phillips, C. R. Holmes, P. Watson, E. Shuckburgh, D. Mitchell</t>
+          <t>P. Deb, A. Orr, D. H. Bromwich, J. P. Nicolas, J. Turner, J. S. Hosking</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10.1088/1748-9326/aabf78</t>
+          <t>10.1029/2018GL077092</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Environmental Research Letters</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Carbon Brief, blue, https://www.carbonbrief.org/uk-onshore-wind-energy-potential-could-rise-by-10-with-1-5c-warming; Independent, red, https://www.independent.co.uk/climate-change/news/wind-power-uk-global-warming-climate-change-british-antarctic-survey-a8354956.html; Phys.org, black, https://phys.org/news/2018-05-european-energy-potential-degree-warmer.html; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-5736189/Global-warming-make-UK-large-parts-northern-Europe-far-windier.html; Treehugger, green, https://www.treehugger.com/climate-change-could-bring-stronger-winds-more-wind-power-4857464</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1--9</t>
+          <t>4124-4133</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
@@ -2698,7 +2702,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Changes in European wind energy generation potential within a 1.5C warmer world</t>
+          <t>Summer Drivers of Atmospheric Variability Affecting Ice Shelf Thinning in the Amundsen Sea Embayment, West Antarctica</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -2709,7 +2713,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>45</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2722,32 +2726,36 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>J. C. King, D. Bannister, J. S. Hosking, S. R. Colwell</t>
+          <t>J. S. Hosking, D. MacLeod, T. Phillips, C. R. Holmes, P. Watson, E. Shuckburgh, D. Mitchell</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10.1002/asl.793</t>
+          <t>10.1088/1748-9326/aabf78</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Atmospheric Science Letters</t>
+          <t>Environmental Research Letters</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Carbon Brief, blue, https://www.carbonbrief.org/uk-onshore-wind-energy-potential-could-rise-by-10-with-1-5c-warming; Independent, red, https://www.independent.co.uk/climate-change/news/wind-power-uk-global-warming-climate-change-british-antarctic-survey-a8354956.html; Phys.org, black, https://phys.org/news/2018-05-european-energy-potential-degree-warmer.html; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-5736189/Global-warming-make-UK-large-parts-northern-Europe-far-windier.html; Treehugger, green, https://www.treehugger.com/climate-change-could-bring-stronger-winds-more-wind-power-4857464</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>491-496</t>
+          <t>1--9</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -2755,7 +2763,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Causes of the Antarctic region record high temperature at Signy Island, 30th January 1982</t>
+          <t>Changes in European wind energy generation potential within a 1.5C warmer world</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -2766,12 +2774,12 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
@@ -2779,19 +2787,19 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>J. S. Hosking, R. Fogt, E. R. Thomas, V. Moosavi, T. Phillips, J. Coggins, D. Reusch</t>
+          <t>J. C. King, D. Bannister, J. S. Hosking, S. R. Colwell</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10.1002/2017GL074722</t>
+          <t>10.1002/asl.793</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Atmospheric Science Letters</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2799,12 +2807,12 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>9084-9092</t>
+          <t>491-496</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -2812,7 +2820,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Accumulation in coastal West Antarctic ice core records and the role of cyclone activity</t>
+          <t>Causes of the Antarctic region record high temperature at Signy Island, 30th January 1982</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -2823,7 +2831,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>18</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2836,19 +2844,19 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>D. Bannister, M. Herzog, H.-F. Graf, J. S. Hosking, C. A. Short</t>
+          <t>J. S. Hosking, R. Fogt, E. R. Thomas, V. Moosavi, T. Phillips, J. Coggins, D. Reusch</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-16-0536.1</t>
+          <t>10.1002/2017GL074722</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2861,7 +2869,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>6701-6722</t>
+          <t>9084-9092</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -2869,7 +2877,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>An Assessment of Recent and Future Temperature Change over the Sichuan Basin, China, Using CMIP5 Climate Models</t>
+          <t>Accumulation in coastal West Antarctic ice core records and the role of cyclone activity</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -2880,7 +2888,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>44</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2893,36 +2901,32 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>J. Turner, T. Phillips, G. J. Marshall, J. S. Hosking, J. O. Pope, T. J. Bracegirdle, P. Deb</t>
+          <t>D. Bannister, M. Herzog, H.-F. Graf, J. S. Hosking, C. A. Short</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10.1002/2017GL073656</t>
+          <t>10.1175/JCLI-D-16-0536.1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Phys.org, black, https://phys.org/news/2017-06-storms-massive-antarctic-sea-ice.html</t>
-        </is>
-      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>6868--6875</t>
+          <t>6701-6722</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -2930,7 +2934,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Unprecedented springtime retreat of Antarctic sea ice in 2016</t>
+          <t>An Assessment of Recent and Future Temperature Change over the Sichuan Basin, China, Using CMIP5 Climate Models</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -2941,7 +2945,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>30</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2954,32 +2958,36 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>T. Moffat-Griffin, M. J. Taylor, T. Nakamura, A. J. Kavanagh, J. S. Hosking, A. Orr</t>
+          <t>J. Turner, T. Phillips, G. J. Marshall, J. S. Hosking, J. O. Pope, T. J. Bracegirdle, P. Deb</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10.1007/s00376-016-6197-5</t>
+          <t>10.1002/2017GL073656</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Advances in Atmospheric Sciences</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Phys.org, black, https://phys.org/news/2017-06-storms-massive-antarctic-sea-ice.html</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1--3</t>
+          <t>6868--6875</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
@@ -2987,7 +2995,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>3rd ANtarctic Gravity Wave Instrument Network (ANGWIN) science workshop</t>
+          <t>Unprecedented springtime retreat of Antarctic sea ice in 2016</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -2998,7 +3006,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>44</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3011,19 +3019,19 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, T. Phillips, G. J. Marshall</t>
+          <t>T. Moffat-Griffin, M. J. Taylor, T. Nakamura, A. J. Kavanagh, J. S. Hosking, A. Orr</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>10.1002/joc.4848</t>
+          <t>10.1007/s00376-016-6197-5</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>International Journal of Climatology</t>
+          <t>Advances in Atmospheric Sciences</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3031,12 +3039,12 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2325--2336</t>
+          <t>1--3</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3044,7 +3052,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Variability and trends in the Southern Hemisphere high latitude, quasi-stationary planetary waves</t>
+          <t>3rd ANtarctic Gravity Wave Instrument Network (ANGWIN) science workshop</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3055,7 +3063,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>34</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3068,32 +3076,32 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>J. Turner, H. Lu, I. White, J. King, T. Phillips, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, R. Mulvaney, P. Deb</t>
+          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, T. Phillips, G. J. Marshall</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10.1038/nature18645</t>
+          <t>10.1002/joc.4848</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Nature</t>
+          <t>International Journal of Climatology</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Carbon Brief, blue, https://www.carbonbrief.org/natural-forces-overpowering-antarctic-peninsula-warming; Washington Post, black, https://www.washingtonpost.com/news/energy-environment/wp/2016/07/20/the-antarctic-peninsula-is-cooling-but-climate-skeptics-shouldnt-get-too-excited/</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>411--415</t>
+          <t>2325--2336</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -3101,7 +3109,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Absence of 21st century warming on Antarctic Peninsula consistent with natural variability</t>
+          <t>Variability and trends in the Southern Hemisphere high latitude, quasi-stationary planetary waves</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -3112,12 +3120,12 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>37</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
@@ -3125,32 +3133,32 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>P. Deb, A. Orr, J. S. Hosking, T. Phillips, J. Turner, D. Bannister, J. O. Pope, S. Colwell</t>
+          <t>J. Turner, H. Lu, I. White, J. King, T. Phillips, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, R. Mulvaney, P. Deb</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10.1002/2015JD024037</t>
+          <t>10.1038/nature18645</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Journal of Geophysical Research: Atmospheres</t>
+          <t>Nature</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Carbon Brief, blue, https://www.carbonbrief.org/natural-forces-overpowering-antarctic-peninsula-warming; Washington Post, black, https://www.washingtonpost.com/news/energy-environment/wp/2016/07/20/the-antarctic-peninsula-is-cooling-but-climate-skeptics-shouldnt-get-too-excited/</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1532-1548</t>
+          <t>411--415</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -3158,7 +3166,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>An assessment of the Polar Weather Research and Forecasting (WRF) model representation of near-surface meteorological variables over West Antarctica</t>
+          <t>Absence of 21st century warming on Antarctic Peninsula consistent with natural variability</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -3169,7 +3177,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>535</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3182,19 +3190,19 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>J. S. Hosking, A. Orr, T. J. Bracegirdle, J. Turner</t>
+          <t>P. Deb, A. Orr, J. S. Hosking, T. Phillips, J. Turner, D. Bannister, J. O. Pope, S. Colwell</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10.1002/2015GL067143</t>
+          <t>10.1002/2015JD024037</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Journal of Geophysical Research: Atmospheres</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3202,12 +3210,12 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>367-376</t>
+          <t>1532-1548</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3215,7 +3223,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Future circulation changes off West Antarctica: Sensitivity of the Amundsen Sea Low to projected anthropogenic forcing</t>
+          <t>An assessment of the Polar Weather Research and Forecasting (WRF) model representation of near-surface meteorological variables over West Antarctica</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -3226,7 +3234,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>121</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3239,19 +3247,19 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>M. N. Raphael, G. J. Marshall, J. Turner, R. L. Fogt, D. Schneider, D. A. Dixon, J. S. Hosking, J. M. Jones, W. R. Hobbs</t>
+          <t>J. S. Hosking, A. Orr, T. J. Bracegirdle, J. Turner</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10.1175/BAMS-D-14-00018.1</t>
+          <t>10.1002/2015GL067143</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bulletin of the American Meteorological Society</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3264,7 +3272,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>111-121</t>
+          <t>367-376</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3272,7 +3280,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>The Amundsen Sea Low: Variability, Change, and Impact on Antarctic Climate</t>
+          <t>Future circulation changes off West Antarctica: Sensitivity of the Amundsen Sea Low to projected anthropogenic forcing</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -3283,7 +3291,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>43</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3296,19 +3304,19 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, G. J. Marshall, T. Phillips, T. J. Bracegirdle</t>
+          <t>M. N. Raphael, G. J. Marshall, J. Turner, R. L. Fogt, D. Schneider, D. A. Dixon, J. S. Hosking, J. M. Jones, W. R. Hobbs</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>10.1007/s00382-015-2708-9</t>
+          <t>10.1175/BAMS-D-14-00018.1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Climate Dynamics</t>
+          <t>Bulletin of the American Meteorological Society</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3316,12 +3324,12 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2391--2402</t>
+          <t>111-121</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3329,7 +3337,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Antarctic sea ice increase dominated by intrinsic variability of the Amundsen Sea Low</t>
+          <t>The Amundsen Sea Low: Variability, Change, and Impact on Antarctic Climate</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -3340,7 +3348,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>97</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3353,36 +3361,32 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>E. R. Thomas, J. S. Hosking, R. R. Tuckwell, R. A. Warren, E. C. Ludlow</t>
+          <t>J. Turner, J. S. Hosking, G. J. Marshall, T. Phillips, T. J. Bracegirdle</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10.1002/2015GL065750</t>
+          <t>10.1007/s00382-015-2708-9</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Climate Dynamics</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Indian Express, red, https://indianexpress.com/article/trending/trending-globally/west-antarctic-coastal-snow-rose-30-per-cent-in-20th-century/</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>9387--9393</t>
+          <t>2391--2402</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -3390,7 +3394,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Twentieth century increase in snowfall in coastal West Antarctica</t>
+          <t>Antarctic sea ice increase dominated by intrinsic variability of the Amundsen Sea Low</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -3401,12 +3405,12 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -3414,36 +3418,44 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, T. Phillips</t>
+          <t>E. R. Thomas, J. S. Hosking, R. R. Tuckwell, R. A. Warren, E. C. Ludlow</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10.1098/rsta.2014.0163</t>
+          <t>10.1002/2015GL065750</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Philosophical Transactions of the Royal Society of London A: Mathematical, Physical and Engineering Sciences</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Indian Express, red, https://indianexpress.com/article/trending/trending-globally/west-antarctic-coastal-snow-rose-30-per-cent-in-20th-century/</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2045</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>9387--9393</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Recent Changes in Antarctic Sea Ice</t>
+          <t>Twentieth century increase in snowfall in coastal West Antarctica</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -3454,7 +3466,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>42</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3467,19 +3479,19 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>C. Chemel, M. R. Russo, J. S. Hosking, P. J. Telford, J. A. Pyle</t>
+          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, T. Phillips</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10.1002/asl2.540</t>
+          <t>10.1098/rsta.2014.0163</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Atmospheric Science Letters</t>
+          <t>Philosophical Transactions of the Royal Society of London A: Mathematical, Physical and Engineering Sciences</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3487,20 +3499,16 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>148-154</t>
-        </is>
-      </c>
+          <t>2045</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Sensitivity of tropical deep convection in global models: effects of horizontal resolution, surface constraints and 3D atmospheric nudging</t>
+          <t>Recent Changes in Antarctic Sea Ice</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -3511,7 +3519,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>373</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3524,19 +3532,19 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A. Orr, J. S. Hosking, L. Hoffmann, J. Keeble, S. M. Dean, H. K. Roscoe, N. L. Abraham, S. Vosper, P. Braesicke</t>
+          <t>C. Chemel, M. R. Russo, J. S. Hosking, P. J. Telford, J. A. Pyle</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10.5194/acp-15-1071-2015</t>
+          <t>10.1002/asl2.540</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Atmospheric Chemistry and Physics</t>
+          <t>Atmospheric Science Letters</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3549,7 +3557,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1071--1086</t>
+          <t>148-154</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
@@ -3557,7 +3565,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Inclusion of mountain-wave-induced cooling for the formation of PSCs over the Antarctic Peninsula in a chemistry-climate model</t>
+          <t>Sensitivity of tropical deep convection in global models: effects of horizontal resolution, surface constraints and 3D atmospheric nudging</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -3568,7 +3576,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3581,19 +3589,19 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>J. S. Hosking, D. Bannister, A. Orr, J. King, E. Young, T. Phillips</t>
+          <t>A. Orr, J. S. Hosking, L. Hoffmann, J. Keeble, S. M. Dean, H. K. Roscoe, N. L. Abraham, S. Vosper, P. Braesicke</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10.1002/asl2.519</t>
+          <t>10.5194/acp-15-1071-2015</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Atmospheric Science Letters</t>
+          <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3601,12 +3609,12 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>50-55</t>
+          <t>1071--1086</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
@@ -3614,7 +3622,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Orographic disturbances of surface winds over the shelf waters adjacent to South Georgia</t>
+          <t>Inclusion of mountain-wave-induced cooling for the formation of PSCs over the Antarctic Peninsula in a chemistry-climate model</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -3625,7 +3633,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3638,19 +3646,19 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>A. Orr, T. Phillips, S. Webster, A. Elvidge, M. Weeks, S. Hosking, J. Turner</t>
+          <t>J. S. Hosking, D. Bannister, A. Orr, J. King, E. Young, T. Phillips</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>10.1002/qj.2296</t>
+          <t>10.1002/asl2.519</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Quarterly Journal of the Royal Meteorological Society</t>
+          <t>Atmospheric Science Letters</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3658,12 +3666,12 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2287-2297</t>
+          <t>50-55</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
@@ -3671,7 +3679,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Met Office Unified Model high resolution simulations of a strong wind event in Antarctica</t>
+          <t>Orographic disturbances of surface winds over the shelf waters adjacent to South Georgia</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -3682,12 +3690,12 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>16</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
@@ -3695,19 +3703,19 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>T. Bracegirdle, J. Turner, J. S. Hosking, T. Phillips</t>
+          <t>A. Orr, T. Phillips, S. Webster, A. Elvidge, M. Weeks, S. Hosking, J. Turner</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10.1007/s00382-013-2032-1</t>
+          <t>10.1002/qj.2296</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Climate Dynamics</t>
+          <t>Quarterly Journal of the Royal Meteorological Society</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3715,12 +3723,12 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>684</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2093-2104</t>
+          <t>2287-2297</t>
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
@@ -3728,7 +3736,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Sources of uncertainty in projections of twenty-first century westerly wind changes over the Amundsen Sea, West Antarctica, in CMIP5 climate models</t>
+          <t>Met Office Unified Model high resolution simulations of a strong wind event in Antarctica</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -3739,7 +3747,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>140</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3752,19 +3760,19 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, T. Phillips, G. J. Marshall</t>
+          <t>T. Bracegirdle, J. Turner, J. S. Hosking, T. Phillips</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10.1002/2013GL058371</t>
+          <t>10.1007/s00382-013-2032-1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Climate Dynamics</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3772,12 +3780,12 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>5894-5898</t>
+          <t>2093-2104</t>
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
@@ -3785,7 +3793,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Temporal and spatial evolution of the Antarctic sea ice prior to the September 2012 record maximum extent</t>
+          <t>Sources of uncertainty in projections of twenty-first century westerly wind changes over the Amundsen Sea, West Antarctica, in CMIP5 climate models</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -3796,12 +3804,12 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
@@ -3809,19 +3817,19 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>J. S. Hosking, A. Orr, G. J. Marshall, J. Turner, T. Phillips</t>
+          <t>J. Turner, J. S. Hosking, T. Phillips, G. J. Marshall</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-12-00813.1</t>
+          <t>10.1002/2013GL058371</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3829,12 +3837,12 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>6633--6648</t>
+          <t>5894-5898</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
@@ -3842,7 +3850,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>The influence of the Amundsen-Bellingshausen Seas Low on the climate of West Antarctica and its representation in coupled climate model simulations</t>
+          <t>Temporal and spatial evolution of the Antarctic sea ice prior to the September 2012 record maximum extent</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -3853,7 +3861,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>40</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3866,19 +3874,19 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>J. Turner, T. Phillips, J. S. Hosking, G. J. Marshall, A. Orr</t>
+          <t>J. S. Hosking, A. Orr, G. J. Marshall, J. Turner, T. Phillips</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>10.1002/joc.3558</t>
+          <t>10.1175/JCLI-D-12-00813.1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>International Journal of Climatology</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -3886,12 +3894,12 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1818--1829</t>
+          <t>6633--6648</t>
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
@@ -3899,7 +3907,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>The Amundsen Sea Low</t>
+          <t>The influence of the Amundsen-Bellingshausen Seas Low on the climate of West Antarctica and its representation in coupled climate model simulations</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -3910,7 +3918,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3923,19 +3931,19 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>N. E. Barrand, D. Vaughan, N. Steiner, M. Tedesco, P. Kuipers Munneke, M. Broeke, J. S. Hosking</t>
+          <t>J. Turner, T. Phillips, J. S. Hosking, G. J. Marshall, A. Orr</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>10.1029/2012JF002559</t>
+          <t>10.1002/joc.3558</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Journal of Geophysical Research: Earth Surface</t>
+          <t>International Journal of Climatology</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3943,12 +3951,12 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>315-330</t>
+          <t>1818--1829</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
@@ -3956,7 +3964,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Trends in Antarctic Peninsula surface melting conditions from observations and regional climate modelling</t>
+          <t>The Amundsen Sea Low</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -3967,7 +3975,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>33</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3980,19 +3988,19 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>J. Turner, T. Bracegirdle, T. Phillips, G. J. Marshall, J. S. Hosking</t>
+          <t>N. E. Barrand, D. Vaughan, N. Steiner, M. Tedesco, P. Kuipers Munneke, M. Broeke, J. S. Hosking</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-12-00068.1</t>
+          <t>10.1029/2012JF002559</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Journal of Geophysical Research: Earth Surface</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -4000,12 +4008,12 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1473--1484</t>
+          <t>315-330</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
@@ -4013,7 +4021,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>An Initial Assessment of Antarctic Sea Ice Extent in the CMIP5 Models</t>
+          <t>Trends in Antarctic Peninsula surface melting conditions from observations and regional climate modelling</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -4024,7 +4032,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>118</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4037,12 +4045,12 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, W. Feng, H. K. Roscoe, J. D. Haigh</t>
+          <t>J. Turner, T. Bracegirdle, T. Phillips, G. J. Marshall, J. S. Hosking</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-12-00480.1</t>
+          <t>10.1175/JCLI-D-12-00068.1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -4057,12 +4065,12 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>662--668</t>
+          <t>1473--1484</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -4070,7 +4078,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Strong dynamical modulation of the cooling of the polar stratosphere associated with the Antarctic ozone hole</t>
+          <t>An Initial Assessment of Antarctic Sea Ice Extent in the CMIP5 Models</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -4094,19 +4102,19 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, T. Jung, J. D. Haigh, T. Phillips, W. Feng</t>
+          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, W. Feng, H. K. Roscoe, J. D. Haigh</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>10.1175/JAS-D-11-0210.1</t>
+          <t>10.1175/JCLI-D-12-00480.1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Journal of the Atmospheric Sciences</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -4114,12 +4122,12 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2917--2932</t>
+          <t>662--668</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
@@ -4127,7 +4135,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Possible Dynamical Mechanisms for Southern Hemisphere Climate Change due to the Ozone Hole</t>
+          <t>Strong dynamical modulation of the cooling of the polar stratosphere associated with the Antarctic ozone hole</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -4138,12 +4146,12 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>26</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
@@ -4151,19 +4159,19 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
+          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, T. Jung, J. D. Haigh, T. Phillips, W. Feng</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10.5194/acp-12-9791-2012</t>
+          <t>10.1175/JAS-D-11-0210.1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Atmospheric Chemistry and Physics</t>
+          <t>Journal of the Atmospheric Sciences</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -4171,12 +4179,12 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>9791--9797</t>
+          <t>2917--2932</t>
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
@@ -4184,7 +4192,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Tropical convective transport and the Walker circulation</t>
+          <t>Possible Dynamical Mechanisms for Southern Hemisphere Climate Change due to the Ozone Hole</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -4195,7 +4203,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>69</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4208,12 +4216,12 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>C. R. Hoyle, V. Mar&amp;eacute;cal, M. R. Russo, G. Allen, J. Arteta, C. Chemel, M. P. Chipperfield, F. D'Amato, O. Dessens, W. Feng, J. F. Hamilton, N. R. Harris, J. S. Hosking, A. C. Lewis, O. Morgenstern, T. Peter, J. A. Pyle, T. Reddmann, N. A. Richards, P. J. Telford, W. Tian, S. Viciani, A. Volz-Thomas, O. Wild, X. Yang, G. Zeng</t>
+          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10.5194/acp-11-8103-2011</t>
+          <t>10.5194/acp-12-9791-2012</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -4228,12 +4236,12 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>8103--8131</t>
+          <t>9791--9797</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
@@ -4241,7 +4249,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Representation of tropical deep convection in atmospheric models - Part 2: Tracer transport</t>
+          <t>Tropical convective transport and the Walker circulation</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -4252,12 +4260,12 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
@@ -4265,12 +4273,12 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>M. R. Russo, V. Mar&amp;eacute;cal, C. R. Hoyle, J. Arteta, C. Chemel, M. P. Chipperfield, O. Dessens, W. Feng, J. S. Hosking, P. J. Telford, O. Wild, X. Yang, J. A. Pyle</t>
+          <t>C. R. Hoyle, V. Mar&amp;eacute;cal, M. R. Russo, G. Allen, J. Arteta, C. Chemel, M. P. Chipperfield, F. D'Amato, O. Dessens, W. Feng, J. F. Hamilton, N. R. Harris, J. S. Hosking, A. C. Lewis, O. Morgenstern, T. Peter, J. A. Pyle, T. Reddmann, N. A. Richards, P. J. Telford, W. Tian, S. Viciani, A. Volz-Thomas, O. Wild, X. Yang, G. Zeng</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>10.5194/acp-11-2765-2011</t>
+          <t>10.5194/acp-11-8103-2011</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -4285,12 +4293,12 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2765--2786</t>
+          <t>8103--8131</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -4298,7 +4306,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Representation of tropical deep convection in atmospheric models - Part 1: Meteorology and comparison with satellite observations</t>
+          <t>Representation of tropical deep convection in atmospheric models - Part 2: Tracer transport</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -4322,12 +4330,12 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
+          <t>M. R. Russo, V. Mar&amp;eacute;cal, C. R. Hoyle, J. Arteta, C. Chemel, M. P. Chipperfield, O. Dessens, W. Feng, J. S. Hosking, P. J. Telford, O. Wild, X. Yang, J. A. Pyle</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10.5194/acp-10-11175-2010</t>
+          <t>10.5194/acp-11-2765-2011</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -4342,12 +4350,12 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>11175--11188</t>
+          <t>2765--2786</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
@@ -4355,7 +4363,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Modelling deep convection and its impacts on the tropical tropopause layer</t>
+          <t>Representation of tropical deep convection in atmospheric models - Part 1: Meteorology and comparison with satellite observations</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -4366,12 +4374,12 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
@@ -4379,60 +4387,56 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>A. Conner, S. Hosking, J. Lloyd, A. Rao, G. Shaddick, M. Sharan</t>
+          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10.5281/zenodo.7712969</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>The Alan Turing Institute</t>
-        </is>
-      </c>
+          <t>10.5194/acp-10-11175-2010</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Atmospheric Chemistry and Physics</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>https://zenodo.org/record/7712969/files/turing_asg_whitepaper_climatechange.pdf</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>Zenodo</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>11175--11188</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Tackling climate change with data science and AI</t>
+          <t>Modelling deep convection and its impacts on the tropical tropopause layer</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>techreport</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5281/zenodo.7712969</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr"/>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
@@ -4440,32 +4444,44 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>D. J. Patterson et al.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>A. Conner, S. Hosking, J. Lloyd, A. Rao, G. Shaddick, M. Sharan</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>10.5281/zenodo.7712969</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>WWF and World Bank Group</t>
+          <t>The Alan Turing Institute</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://www.wwf.org.uk/sites/default/files/2020-12/Spatial%20Finance_%20Challenges%20and%20Opportunities_Final.pdf</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr"/>
+          <t>https://zenodo.org/record/7712969/files/turing_asg_whitepaper_climatechange.pdf</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Zenodo</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Spatial Finance: Challenges and Opportunities in a Changing World</t>
+          <t>Tackling climate change with data science and AI</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -4473,11 +4489,15 @@
           <t>techreport</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5281/zenodo.7712969</t>
+        </is>
+      </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -4485,13 +4505,13 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>E. Wolff et al.</t>
+          <t>D. J. Patterson et al.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Global Environmental Research Committee (GERC), Royal Society</t>
+          <t>WWF and World Bank Group</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4503,14 +4523,14 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-geoengineering-report.pdf</t>
+          <t>https://www.wwf.org.uk/sites/default/files/2020-12/Spatial%20Finance_%20Challenges%20and%20Opportunities_Final.pdf</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Geoengineering</t>
+          <t>Spatial Finance: Challenges and Opportunities in a Changing World</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -4522,7 +4542,7 @@
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
     </row>
@@ -4548,14 +4568,14 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-air-quality-report.pdf</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-geoengineering-report.pdf</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Air quality</t>
+          <t>Geoengineering</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -4567,7 +4587,7 @@
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
@@ -4593,14 +4613,14 @@
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-biodiversity-report.pdf</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-air-quality-report.pdf</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>Air quality</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -4638,14 +4658,14 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-naturalres-food-report.pdf?la=en-GB&amp;hash=54A9DBF67437B62966A6CD8B425A5D17</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-biodiversity-report.pdf</t>
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Natural Resources</t>
+          <t>Biodiversity</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -4657,7 +4677,7 @@
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
@@ -4683,14 +4703,14 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-climate-report.pdf</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-naturalres-food-report.pdf?la=en-GB&amp;hash=54A9DBF67437B62966A6CD8B425A5D17</t>
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Natural Resources</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -4710,13 +4730,13 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>A. Maycock, S. Hosking, T. Bracegirdle</t>
+          <t>E. Wolff et al.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cambridge Centre for Climate Science (CCfCS)</t>
+          <t>Global Environmental Research Committee (GERC), Royal Society</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -4728,14 +4748,14 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>https://www.climatescience.cam.ac.uk/docs/ccfcs-ipcc-key-points-pdf</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-climate-report.pdf</t>
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Key Points from the IPCC WGI Fifth Assessment Report. Climate Change 2013: The Physical Science Basis</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -4747,65 +4767,61 @@
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Cambridge, UK</t>
-        </is>
-      </c>
+      <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>J. S. Hosking</t>
+          <t>A. Maycock, S. Hosking, T. Bracegirdle</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Cambridge Centre for Climate Science (CCfCS)</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>https://www.climatescience.cam.ac.uk/docs/ccfcs-ipcc-key-points-pdf</t>
+        </is>
+      </c>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>University of Cambridge</t>
-        </is>
-      </c>
+      <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>The impact of deep convection on the structure of, and transport through, the tropical tropopause layer</t>
+          <t>Key Points from the IPCC WGI Fifth Assessment Report. Climate Change 2013: The Physical Science Basis</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>phdthesis</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>http://ethos.bl.uk/OrderDetails.do?uin=uk.bl.ethos.604249</t>
-        </is>
-      </c>
+          <t>techreport</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr"/>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Cambridge, UK</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>J. S. Hosking</t>
@@ -4817,35 +4833,47 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>University of Cambridge</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Amundsen Sea Low (ASL) index</t>
+          <t>The impact of deep convection on the structure of, and transport through, the tropical tropopause layer</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>datasets</t>
+          <t>phdthesis</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>https://scotthosking.com/asl_index</t>
+          <t>http://ethos.bl.uk/OrderDetails.do?uin=uk.bl.ethos.604249</t>
         </is>
       </c>
       <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>T. Andersson, J. S. Hosking et al.</t>
+          <t>J. S. Hosking</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -4862,7 +4890,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Forecasts, neural networks, and results from the paper: 'Seasonal Arctic sea ice forecasting with probabilistic deep learning'</t>
+          <t>Amundsen Sea Low (ASL) index</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -4872,11 +4900,48 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>https://data.bas.ac.uk/full-record.php?id=GB/NERC/BAS/PDC/01526</t>
+          <t>https://scotthosking.com/asl_index</t>
         </is>
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>T. Andersson, J. S. Hosking et al.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Forecasts, neural networks, and results from the paper: 'Seasonal Arctic sea ice forecasting with probabilistic deep learning'</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>datasets</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>https://data.bas.ac.uk/full-record.php?id=GB/NERC/BAS/PDC/01526</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,12 +1022,12 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>M. Girona-Mata, A. Orr, M. Widmann, D. Bannister, G. H. Dars, S. Hosking, J. Norris, D. Ocio, T. Phillips, J. Steiner, R. E. Turner</t>
+          <t>B. R. Evans, A. R. Lowe, A. Crawford, A. Fleming, J. S. Hosking</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.5194/hess-29-3073-2025</t>
+          <t>10.5194/tc-20-467-2026</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hydrology and Earth System Sciences</t>
+          <t>The Cryosphere</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1043,12 +1043,12 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>3073--3100</t>
+          <t>467--482</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1057,7 +1057,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Probabilistic precipitation downscaling for ungauged mountain sites: a pilot study for the Hindu Kush Himalaya</t>
+          <t>Icebergs, jigsaw puzzles, and genealogy: automated multi-generational iceberg tracking and lineage reconstruction</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1067,17 +1067,17 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>https://hess.copernicus.org/articles/29/3073/2025/</t>
+          <t>https://tc.copernicus.org/articles/20/467/2026/</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2026</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>E. Bowler, J. Byrne, L.-M. Leclerc, A. Roberto-Charron, M. S. Rogers, R. D. Cavanagh, J. Harasimo, M. L. Lancaster, R. S. Chan, O. Strickson, J. Wilkinson, R. Downie, J. S. Hosking, T. R. Andersson</t>
+          <t>K. Tazi, A. Orr, J. S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/2688-8319.70034</t>
+          <t>10.1017/eds.2025.10020</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1099,24 +1099,16 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Ecological Solutions and Evidence</t>
+          <t>Environmental Data Science</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Phys.org, black, https://phys.org/news/2025-05-ai-tool-aids-caribou-arctic.html; Anadolu Agency, blue, https://www.aa.com.tr/en/environment/new-ai-tool-can-help-protect-migration-routes-of-endangered-caribou-in-arctic-study/3583642; Business Weekly, grey, https://www.businessweekly.co.uk/posts/british-antarctic-survey-puts-ai-into-arctic-to-aid-caribou-conservation; Press Release, HotPink, https://www.bas.ac.uk/media-post/new-ai-tool-aids-caribou-conservation-in-a-changing-arctic/; Canada's National Observer, red, https://www.nationalobserver.com/2025/06/11/news/ai-protect-caribou-migration-changing-arctic</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>e70034</t>
+          <t>e46</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1125,7 +1117,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>AI sea ice forecasts for Arctic conservation: A case study predicting the timing of caribou sea ice migrations</t>
+          <t>Precipitation prediction over the upper Indus Basin from large-scale circulation patterns using Gaussian processes</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1133,14 +1125,10 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>https://besjournals.onlinelibrary.wiley.com/doi/abs/10.1002/2688-8319.70034</t>
-        </is>
-      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1154,12 +1142,12 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>R. E. Rouse, H. Moss, S. Hosking, A. McRobie, E. Shuckburgh</t>
+          <t>M. Girona-Mata, A. Orr, M. Widmann, D. Bannister, G. H. Dars, S. Hosking, J. Norris, D. Ocio, T. Phillips, J. Steiner, R. E. Turner</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.1017/eds.2025.16</t>
+          <t>10.5194/hess-29-3073-2025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1167,16 +1155,20 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Environmental Data Science</t>
+          <t>Hydrology and Earth System Sciences</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>e26</t>
+          <t>3073--3100</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1185,7 +1177,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Reflective error: a metric for assessing predictive performance at extreme events</t>
+          <t>Probabilistic precipitation downscaling for ungauged mountain sites: a pilot study for the Hindu Kush Himalaya</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1193,10 +1185,14 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>https://hess.copernicus.org/articles/29/3073/2025/</t>
+        </is>
+      </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1210,12 +1206,12 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A. Allen, S. Markou, W. Tebbutt, J. Requeima, W. P. Bruinsma, T. R. Andersson, N. D. Herzog, M. Chantry, J. S. Hosking, R. E. Turner</t>
+          <t>E. Bowler, J. Byrne, L.-M. Leclerc, A. Roberto-Charron, M. S. Rogers, R. D. Cavanagh, J. Harasimo, M. L. Lancaster, R. S. Chan, O. Strickson, J. Wilkinson, R. Downie, J. S. Hosking, T. R. Andersson</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41586-025-08897-0</t>
+          <t>https://doi.org/10.1002/2688-8319.70034</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1223,25 +1219,33 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Nature</t>
+          <t>Ecological Solutions and Evidence</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Guardian, blue, https://www.theguardian.com/technology/2025/mar/20/ai-aardvark-weather-prediction-forecasting-artificial-intelligence; FT, DarkOrange, https://www.ft.com/content/73492128-5822-4bb2-b953-64217eb303e4; New Scientist, grey, https://www.newscientist.com/article/2472659-ai-can-forecast-the-weather-in-seconds-without-needing-supercomputers/; Independent, red, https://www.independent.co.uk/tech/ai-weather-forecast-aardvark-cambridge-b2717122.html; Blog, black, https://www.turing.ac.uk/blog/project-aardvark-reimagining-ai-weather-prediction</t>
+          <t>Phys.org, black, https://phys.org/news/2025-05-ai-tool-aids-caribou-arctic.html; Anadolu Agency, blue, https://www.aa.com.tr/en/environment/new-ai-tool-can-help-protect-migration-routes-of-endangered-caribou-in-arctic-study/3583642; Business Weekly, grey, https://www.businessweekly.co.uk/posts/british-antarctic-survey-puts-ai-into-arctic-to-aid-caribou-conservation; Press Release, HotPink, https://www.bas.ac.uk/media-post/new-ai-tool-aids-caribou-conservation-in-a-changing-arctic/; Canada's National Observer, red, https://www.nationalobserver.com/2025/06/11/news/ai-protect-caribou-migration-changing-arctic</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>e70034</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>End-to-end data-driven weather prediction</t>
+          <t>AI sea ice forecasts for Arctic conservation: A case study predicting the timing of caribou sea ice migrations</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1251,10 +1255,14 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>https://www.nature.com/articles/s41586-025-08897-0</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr"/>
+          <t>https://besjournals.onlinelibrary.wiley.com/doi/abs/10.1002/2688-8319.70034</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr">
         <is>
           <t>2025</t>
@@ -1266,12 +1274,12 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>R. C. Williams, P. Thodoroff, R. J. Arthern, J. Byrne, J. S. Hosking, M. Kaiser, N. D. Lawrence, I. Kazlauskaite</t>
+          <t>R. E. Rouse, H. Moss, S. Hosking, A. McRobie, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.1038/s43247-025-02010-z</t>
+          <t>10.1017/eds.2025.16</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1279,21 +1287,25 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Commun Earth Environ</t>
+          <t>Environmental Data Science</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>e26</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Calculations of extreme sea level rise scenarios are strongly dependent on ice sheet model resolution</t>
+          <t>Reflective error: a metric for assessing predictive performance at extreme events</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1301,12 +1313,12 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1038/s43247-025-02010-z</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr">
         <is>
           <t>2025</t>
@@ -1318,12 +1330,12 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>R. E. Rouse, D. Khamis, S. Hosking, A. McRobie, E. Shuckburgh</t>
+          <t>A. Allen, S. Markou, W. Tebbutt, J. Requeima, W. P. Bruinsma, T. R. Andersson, N. D. Herzog, M. Chantry, J. S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10.1017/eds.2024.48</t>
+          <t>https://doi.org/10.1038/s41586-025-08897-0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1331,25 +1343,25 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Environmental Data Science</t>
+          <t>Nature</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Guardian, blue, https://www.theguardian.com/technology/2025/mar/20/ai-aardvark-weather-prediction-forecasting-artificial-intelligence; FT, DarkOrange, https://www.ft.com/content/73492128-5822-4bb2-b953-64217eb303e4; New Scientist, grey, https://www.newscientist.com/article/2472659-ai-can-forecast-the-weather-in-seconds-without-needing-supercomputers/; Independent, red, https://www.independent.co.uk/tech/ai-weather-forecast-aardvark-cambridge-b2717122.html; Blog, black, https://www.turing.ac.uk/blog/project-aardvark-reimagining-ai-weather-prediction</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>e5</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Streamflow prediction using artificial neural networks and soil moisture proxies</t>
+          <t>End-to-end data-driven weather prediction</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1357,12 +1369,12 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>https://www.nature.com/articles/s41586-025-08897-0</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
           <t>2025</t>
@@ -1374,12 +1386,12 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A. Coca-Castro, A. Fouilloux, R. Barros Lourenço, A. McDonald, Y. Rao, J. S. Hosking</t>
+          <t>R. C. Williams, P. Thodoroff, R. J. Arthern, J. Byrne, J. S. Hosking, M. Kaiser, N. D. Lawrence, I. Kazlauskaite</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10.1017/eds.2024.35</t>
+          <t>10.1038/s43247-025-02010-z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1387,7 +1399,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Environmental Data Science</t>
+          <t>Commun Earth Environ</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1401,7 +1413,7 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Improving the reproducibility in geoscientific papers: lessons learned from a Hackathon in climate science</t>
+          <t>Calculations of extreme sea level rise scenarios are strongly dependent on ice sheet model resolution</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1409,12 +1421,12 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s43247-025-02010-z</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
           <t>2025</t>
@@ -1426,12 +1438,12 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>K. Tazi, A. Orr, J. Hernandez-Gonz&amp;aacute;lez, S. Hosking, R. E. Turner</t>
+          <t>R. E. Rouse, D. Khamis, S. Hosking, A. McRobie, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10.5194/hess-28-4903-2024</t>
+          <t>10.1017/eds.2024.48</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1439,20 +1451,16 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Hydrology and Earth System Sciences</t>
+          <t>Environmental Data Science</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4903--4925</t>
+          <t>e5</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -1461,7 +1469,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Downscaling precipitation over High-mountain Asia using multi-fidelity Gaussian processes: improved estimates from ERA5</t>
+          <t>Streamflow prediction using artificial neural networks and soil moisture proxies</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -1469,19 +1477,15 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>https://hess.copernicus.org/articles/28/4903/2024/</t>
-        </is>
-      </c>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>4</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -1490,42 +1494,34 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>M. S. Rogers, M. Fox, A. Fleming, L. {van Zeeland}, J. Wilkinson, J. S. Hosking</t>
+          <t>A. Coca-Castro, A. Fouilloux, R. Barros Lourenço, A. McDonald, Y. Rao, J. S. Hosking</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.rse.2024.114073</t>
+          <t>10.1017/eds.2024.35</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0034-4257</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Remote Sensing of Environment</t>
+          <t>Environmental Data Science</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>114073</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Sea ice detection using concurrent multispectral and synthetic aperture radar imagery</t>
+          <t>Improving the reproducibility in geoscientific papers: lessons learned from a Hackathon in climate science</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -1533,19 +1529,15 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0034425724000841</t>
-        </is>
-      </c>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>4</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1546,12 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>H. L. Joakimsen, I. Martinsen, L. T. Luppino, A. McDonald, S. Hosking, R. Jenssen</t>
+          <t>K. Tazi, A. Orr, J. Hernandez-Gonz&amp;aacute;lez, S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10.1109/LGRS.2024.3366308</t>
+          <t>10.5194/hess-28-4903-2024</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1567,16 +1559,20 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>IEEE Geoscience and Remote Sensing Letters</t>
+          <t>Hydrology and Earth System Sciences</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>4903--4925</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -1585,7 +1581,7 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Interrogating Sea Ice Predictability With Gradients</t>
+          <t>Downscaling precipitation over High-mountain Asia using multi-fidelity Gaussian processes: improved estimates from ERA5</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -1593,10 +1589,14 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>https://hess.copernicus.org/articles/28/4903/2024/</t>
+        </is>
+      </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1610,34 +1610,42 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C. Jay, Y. Yu, I. Crawford, S. Archer-Nicholls, P. James, A. Gledson, G. Shaddick, R. Haines, L. Lannelongue, E. Lines, S. Hosking, D. Topping</t>
+          <t>M. S. Rogers, M. Fox, A. Fleming, L. {van Zeeland}, J. Wilkinson, J. S. Hosking</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10.1038/s41561-023-01369-y</t>
+          <t>https://doi.org/10.1016/j.rse.2024.114073</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0034-4257</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nature Geoscience</t>
+          <t>Remote Sensing of Environment</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>114073</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Prioritize environmental sustainability in use of AI and data science methods</t>
+          <t>Sea ice detection using concurrent multispectral and synthetic aperture radar imagery</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -1647,10 +1655,14 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>https://www.nature.com/articles/s41561-023-01369-y</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr"/>
+          <t>https://www.sciencedirect.com/science/article/pii/S0034425724000841</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr">
         <is>
           <t>2024</t>
@@ -1662,37 +1674,29 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B. Evans, A. Faul, A. Fleming, D. G. Vaughan, J. S. Hosking</t>
+          <t>H. L. Joakimsen, I. Martinsen, L. T. Luppino, A. McDonald, S. Hosking, R. Jenssen</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10.1016/j.rse.2023.113780</t>
+          <t>10.1109/LGRS.2024.3366308</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0034-4257</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Remote Sensing of Environment</t>
+          <t>IEEE Geoscience and Remote Sensing Letters</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Fox Weather, blue, https://www.foxweather.com/weather-news/iceberg-a23a-weddell-sea-antarctic-peninsula; Press Release, DarkOrange, https://www.bas.ac.uk/media-post/using-ai-to-track-icebergs/</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>113780</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -1701,7 +1705,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Unsupervised machine learning detection of iceberg populations within sea ice from dual-polarisation SAR imagery</t>
+          <t>Interrogating Sea Ice Predictability With Gradients</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1709,19 +1713,15 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0034425723003310</t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>21</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
@@ -1730,12 +1730,12 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>T. R. Andersson, W. P. Bruinsma, S. Markou, J. Requeima, A. Coca-Castro, A. Vaughan, A.-L. Ellis, M. A. Lazzara, D. Jones, S. Hosking, R. E. Turner</t>
+          <t>C. Jay, Y. Yu, I. Crawford, S. Archer-Nicholls, P. James, A. Gledson, G. Shaddick, R. Haines, L. Lannelongue, E. Lines, S. Hosking, D. Topping</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10.1017/eds.2023.22</t>
+          <t>10.1038/s41561-023-01369-y</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1743,25 +1743,21 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Environmental Data Science</t>
+          <t>Nature Geoscience</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>e32</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Environmental sensor placement with convolutional Gaussian neural processes</t>
+          <t>Prioritize environmental sustainability in use of AI and data science methods</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1769,15 +1765,15 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>https://www.nature.com/articles/s41561-023-01369-y</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
@@ -1786,33 +1782,37 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>R. Parthipan, H. M. Christensen, J. S. Hosking, D. J. Wischik</t>
+          <t>B. Evans, A. Faul, A. Fleming, D. G. Vaughan, J. S. Hosking</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10.5194/gmd-16-4501-2023</t>
+          <t>10.1016/j.rse.2023.113780</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0034-4257</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Geoscientific Model Development</t>
+          <t>Remote Sensing of Environment</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Fox Weather, blue, https://www.foxweather.com/weather-news/iceberg-a23a-weddell-sea-antarctic-peninsula; Press Release, DarkOrange, https://www.bas.ac.uk/media-post/using-ai-to-track-icebergs/</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>4501--4519</t>
+          <t>113780</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Using probabilistic machine learning to better model temporal patterns in parameterizations: a case study with the Lorenz 96 model</t>
+          <t>Unsupervised machine learning detection of iceberg populations within sea ice from dual-polarisation SAR imagery</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1831,12 +1831,12 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>https://gmd.copernicus.org/articles/16/4501/2023/</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S0034425723003310</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>297</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -1850,12 +1850,12 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>W. P. Bruinsma, S. Markou, J. Requiema, A. Y. Foong, T. R. Andersson, A. Vaughan, A. Buonomo, J. S. Hosking, R. E. Turner</t>
+          <t>T. R. Andersson, W. P. Bruinsma, S. Markou, J. Requeima, A. Coca-Castro, A. Vaughan, A.-L. Ellis, M. A. Lazzara, D. Jones, S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10.48550/arXiv.2303.14468</t>
+          <t>10.1017/eds.2023.22</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1863,21 +1863,25 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11th International Conference on Learning Representations (ICLR 2023)</t>
+          <t>Environmental Data Science</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>e32</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Autoregressive Conditional Neural Processes</t>
+          <t>Environmental sensor placement with convolutional Gaussian neural processes</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1886,7 +1890,11 @@
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1898,12 +1906,12 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>T. Summers, E. Mackie, R. Ueno, C. Simpson, J. S. Hosking, T. Suciu, A. Coburn, E. Shuckburgh</t>
+          <t>R. Parthipan, H. M. Christensen, J. S. Hosking, D. J. Wischik</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10.1002/cli2.35</t>
+          <t>10.5194/gmd-16-4501-2023</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1911,20 +1919,20 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Climate Resilience and Sustainability</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>bias, climate, correction, disruption, economic, exceedance, temperature</t>
-        </is>
-      </c>
+          <t>Geoscientific Model Development</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>e35</t>
+          <t>4501--4519</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -1933,7 +1941,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Localized impacts and economic implications from high temperature disruption days under climate change</t>
+          <t>Using probabilistic machine learning to better model temporal patterns in parameterizations: a case study with the Lorenz 96 model</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1943,13 +1951,17 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/cli2.35</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr"/>
+          <t>https://gmd.copernicus.org/articles/16/4501/2023/</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -1958,12 +1970,12 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A. Vaughan, W. Tebbutt, J. S. Hosking, R. E. Turner</t>
+          <t>W. P. Bruinsma, S. Markou, J. Requiema, A. Y. Foong, T. R. Andersson, A. Vaughan, A. Buonomo, J. S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10.5194/gmd-15-251-2022</t>
+          <t>10.48550/arXiv.2303.14468</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1971,29 +1983,21 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Geoscientific Model Development</t>
+          <t>11th International Conference on Learning Representations (ICLR 2023)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>251--268</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Convolutional conditional neural processes for local climate downscaling</t>
+          <t>Autoregressive Conditional Neural Processes</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2001,19 +2005,11 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>https://gmd.copernicus.org/articles/15/251/2022/</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2018,12 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C. Simpson, J. S. Hosking, D. Mitchell, R. A. Betts, E. Shuckburgh</t>
+          <t>T. Summers, E. Mackie, R. Ueno, C. Simpson, J. S. Hosking, T. Suciu, A. Coburn, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10.1088/1748-9326/ac3288</t>
+          <t>10.1002/cli2.35</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2035,24 +2031,20 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Environmental Research Letters</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>Climate Resilience and Sustainability</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>bias, climate, correction, disruption, economic, exceedance, temperature</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>nov</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>124004</t>
+          <t>e35</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -2061,7 +2053,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Regional disparities and seasonal differences in climate risk to rice labour</t>
+          <t>Localized impacts and economic implications from high temperature disruption days under climate change</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2071,17 +2063,13 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1748-9326/ac3288</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/cli2.35</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
@@ -2090,42 +2078,42 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>N. Eastwood, W. A. Stubbings, M. A. {Abou-Elwafa Abdallah}, I. Durance, J. Paavola, M. Dallimer, J. H. Pantel, S. Johnson, J. Zhou, J. S. Hosking, J. B. Brown, S. Ullah, S. Krause, D. M. Hannah, S. E. Crawford, M. Widmann, L. Orsini</t>
+          <t>A. Vaughan, W. Tebbutt, J. S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.tree.2021.09.008</t>
+          <t>10.5194/gmd-15-251-2022</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0169-5347</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Trends in Ecology &amp; Evolution</t>
+          <t>Geoscientific Model Development</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>The New Stack, HotPink, https://thenewstack.io/ai-biodiversity-time-machine-could-decide-for-uncertain-future/</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>251--268</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>The Time Machine framework: monitoring and prediction of biodiversity loss</t>
+          <t>Convolutional conditional neural processes for local climate downscaling</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2135,13 +2123,17 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0169534721002597</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr"/>
+          <t>https://gmd.copernicus.org/articles/15/251/2022/</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2142,12 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>T. Andersson, J. S. Hosking, M. Pérez-Ortiz, B. Paige, A. Elliott, C. Russell, S. Law, D. C. Jones, J. Wilkinson, T. Phillips, J. Byrne, S. Tietsche, B. B. Sarojini, E. Blanchard-Wrigglesworth, Y. Aksenov, R. Downie, E. Shuckburgh</t>
+          <t>C. Simpson, J. S. Hosking, D. Mitchell, R. A. Betts, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41467-021-25257-4</t>
+          <t>10.1088/1748-9326/ac3288</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2163,25 +2155,33 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Nature Communications</t>
+          <t>Environmental Research Letters</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Nvidia Blog, green, https://blogs.nvidia.com/blog/2021/08/31/ai-model-predicts-sea-ice-loss/; Wired, black, https://www.wired.com/story/as-the-arctic-warms-ai-forecasts-scope-out-shifting-sea-ice/; Science News, blue, https://www.sciencenews.org/article/artificial-intelligence-sea-ice-forecast; Eos, grey, https://eos.org/articles/could-ai-be-useful-for-arctic-communities-facing-sea-ice-loss; BBC Podcast, red, https://www.bbc.co.uk/programmes/w3ct1lsl; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-9928807/British-Antarctic-Survey-builds-AI-predict-ice-loss.html</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>124004</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Seasonal Arctic sea ice forecasting with probabilistic deep learning</t>
+          <t>Regional disparities and seasonal differences in climate risk to rice labour</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2191,10 +2191,14 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>https://www.nature.com/articles/s41467-021-25257-4</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr"/>
+          <t>https://doi.org/10.1088/1748-9326/ac3288</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr">
         <is>
           <t>2021</t>
@@ -2206,42 +2210,42 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>J. C. King, J. Turner, S. Colwell, H. Lu, A. Orr, T. Phillips, J. S. Hosking, G. J. Marshall</t>
+          <t>N. Eastwood, W. A. Stubbings, M. A. {Abou-Elwafa Abdallah}, I. Durance, J. Paavola, M. Dallimer, J. H. Pantel, S. Johnson, J. Zhou, J. S. Hosking, J. B. Brown, S. Ullah, S. Krause, D. M. Hannah, S. E. Crawford, M. Widmann, L. Orsini</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-20-0748.1</t>
+          <t>https://doi.org/10.1016/j.tree.2021.09.008</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0169-5347</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Trends in Ecology &amp; Evolution</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>The New Stack, HotPink, https://thenewstack.io/ai-biodiversity-time-machine-could-decide-for-uncertain-future/</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>4771 - 4783</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Inhomogeneity of the Surface Air Temperature Record from Halley, Antarctica</t>
+          <t>The Time Machine framework: monitoring and prediction of biodiversity loss</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2251,14 +2255,10 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>https://journals.ametsoc.org/view/journals/clim/34/12/JCLI-D-20-0748.1.xml</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
+          <t>https://www.sciencedirect.com/science/article/pii/S0169534721002597</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
           <t>2021</t>
@@ -2270,12 +2270,12 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>S. E. Haupt, W. Chapman, S. V. Adams, C. Kirkwood, J. S. Hosking, N. H. Robinson, S. Lerch, A. C. Subramanian</t>
+          <t>T. Andersson, J. S. Hosking, M. Pérez-Ortiz, B. Paige, A. Elliott, C. Russell, S. Law, D. C. Jones, J. Wilkinson, T. Phillips, J. Byrne, S. Tietsche, B. B. Sarojini, E. Blanchard-Wrigglesworth, Y. Aksenov, R. Downie, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10.1098/rsta.2020.0091</t>
+          <t>https://doi.org/10.1038/s41467-021-25257-4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2283,29 +2283,25 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Philosophical Transactions of the Royal Society A: Mathematical, Physical and Engineering Sciences</t>
+          <t>Nature Communications</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Nvidia Blog, green, https://blogs.nvidia.com/blog/2021/08/31/ai-model-predicts-sea-ice-loss/; Wired, black, https://www.wired.com/story/as-the-arctic-warms-ai-forecasts-scope-out-shifting-sea-ice/; Science News, blue, https://www.sciencenews.org/article/artificial-intelligence-sea-ice-forecast; Eos, grey, https://eos.org/articles/could-ai-be-useful-for-arctic-communities-facing-sea-ice-loss; BBC Podcast, red, https://www.bbc.co.uk/programmes/w3ct1lsl; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-9928807/British-Antarctic-Survey-builds-AI-predict-ice-loss.html</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>2194</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>20200091</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Towards implementing artificial intelligence post-processing in weather and climate: proposed actions from the Oxford 2019 workshop</t>
+          <t>Seasonal Arctic sea ice forecasting with probabilistic deep learning</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2315,14 +2311,10 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>https://royalsocietypublishing.org/doi/abs/10.1098/rsta.2020.0091</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>379</t>
-        </is>
-      </c>
+          <t>https://www.nature.com/articles/s41467-021-25257-4</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
           <t>2021</t>
@@ -2334,30 +2326,42 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>U. Sengupta, M. Amos, J. S. Hosking, C. E. Rasmussen, M. Juniper, P. J. Young</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>J. C. King, J. Turner, S. Colwell, H. Lu, A. Orr, T. Phillips, J. S. Hosking, G. J. Marshall</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.1175/JCLI-D-20-0748.1</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Advances in Neural Information Processing Systems (NeurIPS) 2020</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4771 - 4783</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Ensembling geophysical models with Bayesian Neural Networks</t>
+          <t>Inhomogeneity of the Surface Air Temperature Record from Halley, Antarctica</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2367,13 +2371,17 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2010.03561v1</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr"/>
+          <t>https://journals.ametsoc.org/view/journals/clim/34/12/JCLI-D-20-0748.1.xml</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
     </row>
@@ -2382,30 +2390,42 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>W. P. Bruinsma, E. Perim, W. Tebbutt, J. S. Hosking, A. Solin, R. E. Turner</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>S. E. Haupt, W. Chapman, S. V. Adams, C. Kirkwood, J. S. Hosking, N. H. Robinson, S. Lerch, A. C. Subramanian</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.1098/rsta.2020.0091</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Proceedings of the 37th International Conference on Machine Learning, Vienna, Austria, PMLR 119, 2020</t>
+          <t>Philosophical Transactions of the Royal Society A: Mathematical, Physical and Engineering Sciences</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>20200091</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Scalable Exact Inference in Multi-Output Gaussian Processes</t>
+          <t>Towards implementing artificial intelligence post-processing in weather and climate: proposed actions from the Oxford 2019 workshop</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2415,13 +2435,17 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/1911.06287</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr"/>
+          <t>https://royalsocietypublishing.org/doi/abs/10.1098/rsta.2020.0091</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
     </row>
@@ -2430,42 +2454,30 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A. Orr, J. S. Hosking, A. Delon, L. Hoffmann, R. Spang, T. Moffat-Griffin, J. Keeble, N. L. Abraham, P. Braesicke</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>10.5194/acp-20-12483-2020</t>
-        </is>
-      </c>
+          <t>U. Sengupta, M. Amos, J. S. Hosking, C. E. Rasmussen, M. Juniper, P. J. Young</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Atmospheric Chemistry and Physics</t>
+          <t>Advances in Neural Information Processing Systems (NeurIPS) 2020</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>12483--12497</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Polar stratospheric clouds initiated by mountain waves in a global chemistry--climate model: a missing piece in fully modelling polar stratospheric ozone depletion</t>
+          <t>Ensembling geophysical models with Bayesian Neural Networks</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -2475,14 +2487,10 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>https://acp.copernicus.org/articles/20/12483/2020/</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>https://arxiv.org/abs/2010.03561v1</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
           <t>2020</t>
@@ -2494,42 +2502,30 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>M. Amos, P. J. Young, J. S. Hosking, J.-F. Lamarque, N. L. Abraham, H. Akiyoshi, A. T. Archibald, S. Bekki, M. Deushi, P. J&amp;ouml;ckel, D. Kinnison, O. Kirner, M. Kunze, M. Marchand, D. A. Plummer, D. Saint-Martin, K. Sudo, S. Tilmes, Y. Yamashita</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>10.5194/acp-20-9961-2020</t>
-        </is>
-      </c>
+          <t>W. P. Bruinsma, E. Perim, W. Tebbutt, J. S. Hosking, A. Solin, R. E. Turner</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Atmospheric Chemistry and Physics</t>
+          <t>Proceedings of the 37th International Conference on Machine Learning, Vienna, Austria, PMLR 119, 2020</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>9961--9977</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Projecting ozone hole recovery using an ensemble of chemistry-climate models weighted by model performance and independence</t>
+          <t>Scalable Exact Inference in Multi-Output Gaussian Processes</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -2539,14 +2535,10 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>https://acp.copernicus.org/articles/20/9961/2020/</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>https://arxiv.org/abs/1911.06287</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
           <t>2020</t>
@@ -2558,12 +2550,12 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>T. J. Bracegirdle, C. R. Holmes, J. S. Hosking, G. J. Marshall, M. Osman, M. Patterson, T. Rackow</t>
+          <t>A. Orr, J. S. Hosking, A. Delon, L. Hoffmann, R. Spang, T. Moffat-Griffin, J. Keeble, N. L. Abraham, P. Braesicke</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10.1029/2019EA001065</t>
+          <t>10.5194/acp-20-12483-2020</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2571,7 +2563,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Earth and Space Science</t>
+          <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -2579,12 +2571,12 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>21</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>e2019EA001065</t>
+          <t>12483--12497</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -2593,7 +2585,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Improvements in Circumpolar Southern Hemisphere Extratropical Atmospheric Circulation in CMIP6 Compared to CMIP5</t>
+          <t>Polar stratospheric clouds initiated by mountain waves in a global chemistry--climate model: a missing piece in fully modelling polar stratospheric ozone depletion</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -2603,12 +2595,12 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019EA001065</t>
+          <t>https://acp.copernicus.org/articles/20/12483/2020/</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2622,12 +2614,12 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>M. R. McCrystall, J. S. Hosking, I. P. White, A. C. Maycock</t>
+          <t>M. Amos, P. J. Young, J. S. Hosking, J.-F. Lamarque, N. L. Abraham, H. Akiyoshi, A. T. Archibald, S. Bekki, M. Deushi, P. J&amp;ouml;ckel, D. Kinnison, O. Kirner, M. Kunze, M. Marchand, D. A. Plummer, D. Saint-Martin, K. Sudo, S. Tilmes, Y. Yamashita</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-19-0456.1</t>
+          <t>10.5194/acp-20-9961-2020</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2635,7 +2627,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -2643,12 +2635,12 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>9961--9977</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -2657,7 +2649,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>The impact of changes in tropical sea surface temperatures over 1979-2012 on Northern hemisphere high latitude climate</t>
+          <t>Projecting ozone hole recovery using an ensemble of chemistry-climate models weighted by model performance and independence</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -2667,12 +2659,12 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1175/JCLI-D-19-0456.1</t>
+          <t>https://acp.copernicus.org/articles/20/9961/2020/</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -2686,30 +2678,42 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>L. Kapetas, N. Kazakis, K. Voudouris, A. T. Martinez, J. S. Hosking</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>T. J. Bracegirdle, C. R. Holmes, J. S. Hosking, G. J. Marshall, M. Osman, M. Patterson, T. Rackow</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.1029/2019EA001065</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ICONHIC 2019: 2nd International Conference on Natural Hazards &amp; Infrastructure, Chania, Greece</t>
+          <t>Earth and Space Science</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>e2019EA001065</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Modelling Groundwater - Surface Water Interactions Under Climate Change Scenarios: insights from Axios Delta, Greece</t>
+          <t>Improvements in Circumpolar Southern Hemisphere Extratropical Atmospheric Circulation in CMIP6 Compared to CMIP5</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -2719,13 +2723,17 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/profile/K_Voudouris/publication/334130545_Modelling_Groundwater_-Surface_Water_Interactions_Under_Climate_Change_Scenarios_insights_from_Axios_Delta_Greece/links/5d19a640458515c11c06bd23/Modelling-Groundwater-Surface-Water-Interactions-Under-Climate-Change-Scenarios-insights-from-Axios-Delta-Greece.pdf</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr"/>
+          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019EA001065</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
     </row>
@@ -2734,12 +2742,12 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>D. Bannister, A. Orr, S. K. Jain, I. P. Holman, A. Momblanch, T. Phillips, A. J. Adeloye, B. Snapir, T. W. Waine, J. S. Hosking, C. Allen-Sader</t>
+          <t>M. R. McCrystall, J. S. Hosking, I. P. White, A. C. Maycock</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10.1029/2019JD030804</t>
+          <t>10.1175/JCLI-D-19-0456.1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2747,7 +2755,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Journal of Geophysical Research: Atmospheres</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -2755,17 +2763,21 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Bias correction of high-resolution regional climate model precipitation output gives the best estimates of precipitation in Himalayan catchments</t>
+          <t>The impact of changes in tropical sea surface temperatures over 1979-2012 on Northern hemisphere high latitude climate</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2775,17 +2787,17 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019JD030804</t>
+          <t>https://doi.org/10.1175/JCLI-D-19-0456.1</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
     </row>
@@ -2794,46 +2806,30 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>J. Turner, T. Phillips, M. Thamban, W. Rahaman, G. J. Marshall, J. D. Wille, V. Favier, V. H. Winton, E. Thomas, Z. Wang, M. Broeke, J. S. Hosking, T. Lachlan-Cope</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>10.1029/2018GL081517</t>
-        </is>
-      </c>
+          <t>L. Kapetas, N. Kazakis, K. Voudouris, A. T. Martinez, J. S. Hosking</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>ICONHIC 2019: 2nd International Conference on Natural Hazards &amp; Infrastructure, Chania, Greece</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Phys.org, black, https://phys.org/news/2019-03-antarctic-snowfall-dominated-extreme-snowstorms.html</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>3502-3511</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>The Dominant Role of Extreme Precipitation Events in Antarctic Snowfall Variability</t>
+          <t>Modelling Groundwater - Surface Water Interactions Under Climate Change Scenarios: insights from Axios Delta, Greece</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2843,14 +2839,10 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2018GL081517</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
+          <t>https://www.researchgate.net/profile/K_Voudouris/publication/334130545_Modelling_Groundwater_-Surface_Water_Interactions_Under_Climate_Change_Scenarios_insights_from_Axios_Delta_Greece/links/5d19a640458515c11c06bd23/Modelling-Groundwater-Surface-Water-Interactions-Under-Climate-Change-Scenarios-insights-from-Axios-Delta-Greece.pdf</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
           <t>2019</t>
@@ -2862,12 +2854,12 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>P. Deb, A. Orr, D. H. Bromwich, J. P. Nicolas, J. Turner, J. S. Hosking</t>
+          <t>D. Bannister, A. Orr, S. K. Jain, I. P. Holman, A. Momblanch, T. Phillips, A. J. Adeloye, B. Snapir, T. W. Waine, J. S. Hosking, C. Allen-Sader</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10.1029/2018GL077092</t>
+          <t>10.1029/2019JD030804</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2875,7 +2867,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Journal of Geophysical Research: Atmospheres</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -2883,21 +2875,17 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>4124-4133</t>
-        </is>
-      </c>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Summer Drivers of Atmospheric Variability Affecting Ice Shelf Thinning in the Amundsen Sea Embayment, West Antarctica</t>
+          <t>Bias correction of high-resolution regional climate model precipitation output gives the best estimates of precipitation in Himalayan catchments</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2905,15 +2893,19 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019JD030804</t>
+        </is>
+      </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
@@ -2922,12 +2914,12 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>J. S. Hosking, D. MacLeod, T. Phillips, C. R. Holmes, P. Watson, E. Shuckburgh, D. Mitchell</t>
+          <t>J. Turner, T. Phillips, M. Thamban, W. Rahaman, G. J. Marshall, J. D. Wille, V. Favier, V. H. Winton, E. Thomas, Z. Wang, M. Broeke, J. S. Hosking, T. Lachlan-Cope</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10.1088/1748-9326/aabf78</t>
+          <t>10.1029/2018GL081517</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2935,24 +2927,24 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Environmental Research Letters</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Carbon Brief, blue, https://www.carbonbrief.org/uk-onshore-wind-energy-potential-could-rise-by-10-with-1-5c-warming; Independent, red, https://www.independent.co.uk/climate-change/news/wind-power-uk-global-warming-climate-change-british-antarctic-survey-a8354956.html; Phys.org, black, https://phys.org/news/2018-05-european-energy-potential-degree-warmer.html; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-5736189/Global-warming-make-UK-large-parts-northern-Europe-far-windier.html; Treehugger, green, https://www.treehugger.com/climate-change-could-bring-stronger-winds-more-wind-power-4857464</t>
+          <t>Phys.org, black, https://phys.org/news/2019-03-antarctic-snowfall-dominated-extreme-snowstorms.html</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1--9</t>
+          <t>3502-3511</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -2961,7 +2953,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Changes in European wind energy generation potential within a 1.5C warmer world</t>
+          <t>The Dominant Role of Extreme Precipitation Events in Antarctic Snowfall Variability</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2969,15 +2961,19 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2018GL081517</t>
+        </is>
+      </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>46</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
@@ -2986,12 +2982,12 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>J. C. King, D. Bannister, J. S. Hosking, S. R. Colwell</t>
+          <t>P. Deb, A. Orr, D. H. Bromwich, J. P. Nicolas, J. Turner, J. S. Hosking</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10.1002/asl.793</t>
+          <t>10.1029/2018GL077092</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2999,7 +2995,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Atmospheric Science Letters</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -3007,12 +3003,12 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>491-496</t>
+          <t>4124-4133</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -3021,7 +3017,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Causes of the Antarctic region record high temperature at Signy Island, 30th January 1982</t>
+          <t>Summer Drivers of Atmospheric Variability Affecting Ice Shelf Thinning in the Amundsen Sea Embayment, West Antarctica</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -3032,12 +3028,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>45</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
@@ -3046,12 +3042,12 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>J. S. Hosking, R. Fogt, E. R. Thomas, V. Moosavi, T. Phillips, J. Coggins, D. Reusch</t>
+          <t>J. S. Hosking, D. MacLeod, T. Phillips, C. R. Holmes, P. Watson, E. Shuckburgh, D. Mitchell</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10.1002/2017GL074722</t>
+          <t>10.1088/1748-9326/aabf78</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -3059,20 +3055,24 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Environmental Research Letters</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Carbon Brief, blue, https://www.carbonbrief.org/uk-onshore-wind-energy-potential-could-rise-by-10-with-1-5c-warming; Independent, red, https://www.independent.co.uk/climate-change/news/wind-power-uk-global-warming-climate-change-british-antarctic-survey-a8354956.html; Phys.org, black, https://phys.org/news/2018-05-european-energy-potential-degree-warmer.html; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-5736189/Global-warming-make-UK-large-parts-northern-Europe-far-windier.html; Treehugger, green, https://www.treehugger.com/climate-change-could-bring-stronger-winds-more-wind-power-4857464</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>9084-9092</t>
+          <t>1--9</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -3081,7 +3081,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Accumulation in coastal West Antarctic ice core records and the role of cyclone activity</t>
+          <t>Changes in European wind energy generation potential within a 1.5C warmer world</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3092,12 +3092,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>13</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
@@ -3106,12 +3106,12 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>D. Bannister, M. Herzog, H.-F. Graf, J. S. Hosking, C. A. Short</t>
+          <t>J. C. King, D. Bannister, J. S. Hosking, S. R. Colwell</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-16-0536.1</t>
+          <t>10.1002/asl.793</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3119,7 +3119,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Atmospheric Science Letters</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -3127,12 +3127,12 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6701-6722</t>
+          <t>491-496</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -3141,7 +3141,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>An Assessment of Recent and Future Temperature Change over the Sichuan Basin, China, Using CMIP5 Climate Models</t>
+          <t>Causes of the Antarctic region record high temperature at Signy Island, 30th January 1982</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3152,7 +3152,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>18</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3166,12 +3166,12 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>J. Turner, T. Phillips, G. J. Marshall, J. S. Hosking, J. O. Pope, T. J. Bracegirdle, P. Deb</t>
+          <t>J. S. Hosking, R. Fogt, E. R. Thomas, V. Moosavi, T. Phillips, J. Coggins, D. Reusch</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10.1002/2017GL073656</t>
+          <t>10.1002/2017GL074722</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -3183,20 +3183,16 @@
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Phys.org, black, https://phys.org/news/2017-06-storms-massive-antarctic-sea-ice.html</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>6868--6875</t>
+          <t>9084-9092</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -3205,7 +3201,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Unprecedented springtime retreat of Antarctic sea ice in 2016</t>
+          <t>Accumulation in coastal West Antarctic ice core records and the role of cyclone activity</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3230,12 +3226,12 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>T. Moffat-Griffin, M. J. Taylor, T. Nakamura, A. J. Kavanagh, J. S. Hosking, A. Orr</t>
+          <t>D. Bannister, M. Herzog, H.-F. Graf, J. S. Hosking, C. A. Short</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10.1007/s00376-016-6197-5</t>
+          <t>10.1175/JCLI-D-16-0536.1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3243,7 +3239,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Advances in Atmospheric Sciences</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3251,12 +3247,12 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1--3</t>
+          <t>6701-6722</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -3265,7 +3261,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>3rd ANtarctic Gravity Wave Instrument Network (ANGWIN) science workshop</t>
+          <t>An Assessment of Recent and Future Temperature Change over the Sichuan Basin, China, Using CMIP5 Climate Models</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3276,7 +3272,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3290,12 +3286,12 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, T. Phillips, G. J. Marshall</t>
+          <t>J. Turner, T. Phillips, G. J. Marshall, J. S. Hosking, J. O. Pope, T. J. Bracegirdle, P. Deb</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>10.1002/joc.4848</t>
+          <t>10.1002/2017GL073656</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3303,20 +3299,24 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>International Journal of Climatology</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Phys.org, black, https://phys.org/news/2017-06-storms-massive-antarctic-sea-ice.html</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2325--2336</t>
+          <t>6868--6875</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -3325,7 +3325,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Variability and trends in the Southern Hemisphere high latitude, quasi-stationary planetary waves</t>
+          <t>Unprecedented springtime retreat of Antarctic sea ice in 2016</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3336,7 +3336,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>44</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3350,12 +3350,12 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>J. Turner, H. Lu, I. White, J. King, T. Phillips, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, R. Mulvaney, P. Deb</t>
+          <t>T. Moffat-Griffin, M. J. Taylor, T. Nakamura, A. J. Kavanagh, J. S. Hosking, A. Orr</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10.1038/nature18645</t>
+          <t>10.1007/s00376-016-6197-5</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3363,20 +3363,20 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Nature</t>
+          <t>Advances in Atmospheric Sciences</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Carbon Brief, blue, https://www.carbonbrief.org/natural-forces-overpowering-antarctic-peninsula-warming; Washington Post, black, https://www.washingtonpost.com/news/energy-environment/wp/2016/07/20/the-antarctic-peninsula-is-cooling-but-climate-skeptics-shouldnt-get-too-excited/</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>411--415</t>
+          <t>1--3</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -3385,7 +3385,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Absence of 21st century warming on Antarctic Peninsula consistent with natural variability</t>
+          <t>3rd ANtarctic Gravity Wave Instrument Network (ANGWIN) science workshop</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3396,12 +3396,12 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>34</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
@@ -3410,12 +3410,12 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>P. Deb, A. Orr, J. S. Hosking, T. Phillips, J. Turner, D. Bannister, J. O. Pope, S. Colwell</t>
+          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, T. Phillips, G. J. Marshall</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10.1002/2015JD024037</t>
+          <t>10.1002/joc.4848</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3423,7 +3423,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Journal of Geophysical Research: Atmospheres</t>
+          <t>International Journal of Climatology</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3431,12 +3431,12 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1532-1548</t>
+          <t>2325--2336</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -3445,7 +3445,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>An assessment of the Polar Weather Research and Forecasting (WRF) model representation of near-surface meteorological variables over West Antarctica</t>
+          <t>Variability and trends in the Southern Hemisphere high latitude, quasi-stationary planetary waves</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3456,12 +3456,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>37</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
@@ -3470,12 +3470,12 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>J. S. Hosking, A. Orr, T. J. Bracegirdle, J. Turner</t>
+          <t>J. Turner, H. Lu, I. White, J. King, T. Phillips, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, R. Mulvaney, P. Deb</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10.1002/2015GL067143</t>
+          <t>10.1038/nature18645</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3483,20 +3483,20 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Nature</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Carbon Brief, blue, https://www.carbonbrief.org/natural-forces-overpowering-antarctic-peninsula-warming; Washington Post, black, https://www.washingtonpost.com/news/energy-environment/wp/2016/07/20/the-antarctic-peninsula-is-cooling-but-climate-skeptics-shouldnt-get-too-excited/</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>367-376</t>
+          <t>411--415</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -3505,7 +3505,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Future circulation changes off West Antarctica: Sensitivity of the Amundsen Sea Low to projected anthropogenic forcing</t>
+          <t>Absence of 21st century warming on Antarctic Peninsula consistent with natural variability</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3516,7 +3516,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>535</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -3530,12 +3530,12 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>M. N. Raphael, G. J. Marshall, J. Turner, R. L. Fogt, D. Schneider, D. A. Dixon, J. S. Hosking, J. M. Jones, W. R. Hobbs</t>
+          <t>P. Deb, A. Orr, J. S. Hosking, T. Phillips, J. Turner, D. Bannister, J. O. Pope, S. Colwell</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10.1175/BAMS-D-14-00018.1</t>
+          <t>10.1002/2015JD024037</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3543,7 +3543,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Bulletin of the American Meteorological Society</t>
+          <t>Journal of Geophysical Research: Atmospheres</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -3551,12 +3551,12 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>111-121</t>
+          <t>1532-1548</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -3565,7 +3565,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>The Amundsen Sea Low: Variability, Change, and Impact on Antarctic Climate</t>
+          <t>An assessment of the Polar Weather Research and Forecasting (WRF) model representation of near-surface meteorological variables over West Antarctica</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3576,7 +3576,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>121</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -3590,12 +3590,12 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, G. J. Marshall, T. Phillips, T. J. Bracegirdle</t>
+          <t>J. S. Hosking, A. Orr, T. J. Bracegirdle, J. Turner</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10.1007/s00382-015-2708-9</t>
+          <t>10.1002/2015GL067143</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3603,7 +3603,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Climate Dynamics</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -3611,12 +3611,12 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2391--2402</t>
+          <t>367-376</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -3625,7 +3625,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Antarctic sea ice increase dominated by intrinsic variability of the Amundsen Sea Low</t>
+          <t>Future circulation changes off West Antarctica: Sensitivity of the Amundsen Sea Low to projected anthropogenic forcing</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3636,7 +3636,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -3650,12 +3650,12 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>E. R. Thomas, J. S. Hosking, R. R. Tuckwell, R. A. Warren, E. C. Ludlow</t>
+          <t>M. N. Raphael, G. J. Marshall, J. Turner, R. L. Fogt, D. Schneider, D. A. Dixon, J. S. Hosking, J. M. Jones, W. R. Hobbs</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10.1002/2015GL065750</t>
+          <t>10.1175/BAMS-D-14-00018.1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3663,24 +3663,20 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Bulletin of the American Meteorological Society</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Indian Express, red, https://indianexpress.com/article/trending/trending-globally/west-antarctic-coastal-snow-rose-30-per-cent-in-20th-century/</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>9387--9393</t>
+          <t>111-121</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3689,7 +3685,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Twentieth century increase in snowfall in coastal West Antarctica</t>
+          <t>The Amundsen Sea Low: Variability, Change, and Impact on Antarctic Climate</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3700,12 +3696,12 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>97</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -3714,12 +3710,12 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, T. Phillips</t>
+          <t>J. Turner, J. S. Hosking, G. J. Marshall, T. Phillips, T. J. Bracegirdle</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>10.1098/rsta.2014.0163</t>
+          <t>10.1007/s00382-015-2708-9</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3727,7 +3723,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Philosophical Transactions of the Royal Society of London A: Mathematical, Physical and Engineering Sciences</t>
+          <t>Climate Dynamics</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -3735,17 +3731,21 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2045</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2391--2402</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Recent Changes in Antarctic Sea Ice</t>
+          <t>Antarctic sea ice increase dominated by intrinsic variability of the Amundsen Sea Low</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3756,12 +3756,12 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>46</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -3770,12 +3770,12 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>C. Chemel, M. R. Russo, J. S. Hosking, P. J. Telford, J. A. Pyle</t>
+          <t>E. R. Thomas, J. S. Hosking, R. R. Tuckwell, R. A. Warren, E. C. Ludlow</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10.1002/asl2.540</t>
+          <t>10.1002/2015GL065750</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3783,20 +3783,24 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Atmospheric Science Letters</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Indian Express, red, https://indianexpress.com/article/trending/trending-globally/west-antarctic-coastal-snow-rose-30-per-cent-in-20th-century/</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>148-154</t>
+          <t>9387--9393</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3805,7 +3809,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Sensitivity of tropical deep convection in global models: effects of horizontal resolution, surface constraints and 3D atmospheric nudging</t>
+          <t>Twentieth century increase in snowfall in coastal West Antarctica</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3816,7 +3820,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>42</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -3830,12 +3834,12 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A. Orr, J. S. Hosking, L. Hoffmann, J. Keeble, S. M. Dean, H. K. Roscoe, N. L. Abraham, S. Vosper, P. Braesicke</t>
+          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, T. Phillips</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10.5194/acp-15-1071-2015</t>
+          <t>10.1098/rsta.2014.0163</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3843,7 +3847,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Atmospheric Chemistry and Physics</t>
+          <t>Philosophical Transactions of the Royal Society of London A: Mathematical, Physical and Engineering Sciences</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -3851,21 +3855,17 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>1071--1086</t>
-        </is>
-      </c>
+          <t>2045</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Inclusion of mountain-wave-induced cooling for the formation of PSCs over the Antarctic Peninsula in a chemistry-climate model</t>
+          <t>Recent Changes in Antarctic Sea Ice</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3876,7 +3876,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>373</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -3890,12 +3890,12 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>J. S. Hosking, D. Bannister, A. Orr, J. King, E. Young, T. Phillips</t>
+          <t>C. Chemel, M. R. Russo, J. S. Hosking, P. J. Telford, J. A. Pyle</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10.1002/asl2.519</t>
+          <t>10.1002/asl2.540</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3911,12 +3911,12 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>50-55</t>
+          <t>148-154</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3925,7 +3925,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Orographic disturbances of surface winds over the shelf waters adjacent to South Georgia</t>
+          <t>Sensitivity of tropical deep convection in global models: effects of horizontal resolution, surface constraints and 3D atmospheric nudging</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3950,12 +3950,12 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A. Orr, T. Phillips, S. Webster, A. Elvidge, M. Weeks, S. Hosking, J. Turner</t>
+          <t>A. Orr, J. S. Hosking, L. Hoffmann, J. Keeble, S. M. Dean, H. K. Roscoe, N. L. Abraham, S. Vosper, P. Braesicke</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10.1002/qj.2296</t>
+          <t>10.5194/acp-15-1071-2015</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3963,7 +3963,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Quarterly Journal of the Royal Meteorological Society</t>
+          <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -3971,12 +3971,12 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2287-2297</t>
+          <t>1071--1086</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -3985,7 +3985,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Met Office Unified Model high resolution simulations of a strong wind event in Antarctica</t>
+          <t>Inclusion of mountain-wave-induced cooling for the formation of PSCs over the Antarctic Peninsula in a chemistry-climate model</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3996,12 +3996,12 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
@@ -4010,12 +4010,12 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>T. Bracegirdle, J. Turner, J. S. Hosking, T. Phillips</t>
+          <t>J. S. Hosking, D. Bannister, A. Orr, J. King, E. Young, T. Phillips</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10.1007/s00382-013-2032-1</t>
+          <t>10.1002/asl2.519</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -4023,7 +4023,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Climate Dynamics</t>
+          <t>Atmospheric Science Letters</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -4031,12 +4031,12 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2093-2104</t>
+          <t>50-55</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4045,7 +4045,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Sources of uncertainty in projections of twenty-first century westerly wind changes over the Amundsen Sea, West Antarctica, in CMIP5 climate models</t>
+          <t>Orographic disturbances of surface winds over the shelf waters adjacent to South Georgia</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -4056,12 +4056,12 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>16</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
@@ -4070,12 +4070,12 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, T. Phillips, G. J. Marshall</t>
+          <t>A. Orr, T. Phillips, S. Webster, A. Elvidge, M. Weeks, S. Hosking, J. Turner</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10.1002/2013GL058371</t>
+          <t>10.1002/qj.2296</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -4083,7 +4083,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Quarterly Journal of the Royal Meteorological Society</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -4091,12 +4091,12 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>684</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>5894-5898</t>
+          <t>2287-2297</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -4105,7 +4105,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Temporal and spatial evolution of the Antarctic sea ice prior to the September 2012 record maximum extent</t>
+          <t>Met Office Unified Model high resolution simulations of a strong wind event in Antarctica</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -4116,12 +4116,12 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
@@ -4130,12 +4130,12 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>J. S. Hosking, A. Orr, G. J. Marshall, J. Turner, T. Phillips</t>
+          <t>T. Bracegirdle, J. Turner, J. S. Hosking, T. Phillips</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-12-00813.1</t>
+          <t>10.1007/s00382-013-2032-1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -4143,7 +4143,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Climate Dynamics</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -4151,12 +4151,12 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>6633--6648</t>
+          <t>2093-2104</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -4165,7 +4165,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>The influence of the Amundsen-Bellingshausen Seas Low on the climate of West Antarctica and its representation in coupled climate model simulations</t>
+          <t>Sources of uncertainty in projections of twenty-first century westerly wind changes over the Amundsen Sea, West Antarctica, in CMIP5 climate models</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -4176,12 +4176,12 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>43</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
@@ -4190,12 +4190,12 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>J. Turner, T. Phillips, J. S. Hosking, G. J. Marshall, A. Orr</t>
+          <t>J. Turner, J. S. Hosking, T. Phillips, G. J. Marshall</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>10.1002/joc.3558</t>
+          <t>10.1002/2013GL058371</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -4203,7 +4203,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>International Journal of Climatology</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -4211,12 +4211,12 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>22</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>1818--1829</t>
+          <t>5894-5898</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -4225,7 +4225,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>The Amundsen Sea Low</t>
+          <t>Temporal and spatial evolution of the Antarctic sea ice prior to the September 2012 record maximum extent</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4236,7 +4236,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>40</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4250,12 +4250,12 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>N. E. Barrand, D. Vaughan, N. Steiner, M. Tedesco, P. Kuipers Munneke, M. Broeke, J. S. Hosking</t>
+          <t>J. S. Hosking, A. Orr, G. J. Marshall, J. Turner, T. Phillips</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10.1029/2012JF002559</t>
+          <t>10.1175/JCLI-D-12-00813.1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Journal of Geophysical Research: Earth Surface</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -4271,12 +4271,12 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>315-330</t>
+          <t>6633--6648</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -4285,7 +4285,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Trends in Antarctic Peninsula surface melting conditions from observations and regional climate modelling</t>
+          <t>The influence of the Amundsen-Bellingshausen Seas Low on the climate of West Antarctica and its representation in coupled climate model simulations</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4296,7 +4296,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>26</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4310,12 +4310,12 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>J. Turner, T. Bracegirdle, T. Phillips, G. J. Marshall, J. S. Hosking</t>
+          <t>J. Turner, T. Phillips, J. S. Hosking, G. J. Marshall, A. Orr</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-12-00068.1</t>
+          <t>10.1002/joc.3558</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4323,7 +4323,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>International Journal of Climatology</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -4331,12 +4331,12 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>1473--1484</t>
+          <t>1818--1829</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>An Initial Assessment of Antarctic Sea Ice Extent in the CMIP5 Models</t>
+          <t>The Amundsen Sea Low</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4356,7 +4356,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -4370,12 +4370,12 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, W. Feng, H. K. Roscoe, J. D. Haigh</t>
+          <t>N. E. Barrand, D. Vaughan, N. Steiner, M. Tedesco, P. Kuipers Munneke, M. Broeke, J. S. Hosking</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-12-00480.1</t>
+          <t>10.1029/2012JF002559</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4383,7 +4383,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Journal of Geophysical Research: Earth Surface</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -4391,12 +4391,12 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>662--668</t>
+          <t>315-330</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -4405,7 +4405,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Strong dynamical modulation of the cooling of the polar stratosphere associated with the Antarctic ozone hole</t>
+          <t>Trends in Antarctic Peninsula surface melting conditions from observations and regional climate modelling</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4416,7 +4416,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>118</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -4430,12 +4430,12 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, T. Jung, J. D. Haigh, T. Phillips, W. Feng</t>
+          <t>J. Turner, T. Bracegirdle, T. Phillips, G. J. Marshall, J. S. Hosking</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>10.1175/JAS-D-11-0210.1</t>
+          <t>10.1175/JCLI-D-12-00068.1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4443,7 +4443,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Journal of the Atmospheric Sciences</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -4451,12 +4451,12 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2917--2932</t>
+          <t>1473--1484</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -4465,7 +4465,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Possible Dynamical Mechanisms for Southern Hemisphere Climate Change due to the Ozone Hole</t>
+          <t>An Initial Assessment of Antarctic Sea Ice Extent in the CMIP5 Models</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4476,12 +4476,12 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>26</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
@@ -4490,12 +4490,12 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
+          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, W. Feng, H. K. Roscoe, J. D. Haigh</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>10.5194/acp-12-9791-2012</t>
+          <t>10.1175/JCLI-D-12-00480.1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4503,7 +4503,7 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Atmospheric Chemistry and Physics</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -4511,12 +4511,12 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>9791--9797</t>
+          <t>662--668</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -4525,7 +4525,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Tropical convective transport and the Walker circulation</t>
+          <t>Strong dynamical modulation of the cooling of the polar stratosphere associated with the Antarctic ozone hole</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4536,12 +4536,12 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>26</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
@@ -4550,12 +4550,12 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>C. R. Hoyle, V. Mar&amp;eacute;cal, M. R. Russo, G. Allen, J. Arteta, C. Chemel, M. P. Chipperfield, F. D'Amato, O. Dessens, W. Feng, J. F. Hamilton, N. R. Harris, J. S. Hosking, A. C. Lewis, O. Morgenstern, T. Peter, J. A. Pyle, T. Reddmann, N. A. Richards, P. J. Telford, W. Tian, S. Viciani, A. Volz-Thomas, O. Wild, X. Yang, G. Zeng</t>
+          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, T. Jung, J. D. Haigh, T. Phillips, W. Feng</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>10.5194/acp-11-8103-2011</t>
+          <t>10.1175/JAS-D-11-0210.1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4563,7 +4563,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Atmospheric Chemistry and Physics</t>
+          <t>Journal of the Atmospheric Sciences</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -4571,12 +4571,12 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>8103--8131</t>
+          <t>2917--2932</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
@@ -4585,7 +4585,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Representation of tropical deep convection in atmospheric models - Part 2: Tracer transport</t>
+          <t>Possible Dynamical Mechanisms for Southern Hemisphere Climate Change due to the Ozone Hole</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4596,12 +4596,12 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>69</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
@@ -4610,12 +4610,12 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>M. R. Russo, V. Mar&amp;eacute;cal, C. R. Hoyle, J. Arteta, C. Chemel, M. P. Chipperfield, O. Dessens, W. Feng, J. S. Hosking, P. J. Telford, O. Wild, X. Yang, J. A. Pyle</t>
+          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10.5194/acp-11-2765-2011</t>
+          <t>10.5194/acp-12-9791-2012</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4631,12 +4631,12 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2765--2786</t>
+          <t>9791--9797</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
@@ -4645,7 +4645,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Representation of tropical deep convection in atmospheric models - Part 1: Meteorology and comparison with satellite observations</t>
+          <t>Tropical convective transport and the Walker circulation</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -4656,12 +4656,12 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
@@ -4670,12 +4670,12 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
+          <t>C. R. Hoyle, V. Mar&amp;eacute;cal, M. R. Russo, G. Allen, J. Arteta, C. Chemel, M. P. Chipperfield, F. D'Amato, O. Dessens, W. Feng, J. F. Hamilton, N. R. Harris, J. S. Hosking, A. C. Lewis, O. Morgenstern, T. Peter, J. A. Pyle, T. Reddmann, N. A. Richards, P. J. Telford, W. Tian, S. Viciani, A. Volz-Thomas, O. Wild, X. Yang, G. Zeng</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10.5194/acp-10-11175-2010</t>
+          <t>10.5194/acp-11-8103-2011</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4691,12 +4691,12 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>11175--11188</t>
+          <t>8103--8131</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -4705,7 +4705,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Modelling deep convection and its impacts on the tropical tropopause layer</t>
+          <t>Representation of tropical deep convection in atmospheric models - Part 2: Tracer transport</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -4716,80 +4716,72 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>arXiv</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>E. G. Daub, T. Dunstan, T. Bennett, M. Burnand, J. Chappell, A. Coca-Castro, N. Eftekhari, J. S. Hosking, M. Janmaijaya, J. Lillis, D. Salvador-Jasin, N. Simpson, O. T. Strickson, R. S. Chan, M. Elmasri, L. A. France, S. Madge, J. Robinson, A. A. Scaife, D. Walters, P. Yatsyshin, T. McCaie, L. Bokeria, H. Brown, T. Dodds, D. Llewellyn-Jones, S. Moreton, T. Potter, I. Stenson, L. Zeeland, K. Bett-Williams, K. I. Dale</t>
+          <t>M. R. Russo, V. Mar&amp;eacute;cal, C. R. Hoyle, J. Arteta, C. Chemel, M. P. Chipperfield, O. Dessens, W. Feng, J. S. Hosking, P. J. Telford, O. Wild, X. Yang, J. A. Pyle</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10.48550/arXiv.2509.17658</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>2509.17658</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>The Alan Turing Institute, Met Office</t>
-        </is>
-      </c>
+          <t>10.5194/acp-11-2765-2011</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Atmospheric Chemistry and Physics</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>https://arxiv.org/pdf/2509.17658v1</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>physics.ao-ph</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2765--2786</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Technical overview and architecture of the FastNet Machine Learning weather prediction model, version 1.0</t>
+          <t>Representation of tropical deep convection in atmospheric models - Part 1: Meteorology and comparison with satellite observations</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>techreport</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>https://arxiv.org/abs/2509.17658</t>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr"/>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
@@ -4798,78 +4790,86 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>A. Conner, S. Hosking, J. Lloyd, A. Rao, G. Shaddick, M. Sharan</t>
+          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>10.5281/zenodo.7712969</t>
+          <t>10.5194/acp-10-11175-2010</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>The Alan Turing Institute</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Atmospheric Chemistry and Physics</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>https://zenodo.org/record/7712969/files/turing_asg_whitepaper_climatechange.pdf</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>11175--11188</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>Zenodo</t>
-        </is>
-      </c>
+      <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Tackling climate change with data science and AI</t>
+          <t>Modelling deep convection and its impacts on the tropical tropopause layer</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>techreport</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5281/zenodo.7712969</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr"/>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>arXiv</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>D. J. Patterson et al.</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+          <t>E. G. Daub, T. Dunstan, T. Bennett, M. Burnand, J. Chappell, A. Coca-Castro, N. Eftekhari, J. S. Hosking, M. Janmaijaya, J. Lillis, D. Salvador-Jasin, N. Simpson, O. T. Strickson, R. S. Chan, M. Elmasri, L. A. France, S. Madge, J. Robinson, A. A. Scaife, D. Walters, P. Yatsyshin, T. McCaie, L. Bokeria, H. Brown, T. Dodds, D. Llewellyn-Jones, S. Moreton, T. Potter, I. Stenson, L. Zeeland, K. Bett-Williams, K. I. Dale</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>10.48550/arXiv.2509.17658</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2509.17658</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>WWF and World Bank Group</t>
+          <t>The Alan Turing Institute, Met Office</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -4881,15 +4881,19 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>https://www.wwf.org.uk/sites/default/files/2020-12/Spatial%20Finance_%20Challenges%20and%20Opportunities_Final.pdf</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
+          <t>https://arxiv.org/pdf/2509.17658v1</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>physics.ao-ph</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Spatial Finance: Challenges and Opportunities in a Changing World</t>
+          <t>Technical overview and architecture of the FastNet Machine Learning weather prediction model, version 1.0</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -4897,11 +4901,15 @@
           <t>techreport</t>
         </is>
       </c>
-      <c r="T75" t="inlineStr"/>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/abs/2509.17658</t>
+        </is>
+      </c>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -4910,34 +4918,46 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>E. Wolff et al.</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>A. Conner, S. Hosking, J. Lloyd, A. Rao, G. Shaddick, M. Sharan</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>10.5281/zenodo.7712969</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Global Environmental Research Committee (GERC), Royal Society</t>
+          <t>The Alan Turing Institute</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-geoengineering-report.pdf</t>
+          <t>https://zenodo.org/record/7712969/files/turing_asg_whitepaper_climatechange.pdf</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Zenodo</t>
+        </is>
+      </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Geoengineering</t>
+          <t>Tackling climate change with data science and AI</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -4945,11 +4965,15 @@
           <t>techreport</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5281/zenodo.7712969</t>
+        </is>
+      </c>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -4958,14 +4982,14 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>E. Wolff et al.</t>
+          <t>D. J. Patterson et al.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Global Environmental Research Committee (GERC), Royal Society</t>
+          <t>WWF and World Bank Group</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -4977,7 +5001,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-air-quality-report.pdf</t>
+          <t>https://www.wwf.org.uk/sites/default/files/2020-12/Spatial%20Finance_%20Challenges%20and%20Opportunities_Final.pdf</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4985,7 +5009,7 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Air quality</t>
+          <t>Spatial Finance: Challenges and Opportunities in a Changing World</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -4997,7 +5021,7 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5049,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-biodiversity-report.pdf</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-geoengineering-report.pdf</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -5033,7 +5057,7 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>Geoengineering</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -5045,7 +5069,7 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5097,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-naturalres-food-report.pdf?la=en-GB&amp;hash=54A9DBF67437B62966A6CD8B425A5D17</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-air-quality-report.pdf</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -5081,7 +5105,7 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Natural Resources</t>
+          <t>Air quality</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -5093,7 +5117,7 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5145,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-climate-report.pdf</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-biodiversity-report.pdf</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -5129,7 +5153,7 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Biodiversity</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -5141,7 +5165,7 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
@@ -5150,14 +5174,14 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A. Maycock, S. Hosking, T. Bracegirdle</t>
+          <t>E. Wolff et al.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Cambridge Centre for Climate Science (CCfCS)</t>
+          <t>Global Environmental Research Committee (GERC), Royal Society</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -5169,7 +5193,7 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>https://www.climatescience.cam.ac.uk/docs/ccfcs-ipcc-key-points-pdf</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-naturalres-food-report.pdf?la=en-GB&amp;hash=54A9DBF67437B62966A6CD8B425A5D17</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -5177,7 +5201,7 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Key Points from the IPCC WGI Fifth Assessment Report. Climate Change 2013: The Physical Science Basis</t>
+          <t>Natural Resources</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -5189,63 +5213,55 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Cambridge, UK</t>
-        </is>
-      </c>
+      <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>J. S. Hosking</t>
+          <t>E. Wolff et al.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Global Environmental Research Committee (GERC), Royal Society</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-climate-report.pdf</t>
+        </is>
+      </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>University of Cambridge</t>
-        </is>
-      </c>
+      <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>The impact of deep convection on the structure of, and transport through, the tropical tropopause layer</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>phdthesis</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>http://ethos.bl.uk/OrderDetails.do?uin=uk.bl.ethos.604249</t>
-        </is>
-      </c>
+          <t>techreport</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -5254,12 +5270,16 @@
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>J. S. Hosking</t>
+          <t>A. Maycock, S. Hosking, T. Bracegirdle</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Cambridge Centre for Climate Science (CCfCS)</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -5267,34 +5287,42 @@
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>https://www.climatescience.cam.ac.uk/docs/ccfcs-ipcc-key-points-pdf</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Amundsen Sea Low (ASL) index</t>
+          <t>Key Points from the IPCC WGI Fifth Assessment Report. Climate Change 2013: The Physical Science Basis</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>datasets</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>https://scotthosking.com/asl_index</t>
-        </is>
-      </c>
+          <t>techreport</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Cambridge, UK</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>T. Andersson, J. S. Hosking et al.</t>
+          <t>J. S. Hosking</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -5304,30 +5332,122 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>University of Cambridge</t>
+        </is>
+      </c>
       <c r="R84" t="inlineStr">
         <is>
+          <t>The impact of deep convection on the structure of, and transport through, the tropical tropopause layer</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>phdthesis</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>http://ethos.bl.uk/OrderDetails.do?uin=uk.bl.ethos.604249</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>J. S. Hosking</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Amundsen Sea Low (ASL) index</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>datasets</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>https://scotthosking.com/asl_index</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>T. Andersson, J. S. Hosking et al.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr">
+        <is>
           <t>Forecasts, neural networks, and results from the paper: 'Seasonal Arctic sea ice forecasting with probabilistic deep learning'</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr">
+      <c r="S86" t="inlineStr">
         <is>
           <t>datasets</t>
         </is>
       </c>
-      <c r="T84" t="inlineStr">
+      <c r="T86" t="inlineStr">
         <is>
           <t>https://data.bas.ac.uk/full-record.php?id=GB/NERC/BAS/PDC/01526</t>
         </is>
       </c>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,7 +1039,11 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Phys.org, black, https://phys.org/news/2026-02-ai-track-icebergs-adrift-sea.html; Heise.de, blue, https://www.heise.de/en/news/Climate-Research-Scientists-Track-Iceberg-Life-Cycle-with-AI-11167824.html</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
@@ -1086,29 +1090,37 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>K. Tazi, A. Orr, J. S. Hosking, R. E. Turner</t>
+          <t>G. Muszynski, A. Orr, I. Roy, G. Di Capua, H. D. Pritchard, J. Scott Hosking</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.1017/eds.2025.10020</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>https://doi.org/10.1002/qj.70114</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://rmets.onlinelibrary.wiley.com/doi/pdf/10.1002/qj.70114</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Environmental Data Science</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>Quarterly Journal of the Royal Meteorological Society</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>causal effect networks, ENSO teleconnections, Himalayas, monsoon Hadley circulation, regional Walker circulation, summer monsoon precipitation</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>e46</t>
+          <t>e70114</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1117,7 +1129,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Precipitation prediction over the upper Indus Basin from large-scale circulation patterns using Gaussian processes</t>
+          <t>Using a causal effect network approach to quantify the impact of ENSO teleconnections on summer monsoon precipitation over the Himalayas and key regional circulations</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1125,15 +1137,15 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/qj.70114</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2026</t>
         </is>
       </c>
     </row>
@@ -1142,12 +1154,12 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>M. Girona-Mata, A. Orr, M. Widmann, D. Bannister, G. H. Dars, S. Hosking, J. Norris, D. Ocio, T. Phillips, J. Steiner, R. E. Turner</t>
+          <t>K. Tazi, A. Orr, J. S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.5194/hess-29-3073-2025</t>
+          <t>10.1017/eds.2025.10020</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1155,20 +1167,16 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Hydrology and Earth System Sciences</t>
+          <t>Environmental Data Science</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3073--3100</t>
+          <t>e46</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1177,7 +1185,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Probabilistic precipitation downscaling for ungauged mountain sites: a pilot study for the Hindu Kush Himalaya</t>
+          <t>Precipitation prediction over the upper Indus Basin from large-scale circulation patterns using Gaussian processes</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1185,14 +1193,10 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>https://hess.copernicus.org/articles/29/3073/2025/</t>
-        </is>
-      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>4</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1206,12 +1210,12 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>E. Bowler, J. Byrne, L.-M. Leclerc, A. Roberto-Charron, M. S. Rogers, R. D. Cavanagh, J. Harasimo, M. L. Lancaster, R. S. Chan, O. Strickson, J. Wilkinson, R. Downie, J. S. Hosking, T. R. Andersson</t>
+          <t>M. Girona-Mata, A. Orr, M. Widmann, D. Bannister, G. H. Dars, S. Hosking, J. Norris, D. Ocio, T. Phillips, J. Steiner, R. E. Turner</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/2688-8319.70034</t>
+          <t>10.5194/hess-29-3073-2025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1219,24 +1223,20 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Ecological Solutions and Evidence</t>
+          <t>Hydrology and Earth System Sciences</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Phys.org, black, https://phys.org/news/2025-05-ai-tool-aids-caribou-arctic.html; Anadolu Agency, blue, https://www.aa.com.tr/en/environment/new-ai-tool-can-help-protect-migration-routes-of-endangered-caribou-in-arctic-study/3583642; Business Weekly, grey, https://www.businessweekly.co.uk/posts/british-antarctic-survey-puts-ai-into-arctic-to-aid-caribou-conservation; Press Release, HotPink, https://www.bas.ac.uk/media-post/new-ai-tool-aids-caribou-conservation-in-a-changing-arctic/; Canada's National Observer, red, https://www.nationalobserver.com/2025/06/11/news/ai-protect-caribou-migration-changing-arctic</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>e70034</t>
+          <t>3073--3100</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1245,7 +1245,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>AI sea ice forecasts for Arctic conservation: A case study predicting the timing of caribou sea ice migrations</t>
+          <t>Probabilistic precipitation downscaling for ungauged mountain sites: a pilot study for the Hindu Kush Himalaya</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>https://besjournals.onlinelibrary.wiley.com/doi/abs/10.1002/2688-8319.70034</t>
+          <t>https://hess.copernicus.org/articles/29/3073/2025/</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>29</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1274,12 +1274,12 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>R. E. Rouse, H. Moss, S. Hosking, A. McRobie, E. Shuckburgh</t>
+          <t>E. Bowler, J. Byrne, L.-M. Leclerc, A. Roberto-Charron, M. S. Rogers, R. D. Cavanagh, J. Harasimo, M. L. Lancaster, R. S. Chan, O. Strickson, J. Wilkinson, R. Downie, J. S. Hosking, T. R. Andersson</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.1017/eds.2025.16</t>
+          <t>https://doi.org/10.1002/2688-8319.70034</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1287,16 +1287,24 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Environmental Data Science</t>
+          <t>Ecological Solutions and Evidence</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Phys.org, black, https://phys.org/news/2025-05-ai-tool-aids-caribou-arctic.html; Anadolu Agency, blue, https://www.aa.com.tr/en/environment/new-ai-tool-can-help-protect-migration-routes-of-endangered-caribou-in-arctic-study/3583642; Business Weekly, grey, https://www.businessweekly.co.uk/posts/british-antarctic-survey-puts-ai-into-arctic-to-aid-caribou-conservation; Press Release, HotPink, https://www.bas.ac.uk/media-post/new-ai-tool-aids-caribou-conservation-in-a-changing-arctic/; Canada's National Observer, red, https://www.nationalobserver.com/2025/06/11/news/ai-protect-caribou-migration-changing-arctic</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>e26</t>
+          <t>e70034</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1305,7 +1313,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Reflective error: a metric for assessing predictive performance at extreme events</t>
+          <t>AI sea ice forecasts for Arctic conservation: A case study predicting the timing of caribou sea ice migrations</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1313,10 +1321,14 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>https://besjournals.onlinelibrary.wiley.com/doi/abs/10.1002/2688-8319.70034</t>
+        </is>
+      </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1330,12 +1342,12 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A. Allen, S. Markou, W. Tebbutt, J. Requeima, W. P. Bruinsma, T. R. Andersson, N. D. Herzog, M. Chantry, J. S. Hosking, R. E. Turner</t>
+          <t>R. E. Rouse, H. Moss, S. Hosking, A. McRobie, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41586-025-08897-0</t>
+          <t>10.1017/eds.2025.16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1343,25 +1355,25 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Nature</t>
+          <t>Environmental Data Science</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Guardian, blue, https://www.theguardian.com/technology/2025/mar/20/ai-aardvark-weather-prediction-forecasting-artificial-intelligence; FT, DarkOrange, https://www.ft.com/content/73492128-5822-4bb2-b953-64217eb303e4; New Scientist, grey, https://www.newscientist.com/article/2472659-ai-can-forecast-the-weather-in-seconds-without-needing-supercomputers/; Independent, red, https://www.independent.co.uk/tech/ai-weather-forecast-aardvark-cambridge-b2717122.html; Blog, black, https://www.turing.ac.uk/blog/project-aardvark-reimagining-ai-weather-prediction</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>e26</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>End-to-end data-driven weather prediction</t>
+          <t>Reflective error: a metric for assessing predictive performance at extreme events</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1369,12 +1381,12 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>https://www.nature.com/articles/s41586-025-08897-0</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="V16" t="inlineStr">
         <is>
           <t>2025</t>
@@ -1386,12 +1398,12 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>R. C. Williams, P. Thodoroff, R. J. Arthern, J. Byrne, J. S. Hosking, M. Kaiser, N. D. Lawrence, I. Kazlauskaite</t>
+          <t>A. Allen, S. Markou, W. Tebbutt, J. Requeima, W. P. Bruinsma, T. R. Andersson, N. D. Herzog, M. Chantry, J. S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10.1038/s43247-025-02010-z</t>
+          <t>https://doi.org/10.1038/s41586-025-08897-0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1399,11 +1411,15 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Commun Earth Environ</t>
+          <t>Nature</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Guardian, blue, https://www.theguardian.com/technology/2025/mar/20/ai-aardvark-weather-prediction-forecasting-artificial-intelligence; FT, DarkOrange, https://www.ft.com/content/73492128-5822-4bb2-b953-64217eb303e4; New Scientist, grey, https://www.newscientist.com/article/2472659-ai-can-forecast-the-weather-in-seconds-without-needing-supercomputers/; Independent, red, https://www.independent.co.uk/tech/ai-weather-forecast-aardvark-cambridge-b2717122.html; Blog, black, https://www.turing.ac.uk/blog/project-aardvark-reimagining-ai-weather-prediction</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1413,7 +1429,7 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Calculations of extreme sea level rise scenarios are strongly dependent on ice sheet model resolution</t>
+          <t>End-to-end data-driven weather prediction</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1423,7 +1439,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s43247-025-02010-z</t>
+          <t>https://www.nature.com/articles/s41586-025-08897-0</t>
         </is>
       </c>
       <c r="U17" t="inlineStr"/>
@@ -1438,12 +1454,12 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>R. E. Rouse, D. Khamis, S. Hosking, A. McRobie, E. Shuckburgh</t>
+          <t>R. C. Williams, P. Thodoroff, R. J. Arthern, J. Byrne, J. S. Hosking, M. Kaiser, N. D. Lawrence, I. Kazlauskaite</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10.1017/eds.2024.48</t>
+          <t>10.1038/s43247-025-02010-z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1451,25 +1467,21 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Environmental Data Science</t>
+          <t>Commun Earth Environ</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>e5</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Streamflow prediction using artificial neural networks and soil moisture proxies</t>
+          <t>Calculations of extreme sea level rise scenarios are strongly dependent on ice sheet model resolution</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -1477,12 +1489,12 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s43247-025-02010-z</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
           <t>2025</t>
@@ -1494,12 +1506,12 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A. Coca-Castro, A. Fouilloux, R. Barros Lourenço, A. McDonald, Y. Rao, J. S. Hosking</t>
+          <t>R. E. Rouse, D. Khamis, S. Hosking, A. McRobie, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.1017/eds.2024.35</t>
+          <t>10.1017/eds.2024.48</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1514,14 +1526,18 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>e5</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Improving the reproducibility in geoscientific papers: lessons learned from a Hackathon in climate science</t>
+          <t>Streamflow prediction using artificial neural networks and soil moisture proxies</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -1546,12 +1562,12 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>K. Tazi, A. Orr, J. Hernandez-Gonz&amp;aacute;lez, S. Hosking, R. E. Turner</t>
+          <t>A. Coca-Castro, A. Fouilloux, R. Barros Lourenço, A. McDonald, Y. Rao, J. S. Hosking</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10.5194/hess-28-4903-2024</t>
+          <t>10.1017/eds.2024.35</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1559,29 +1575,21 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Hydrology and Earth System Sciences</t>
+          <t>Environmental Data Science</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>4903--4925</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Downscaling precipitation over High-mountain Asia using multi-fidelity Gaussian processes: improved estimates from ERA5</t>
+          <t>Improving the reproducibility in geoscientific papers: lessons learned from a Hackathon in climate science</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -1589,19 +1597,15 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>https://hess.copernicus.org/articles/28/4903/2024/</t>
-        </is>
-      </c>
+      <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>4</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -1610,33 +1614,33 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>M. S. Rogers, M. Fox, A. Fleming, L. {van Zeeland}, J. Wilkinson, J. S. Hosking</t>
+          <t>K. Tazi, A. Orr, J. Hernandez-Gonz&amp;aacute;lez, S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.rse.2024.114073</t>
+          <t>10.5194/hess-28-4903-2024</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0034-4257</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Remote Sensing of Environment</t>
+          <t>Hydrology and Earth System Sciences</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>114073</t>
+          <t>4903--4925</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -1645,7 +1649,7 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Sea ice detection using concurrent multispectral and synthetic aperture radar imagery</t>
+          <t>Downscaling precipitation over High-mountain Asia using multi-fidelity Gaussian processes: improved estimates from ERA5</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -1655,12 +1659,12 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0034425724000841</t>
+          <t>https://hess.copernicus.org/articles/28/4903/2024/</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>28</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1674,20 +1678,24 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>H. L. Joakimsen, I. Martinsen, L. T. Luppino, A. McDonald, S. Hosking, R. Jenssen</t>
+          <t>M. S. Rogers, M. Fox, A. Fleming, L. {van Zeeland}, J. Wilkinson, J. S. Hosking</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10.1109/LGRS.2024.3366308</t>
+          <t>https://doi.org/10.1016/j.rse.2024.114073</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0034-4257</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>IEEE Geoscience and Remote Sensing Letters</t>
+          <t>Remote Sensing of Environment</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1696,7 +1704,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>114073</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -1705,7 +1713,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Interrogating Sea Ice Predictability With Gradients</t>
+          <t>Sea ice detection using concurrent multispectral and synthetic aperture radar imagery</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1713,10 +1721,14 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>https://www.sciencedirect.com/science/article/pii/S0034425724000841</t>
+        </is>
+      </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>305</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1730,12 +1742,12 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C. Jay, Y. Yu, I. Crawford, S. Archer-Nicholls, P. James, A. Gledson, G. Shaddick, R. Haines, L. Lannelongue, E. Lines, S. Hosking, D. Topping</t>
+          <t>H. L. Joakimsen, I. Martinsen, L. T. Luppino, A. McDonald, S. Hosking, R. Jenssen</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10.1038/s41561-023-01369-y</t>
+          <t>10.1109/LGRS.2024.3366308</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1743,21 +1755,25 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Nature Geoscience</t>
+          <t>IEEE Geoscience and Remote Sensing Letters</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Prioritize environmental sustainability in use of AI and data science methods</t>
+          <t>Interrogating Sea Ice Predictability With Gradients</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1765,12 +1781,12 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>https://www.nature.com/articles/s41561-023-01369-y</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr">
         <is>
           <t>2024</t>
@@ -1782,46 +1798,34 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>B. Evans, A. Faul, A. Fleming, D. G. Vaughan, J. S. Hosking</t>
+          <t>C. Jay, Y. Yu, I. Crawford, S. Archer-Nicholls, P. James, A. Gledson, G. Shaddick, R. Haines, L. Lannelongue, E. Lines, S. Hosking, D. Topping</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10.1016/j.rse.2023.113780</t>
+          <t>10.1038/s41561-023-01369-y</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0034-4257</t>
-        </is>
-      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Remote Sensing of Environment</t>
+          <t>Nature Geoscience</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Fox Weather, blue, https://www.foxweather.com/weather-news/iceberg-a23a-weddell-sea-antarctic-peninsula; Press Release, DarkOrange, https://www.bas.ac.uk/media-post/using-ai-to-track-icebergs/</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>113780</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Unsupervised machine learning detection of iceberg populations within sea ice from dual-polarisation SAR imagery</t>
+          <t>Prioritize environmental sustainability in use of AI and data science methods</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1831,17 +1835,13 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0034425723003310</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>297</t>
-        </is>
-      </c>
+          <t>https://www.nature.com/articles/s41561-023-01369-y</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
@@ -1850,29 +1850,37 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>T. R. Andersson, W. P. Bruinsma, S. Markou, J. Requeima, A. Coca-Castro, A. Vaughan, A.-L. Ellis, M. A. Lazzara, D. Jones, S. Hosking, R. E. Turner</t>
+          <t>B. Evans, A. Faul, A. Fleming, D. G. Vaughan, J. S. Hosking</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10.1017/eds.2023.22</t>
+          <t>10.1016/j.rse.2023.113780</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0034-4257</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Environmental Data Science</t>
+          <t>Remote Sensing of Environment</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Fox Weather, blue, https://www.foxweather.com/weather-news/iceberg-a23a-weddell-sea-antarctic-peninsula; Press Release, DarkOrange, https://www.bas.ac.uk/media-post/using-ai-to-track-icebergs/</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>e32</t>
+          <t>113780</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -1881,7 +1889,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Environmental sensor placement with convolutional Gaussian neural processes</t>
+          <t>Unsupervised machine learning detection of iceberg populations within sea ice from dual-polarisation SAR imagery</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1889,10 +1897,14 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>https://www.sciencedirect.com/science/article/pii/S0034425723003310</t>
+        </is>
+      </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>297</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -1906,12 +1918,12 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>R. Parthipan, H. M. Christensen, J. S. Hosking, D. J. Wischik</t>
+          <t>T. R. Andersson, W. P. Bruinsma, S. Markou, J. Requeima, A. Coca-Castro, A. Vaughan, A.-L. Ellis, M. A. Lazzara, D. Jones, S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10.5194/gmd-16-4501-2023</t>
+          <t>10.1017/eds.2023.22</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1919,20 +1931,16 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Geoscientific Model Development</t>
+          <t>Environmental Data Science</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>4501--4519</t>
+          <t>e32</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -1941,7 +1949,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Using probabilistic machine learning to better model temporal patterns in parameterizations: a case study with the Lorenz 96 model</t>
+          <t>Environmental sensor placement with convolutional Gaussian neural processes</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1949,14 +1957,10 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>https://gmd.copernicus.org/articles/16/4501/2023/</t>
-        </is>
-      </c>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -1970,12 +1974,12 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>W. P. Bruinsma, S. Markou, J. Requiema, A. Y. Foong, T. R. Andersson, A. Vaughan, A. Buonomo, J. S. Hosking, R. E. Turner</t>
+          <t>R. Parthipan, H. M. Christensen, J. S. Hosking, D. J. Wischik</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10.48550/arXiv.2303.14468</t>
+          <t>10.5194/gmd-16-4501-2023</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1983,21 +1987,29 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>11th International Conference on Learning Representations (ICLR 2023)</t>
+          <t>Geoscientific Model Development</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>4501--4519</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Autoregressive Conditional Neural Processes</t>
+          <t>Using probabilistic machine learning to better model temporal patterns in parameterizations: a case study with the Lorenz 96 model</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2005,8 +2017,16 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>https://gmd.copernicus.org/articles/16/4501/2023/</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr">
         <is>
           <t>2023</t>
@@ -2018,12 +2038,12 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>T. Summers, E. Mackie, R. Ueno, C. Simpson, J. S. Hosking, T. Suciu, A. Coburn, E. Shuckburgh</t>
+          <t>W. P. Bruinsma, S. Markou, J. Requiema, A. Y. Foong, T. R. Andersson, A. Vaughan, A. Buonomo, J. S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10.1002/cli2.35</t>
+          <t>10.48550/arXiv.2303.14468</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2031,29 +2051,21 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Climate Resilience and Sustainability</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>bias, climate, correction, disruption, economic, exceedance, temperature</t>
-        </is>
-      </c>
+          <t>11th International Conference on Learning Representations (ICLR 2023)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>e35</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Localized impacts and economic implications from high temperature disruption days under climate change</t>
+          <t>Autoregressive Conditional Neural Processes</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2061,15 +2073,11 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/cli2.35</t>
-        </is>
-      </c>
+      <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2078,12 +2086,12 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A. Vaughan, W. Tebbutt, J. S. Hosking, R. E. Turner</t>
+          <t>T. Summers, E. Mackie, R. Ueno, C. Simpson, J. S. Hosking, T. Suciu, A. Coburn, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10.5194/gmd-15-251-2022</t>
+          <t>10.1002/cli2.35</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2091,20 +2099,20 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Geoscientific Model Development</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>Climate Resilience and Sustainability</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>bias, climate, correction, disruption, economic, exceedance, temperature</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>251--268</t>
+          <t>e35</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2113,7 +2121,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Convolutional conditional neural processes for local climate downscaling</t>
+          <t>Localized impacts and economic implications from high temperature disruption days under climate change</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2123,14 +2131,10 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>https://gmd.copernicus.org/articles/15/251/2022/</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/cli2.35</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
           <t>2022</t>
@@ -2142,12 +2146,12 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C. Simpson, J. S. Hosking, D. Mitchell, R. A. Betts, E. Shuckburgh</t>
+          <t>A. Vaughan, W. Tebbutt, J. S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10.1088/1748-9326/ac3288</t>
+          <t>10.5194/gmd-15-251-2022</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2155,24 +2159,20 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Environmental Research Letters</t>
+          <t>Geoscientific Model Development</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>nov</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>124004</t>
+          <t>251--268</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -2181,7 +2181,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Regional disparities and seasonal differences in climate risk to rice labour</t>
+          <t>Convolutional conditional neural processes for local climate downscaling</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2191,17 +2191,17 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1748-9326/ac3288</t>
+          <t>https://gmd.copernicus.org/articles/15/251/2022/</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
@@ -2210,42 +2210,46 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>N. Eastwood, W. A. Stubbings, M. A. {Abou-Elwafa Abdallah}, I. Durance, J. Paavola, M. Dallimer, J. H. Pantel, S. Johnson, J. Zhou, J. S. Hosking, J. B. Brown, S. Ullah, S. Krause, D. M. Hannah, S. E. Crawford, M. Widmann, L. Orsini</t>
+          <t>C. Simpson, J. S. Hosking, D. Mitchell, R. A. Betts, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.tree.2021.09.008</t>
+          <t>10.1088/1748-9326/ac3288</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0169-5347</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Trends in Ecology &amp; Evolution</t>
+          <t>Environmental Research Letters</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>The New Stack, HotPink, https://thenewstack.io/ai-biodiversity-time-machine-could-decide-for-uncertain-future/</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>124004</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>The Time Machine framework: monitoring and prediction of biodiversity loss</t>
+          <t>Regional disparities and seasonal differences in climate risk to rice labour</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2255,10 +2259,14 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0169534721002597</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr"/>
+          <t>https://doi.org/10.1088/1748-9326/ac3288</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr">
         <is>
           <t>2021</t>
@@ -2270,26 +2278,30 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>T. Andersson, J. S. Hosking, M. Pérez-Ortiz, B. Paige, A. Elliott, C. Russell, S. Law, D. C. Jones, J. Wilkinson, T. Phillips, J. Byrne, S. Tietsche, B. B. Sarojini, E. Blanchard-Wrigglesworth, Y. Aksenov, R. Downie, E. Shuckburgh</t>
+          <t>N. Eastwood, W. A. Stubbings, M. A. {Abou-Elwafa Abdallah}, I. Durance, J. Paavola, M. Dallimer, J. H. Pantel, S. Johnson, J. Zhou, J. S. Hosking, J. B. Brown, S. Ullah, S. Krause, D. M. Hannah, S. E. Crawford, M. Widmann, L. Orsini</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41467-021-25257-4</t>
+          <t>https://doi.org/10.1016/j.tree.2021.09.008</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0169-5347</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Nature Communications</t>
+          <t>Trends in Ecology &amp; Evolution</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Nvidia Blog, green, https://blogs.nvidia.com/blog/2021/08/31/ai-model-predicts-sea-ice-loss/; Wired, black, https://www.wired.com/story/as-the-arctic-warms-ai-forecasts-scope-out-shifting-sea-ice/; Science News, blue, https://www.sciencenews.org/article/artificial-intelligence-sea-ice-forecast; Eos, grey, https://eos.org/articles/could-ai-be-useful-for-arctic-communities-facing-sea-ice-loss; BBC Podcast, red, https://www.bbc.co.uk/programmes/w3ct1lsl; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-9928807/British-Antarctic-Survey-builds-AI-predict-ice-loss.html</t>
+          <t>The New Stack, HotPink, https://thenewstack.io/ai-biodiversity-time-machine-could-decide-for-uncertain-future/</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2301,7 +2313,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Seasonal Arctic sea ice forecasting with probabilistic deep learning</t>
+          <t>The Time Machine framework: monitoring and prediction of biodiversity loss</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2311,7 +2323,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>https://www.nature.com/articles/s41467-021-25257-4</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S0169534721002597</t>
         </is>
       </c>
       <c r="U32" t="inlineStr"/>
@@ -2326,12 +2338,12 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>J. C. King, J. Turner, S. Colwell, H. Lu, A. Orr, T. Phillips, J. S. Hosking, G. J. Marshall</t>
+          <t>T. Andersson, J. S. Hosking, M. Pérez-Ortiz, B. Paige, A. Elliott, C. Russell, S. Law, D. C. Jones, J. Wilkinson, T. Phillips, J. Byrne, S. Tietsche, B. B. Sarojini, E. Blanchard-Wrigglesworth, Y. Aksenov, R. Downie, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-20-0748.1</t>
+          <t>https://doi.org/10.1038/s41467-021-25257-4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2339,29 +2351,25 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Nature Communications</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Nvidia Blog, green, https://blogs.nvidia.com/blog/2021/08/31/ai-model-predicts-sea-ice-loss/; Wired, black, https://www.wired.com/story/as-the-arctic-warms-ai-forecasts-scope-out-shifting-sea-ice/; Science News, blue, https://www.sciencenews.org/article/artificial-intelligence-sea-ice-forecast; Eos, grey, https://eos.org/articles/could-ai-be-useful-for-arctic-communities-facing-sea-ice-loss; BBC Podcast, red, https://www.bbc.co.uk/programmes/w3ct1lsl; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-9928807/British-Antarctic-Survey-builds-AI-predict-ice-loss.html</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>4771 - 4783</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Inhomogeneity of the Surface Air Temperature Record from Halley, Antarctica</t>
+          <t>Seasonal Arctic sea ice forecasting with probabilistic deep learning</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2371,14 +2379,10 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>https://journals.ametsoc.org/view/journals/clim/34/12/JCLI-D-20-0748.1.xml</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
+          <t>https://www.nature.com/articles/s41467-021-25257-4</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
           <t>2021</t>
@@ -2390,12 +2394,12 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>S. E. Haupt, W. Chapman, S. V. Adams, C. Kirkwood, J. S. Hosking, N. H. Robinson, S. Lerch, A. C. Subramanian</t>
+          <t>J. C. King, J. Turner, S. Colwell, H. Lu, A. Orr, T. Phillips, J. S. Hosking, G. J. Marshall</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10.1098/rsta.2020.0091</t>
+          <t>10.1175/JCLI-D-20-0748.1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2403,7 +2407,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Philosophical Transactions of the Royal Society A: Mathematical, Physical and Engineering Sciences</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -2411,12 +2415,12 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2194</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>20200091</t>
+          <t>4771 - 4783</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -2425,7 +2429,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Towards implementing artificial intelligence post-processing in weather and climate: proposed actions from the Oxford 2019 workshop</t>
+          <t>Inhomogeneity of the Surface Air Temperature Record from Halley, Antarctica</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2435,12 +2439,12 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>https://royalsocietypublishing.org/doi/abs/10.1098/rsta.2020.0091</t>
+          <t>https://journals.ametsoc.org/view/journals/clim/34/12/JCLI-D-20-0748.1.xml</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>34</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2454,30 +2458,42 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>U. Sengupta, M. Amos, J. S. Hosking, C. E. Rasmussen, M. Juniper, P. J. Young</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>S. E. Haupt, W. Chapman, S. V. Adams, C. Kirkwood, J. S. Hosking, N. H. Robinson, S. Lerch, A. C. Subramanian</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.1098/rsta.2020.0091</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Advances in Neural Information Processing Systems (NeurIPS) 2020</t>
+          <t>Philosophical Transactions of the Royal Society A: Mathematical, Physical and Engineering Sciences</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>20200091</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Ensembling geophysical models with Bayesian Neural Networks</t>
+          <t>Towards implementing artificial intelligence post-processing in weather and climate: proposed actions from the Oxford 2019 workshop</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -2487,13 +2503,17 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2010.03561v1</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr"/>
+          <t>https://royalsocietypublishing.org/doi/abs/10.1098/rsta.2020.0091</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2522,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>W. P. Bruinsma, E. Perim, W. Tebbutt, J. S. Hosking, A. Solin, R. E. Turner</t>
+          <t>U. Sengupta, M. Amos, J. S. Hosking, C. E. Rasmussen, M. Juniper, P. J. Young</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2511,7 +2531,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Proceedings of the 37th International Conference on Machine Learning, Vienna, Austria, PMLR 119, 2020</t>
+          <t>Advances in Neural Information Processing Systems (NeurIPS) 2020</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -2525,7 +2545,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Scalable Exact Inference in Multi-Output Gaussian Processes</t>
+          <t>Ensembling geophysical models with Bayesian Neural Networks</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -2535,7 +2555,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/1911.06287</t>
+          <t>https://arxiv.org/abs/2010.03561v1</t>
         </is>
       </c>
       <c r="U36" t="inlineStr"/>
@@ -2550,42 +2570,30 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A. Orr, J. S. Hosking, A. Delon, L. Hoffmann, R. Spang, T. Moffat-Griffin, J. Keeble, N. L. Abraham, P. Braesicke</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>10.5194/acp-20-12483-2020</t>
-        </is>
-      </c>
+          <t>W. P. Bruinsma, E. Perim, W. Tebbutt, J. S. Hosking, A. Solin, R. E. Turner</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Atmospheric Chemistry and Physics</t>
+          <t>Proceedings of the 37th International Conference on Machine Learning, Vienna, Austria, PMLR 119, 2020</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>12483--12497</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Polar stratospheric clouds initiated by mountain waves in a global chemistry--climate model: a missing piece in fully modelling polar stratospheric ozone depletion</t>
+          <t>Scalable Exact Inference in Multi-Output Gaussian Processes</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -2595,14 +2603,10 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>https://acp.copernicus.org/articles/20/12483/2020/</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>https://arxiv.org/abs/1911.06287</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
           <t>2020</t>
@@ -2614,12 +2618,12 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>M. Amos, P. J. Young, J. S. Hosking, J.-F. Lamarque, N. L. Abraham, H. Akiyoshi, A. T. Archibald, S. Bekki, M. Deushi, P. J&amp;ouml;ckel, D. Kinnison, O. Kirner, M. Kunze, M. Marchand, D. A. Plummer, D. Saint-Martin, K. Sudo, S. Tilmes, Y. Yamashita</t>
+          <t>A. Orr, J. S. Hosking, A. Delon, L. Hoffmann, R. Spang, T. Moffat-Griffin, J. Keeble, N. L. Abraham, P. Braesicke</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10.5194/acp-20-9961-2020</t>
+          <t>10.5194/acp-20-12483-2020</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2635,12 +2639,12 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>9961--9977</t>
+          <t>12483--12497</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -2649,7 +2653,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Projecting ozone hole recovery using an ensemble of chemistry-climate models weighted by model performance and independence</t>
+          <t>Polar stratospheric clouds initiated by mountain waves in a global chemistry--climate model: a missing piece in fully modelling polar stratospheric ozone depletion</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -2659,7 +2663,7 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>https://acp.copernicus.org/articles/20/9961/2020/</t>
+          <t>https://acp.copernicus.org/articles/20/12483/2020/</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -2678,12 +2682,12 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>T. J. Bracegirdle, C. R. Holmes, J. S. Hosking, G. J. Marshall, M. Osman, M. Patterson, T. Rackow</t>
+          <t>M. Amos, P. J. Young, J. S. Hosking, J.-F. Lamarque, N. L. Abraham, H. Akiyoshi, A. T. Archibald, S. Bekki, M. Deushi, P. J&amp;ouml;ckel, D. Kinnison, O. Kirner, M. Kunze, M. Marchand, D. A. Plummer, D. Saint-Martin, K. Sudo, S. Tilmes, Y. Yamashita</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10.1029/2019EA001065</t>
+          <t>10.5194/acp-20-9961-2020</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2691,7 +2695,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Earth and Space Science</t>
+          <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -2699,12 +2703,12 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>e2019EA001065</t>
+          <t>9961--9977</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -2713,7 +2717,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Improvements in Circumpolar Southern Hemisphere Extratropical Atmospheric Circulation in CMIP6 Compared to CMIP5</t>
+          <t>Projecting ozone hole recovery using an ensemble of chemistry-climate models weighted by model performance and independence</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -2723,12 +2727,12 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019EA001065</t>
+          <t>https://acp.copernicus.org/articles/20/9961/2020/</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -2742,12 +2746,12 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>M. R. McCrystall, J. S. Hosking, I. P. White, A. C. Maycock</t>
+          <t>T. J. Bracegirdle, C. R. Holmes, J. S. Hosking, G. J. Marshall, M. Osman, M. Patterson, T. Rackow</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-19-0456.1</t>
+          <t>10.1029/2019EA001065</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2755,7 +2759,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Earth and Space Science</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -2763,12 +2767,12 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>e2019EA001065</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -2777,7 +2781,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>The impact of changes in tropical sea surface temperatures over 1979-2012 on Northern hemisphere high latitude climate</t>
+          <t>Improvements in Circumpolar Southern Hemisphere Extratropical Atmospheric Circulation in CMIP6 Compared to CMIP5</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2787,12 +2791,12 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1175/JCLI-D-19-0456.1</t>
+          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019EA001065</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -2806,30 +2810,42 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>L. Kapetas, N. Kazakis, K. Voudouris, A. T. Martinez, J. S. Hosking</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>M. R. McCrystall, J. S. Hosking, I. P. White, A. C. Maycock</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.1175/JCLI-D-19-0456.1</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ICONHIC 2019: 2nd International Conference on Natural Hazards &amp; Infrastructure, Chania, Greece</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Modelling Groundwater - Surface Water Interactions Under Climate Change Scenarios: insights from Axios Delta, Greece</t>
+          <t>The impact of changes in tropical sea surface temperatures over 1979-2012 on Northern hemisphere high latitude climate</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2839,13 +2855,17 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/profile/K_Voudouris/publication/334130545_Modelling_Groundwater_-Surface_Water_Interactions_Under_Climate_Change_Scenarios_insights_from_Axios_Delta_Greece/links/5d19a640458515c11c06bd23/Modelling-Groundwater-Surface-Water-Interactions-Under-Climate-Change-Scenarios-insights-from-Axios-Delta-Greece.pdf</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr"/>
+          <t>https://doi.org/10.1175/JCLI-D-19-0456.1</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
     </row>
@@ -2854,30 +2874,22 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>D. Bannister, A. Orr, S. K. Jain, I. P. Holman, A. Momblanch, T. Phillips, A. J. Adeloye, B. Snapir, T. W. Waine, J. S. Hosking, C. Allen-Sader</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>10.1029/2019JD030804</t>
-        </is>
-      </c>
+          <t>L. Kapetas, N. Kazakis, K. Voudouris, A. T. Martinez, J. S. Hosking</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Journal of Geophysical Research: Atmospheres</t>
+          <t>ICONHIC 2019: 2nd International Conference on Natural Hazards &amp; Infrastructure, Chania, Greece</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -2885,7 +2897,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Bias correction of high-resolution regional climate model precipitation output gives the best estimates of precipitation in Himalayan catchments</t>
+          <t>Modelling Groundwater - Surface Water Interactions Under Climate Change Scenarios: insights from Axios Delta, Greece</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2895,14 +2907,10 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019JD030804</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
+          <t>https://www.researchgate.net/profile/K_Voudouris/publication/334130545_Modelling_Groundwater_-Surface_Water_Interactions_Under_Climate_Change_Scenarios_insights_from_Axios_Delta_Greece/links/5d19a640458515c11c06bd23/Modelling-Groundwater-Surface-Water-Interactions-Under-Climate-Change-Scenarios-insights-from-Axios-Delta-Greece.pdf</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
           <t>2019</t>
@@ -2914,12 +2922,12 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>J. Turner, T. Phillips, M. Thamban, W. Rahaman, G. J. Marshall, J. D. Wille, V. Favier, V. H. Winton, E. Thomas, Z. Wang, M. Broeke, J. S. Hosking, T. Lachlan-Cope</t>
+          <t>D. Bannister, A. Orr, S. K. Jain, I. P. Holman, A. Momblanch, T. Phillips, A. J. Adeloye, B. Snapir, T. W. Waine, J. S. Hosking, C. Allen-Sader</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10.1029/2018GL081517</t>
+          <t>10.1029/2019JD030804</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2927,33 +2935,25 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Journal of Geophysical Research: Atmospheres</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Phys.org, black, https://phys.org/news/2019-03-antarctic-snowfall-dominated-extreme-snowstorms.html</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>3502-3511</t>
-        </is>
-      </c>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>The Dominant Role of Extreme Precipitation Events in Antarctic Snowfall Variability</t>
+          <t>Bias correction of high-resolution regional climate model precipitation output gives the best estimates of precipitation in Himalayan catchments</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2963,12 +2963,12 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2018GL081517</t>
+          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019JD030804</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -2982,12 +2982,12 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>P. Deb, A. Orr, D. H. Bromwich, J. P. Nicolas, J. Turner, J. S. Hosking</t>
+          <t>J. Turner, T. Phillips, M. Thamban, W. Rahaman, G. J. Marshall, J. D. Wille, V. Favier, V. H. Winton, E. Thomas, Z. Wang, M. Broeke, J. S. Hosking, T. Lachlan-Cope</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10.1029/2018GL077092</t>
+          <t>10.1029/2018GL081517</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2999,16 +2999,20 @@
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Phys.org, black, https://phys.org/news/2019-03-antarctic-snowfall-dominated-extreme-snowstorms.html</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4124-4133</t>
+          <t>3502-3511</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -3017,7 +3021,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Summer Drivers of Atmospheric Variability Affecting Ice Shelf Thinning in the Amundsen Sea Embayment, West Antarctica</t>
+          <t>The Dominant Role of Extreme Precipitation Events in Antarctic Snowfall Variability</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -3025,15 +3029,19 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2018GL081517</t>
+        </is>
+      </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3050,12 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>J. S. Hosking, D. MacLeod, T. Phillips, C. R. Holmes, P. Watson, E. Shuckburgh, D. Mitchell</t>
+          <t>P. Deb, A. Orr, D. H. Bromwich, J. P. Nicolas, J. Turner, J. S. Hosking</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10.1088/1748-9326/aabf78</t>
+          <t>10.1029/2018GL077092</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -3055,24 +3063,20 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Environmental Research Letters</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Carbon Brief, blue, https://www.carbonbrief.org/uk-onshore-wind-energy-potential-could-rise-by-10-with-1-5c-warming; Independent, red, https://www.independent.co.uk/climate-change/news/wind-power-uk-global-warming-climate-change-british-antarctic-survey-a8354956.html; Phys.org, black, https://phys.org/news/2018-05-european-energy-potential-degree-warmer.html; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-5736189/Global-warming-make-UK-large-parts-northern-Europe-far-windier.html; Treehugger, green, https://www.treehugger.com/climate-change-could-bring-stronger-winds-more-wind-power-4857464</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1--9</t>
+          <t>4124-4133</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -3081,7 +3085,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Changes in European wind energy generation potential within a 1.5C warmer world</t>
+          <t>Summer Drivers of Atmospheric Variability Affecting Ice Shelf Thinning in the Amundsen Sea Embayment, West Antarctica</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3092,7 +3096,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>45</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3106,12 +3110,12 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>J. C. King, D. Bannister, J. S. Hosking, S. R. Colwell</t>
+          <t>J. S. Hosking, D. MacLeod, T. Phillips, C. R. Holmes, P. Watson, E. Shuckburgh, D. Mitchell</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.1002/asl.793</t>
+          <t>10.1088/1748-9326/aabf78</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3119,20 +3123,24 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Atmospheric Science Letters</t>
+          <t>Environmental Research Letters</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Carbon Brief, blue, https://www.carbonbrief.org/uk-onshore-wind-energy-potential-could-rise-by-10-with-1-5c-warming; Independent, red, https://www.independent.co.uk/climate-change/news/wind-power-uk-global-warming-climate-change-british-antarctic-survey-a8354956.html; Phys.org, black, https://phys.org/news/2018-05-european-energy-potential-degree-warmer.html; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-5736189/Global-warming-make-UK-large-parts-northern-Europe-far-windier.html; Treehugger, green, https://www.treehugger.com/climate-change-could-bring-stronger-winds-more-wind-power-4857464</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>491-496</t>
+          <t>1--9</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -3141,7 +3149,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Causes of the Antarctic region record high temperature at Signy Island, 30th January 1982</t>
+          <t>Changes in European wind energy generation potential within a 1.5C warmer world</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3152,12 +3160,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3174,12 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>J. S. Hosking, R. Fogt, E. R. Thomas, V. Moosavi, T. Phillips, J. Coggins, D. Reusch</t>
+          <t>J. C. King, D. Bannister, J. S. Hosking, S. R. Colwell</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10.1002/2017GL074722</t>
+          <t>10.1002/asl.793</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -3179,7 +3187,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Atmospheric Science Letters</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -3187,12 +3195,12 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>9084-9092</t>
+          <t>491-496</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -3201,7 +3209,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Accumulation in coastal West Antarctic ice core records and the role of cyclone activity</t>
+          <t>Causes of the Antarctic region record high temperature at Signy Island, 30th January 1982</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3212,7 +3220,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>18</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3226,12 +3234,12 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>D. Bannister, M. Herzog, H.-F. Graf, J. S. Hosking, C. A. Short</t>
+          <t>J. S. Hosking, R. Fogt, E. R. Thomas, V. Moosavi, T. Phillips, J. Coggins, D. Reusch</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-16-0536.1</t>
+          <t>10.1002/2017GL074722</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3239,7 +3247,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3252,7 +3260,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>6701-6722</t>
+          <t>9084-9092</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -3261,7 +3269,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>An Assessment of Recent and Future Temperature Change over the Sichuan Basin, China, Using CMIP5 Climate Models</t>
+          <t>Accumulation in coastal West Antarctic ice core records and the role of cyclone activity</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3272,7 +3280,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>44</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3286,12 +3294,12 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>J. Turner, T. Phillips, G. J. Marshall, J. S. Hosking, J. O. Pope, T. J. Bracegirdle, P. Deb</t>
+          <t>D. Bannister, M. Herzog, H.-F. Graf, J. S. Hosking, C. A. Short</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>10.1002/2017GL073656</t>
+          <t>10.1175/JCLI-D-16-0536.1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3299,24 +3307,20 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Phys.org, black, https://phys.org/news/2017-06-storms-massive-antarctic-sea-ice.html</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>6868--6875</t>
+          <t>6701-6722</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -3325,7 +3329,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Unprecedented springtime retreat of Antarctic sea ice in 2016</t>
+          <t>An Assessment of Recent and Future Temperature Change over the Sichuan Basin, China, Using CMIP5 Climate Models</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3336,7 +3340,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3350,12 +3354,12 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>T. Moffat-Griffin, M. J. Taylor, T. Nakamura, A. J. Kavanagh, J. S. Hosking, A. Orr</t>
+          <t>J. Turner, T. Phillips, G. J. Marshall, J. S. Hosking, J. O. Pope, T. J. Bracegirdle, P. Deb</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10.1007/s00376-016-6197-5</t>
+          <t>10.1002/2017GL073656</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3363,20 +3367,24 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Advances in Atmospheric Sciences</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Phys.org, black, https://phys.org/news/2017-06-storms-massive-antarctic-sea-ice.html</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1--3</t>
+          <t>6868--6875</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -3385,7 +3393,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>3rd ANtarctic Gravity Wave Instrument Network (ANGWIN) science workshop</t>
+          <t>Unprecedented springtime retreat of Antarctic sea ice in 2016</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3396,7 +3404,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>44</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3410,12 +3418,12 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, T. Phillips, G. J. Marshall</t>
+          <t>T. Moffat-Griffin, M. J. Taylor, T. Nakamura, A. J. Kavanagh, J. S. Hosking, A. Orr</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10.1002/joc.4848</t>
+          <t>10.1007/s00376-016-6197-5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3423,7 +3431,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>International Journal of Climatology</t>
+          <t>Advances in Atmospheric Sciences</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3431,12 +3439,12 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2325--2336</t>
+          <t>1--3</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -3445,7 +3453,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Variability and trends in the Southern Hemisphere high latitude, quasi-stationary planetary waves</t>
+          <t>3rd ANtarctic Gravity Wave Instrument Network (ANGWIN) science workshop</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3456,7 +3464,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>34</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -3470,12 +3478,12 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>J. Turner, H. Lu, I. White, J. King, T. Phillips, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, R. Mulvaney, P. Deb</t>
+          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, T. Phillips, G. J. Marshall</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10.1038/nature18645</t>
+          <t>10.1002/joc.4848</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3483,20 +3491,20 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Nature</t>
+          <t>International Journal of Climatology</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Carbon Brief, blue, https://www.carbonbrief.org/natural-forces-overpowering-antarctic-peninsula-warming; Washington Post, black, https://www.washingtonpost.com/news/energy-environment/wp/2016/07/20/the-antarctic-peninsula-is-cooling-but-climate-skeptics-shouldnt-get-too-excited/</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>411--415</t>
+          <t>2325--2336</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -3505,7 +3513,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Absence of 21st century warming on Antarctic Peninsula consistent with natural variability</t>
+          <t>Variability and trends in the Southern Hemisphere high latitude, quasi-stationary planetary waves</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3516,12 +3524,12 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>37</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
@@ -3530,12 +3538,12 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>P. Deb, A. Orr, J. S. Hosking, T. Phillips, J. Turner, D. Bannister, J. O. Pope, S. Colwell</t>
+          <t>J. Turner, H. Lu, I. White, J. King, T. Phillips, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, R. Mulvaney, P. Deb</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10.1002/2015JD024037</t>
+          <t>10.1038/nature18645</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3543,20 +3551,20 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Journal of Geophysical Research: Atmospheres</t>
+          <t>Nature</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Carbon Brief, blue, https://www.carbonbrief.org/natural-forces-overpowering-antarctic-peninsula-warming; Washington Post, black, https://www.washingtonpost.com/news/energy-environment/wp/2016/07/20/the-antarctic-peninsula-is-cooling-but-climate-skeptics-shouldnt-get-too-excited/</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1532-1548</t>
+          <t>411--415</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -3565,7 +3573,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>An assessment of the Polar Weather Research and Forecasting (WRF) model representation of near-surface meteorological variables over West Antarctica</t>
+          <t>Absence of 21st century warming on Antarctic Peninsula consistent with natural variability</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3576,7 +3584,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>535</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -3590,12 +3598,12 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>J. S. Hosking, A. Orr, T. J. Bracegirdle, J. Turner</t>
+          <t>P. Deb, A. Orr, J. S. Hosking, T. Phillips, J. Turner, D. Bannister, J. O. Pope, S. Colwell</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10.1002/2015GL067143</t>
+          <t>10.1002/2015JD024037</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3603,7 +3611,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Journal of Geophysical Research: Atmospheres</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -3611,12 +3619,12 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>367-376</t>
+          <t>1532-1548</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -3625,7 +3633,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Future circulation changes off West Antarctica: Sensitivity of the Amundsen Sea Low to projected anthropogenic forcing</t>
+          <t>An assessment of the Polar Weather Research and Forecasting (WRF) model representation of near-surface meteorological variables over West Antarctica</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3636,7 +3644,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>121</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -3650,12 +3658,12 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>M. N. Raphael, G. J. Marshall, J. Turner, R. L. Fogt, D. Schneider, D. A. Dixon, J. S. Hosking, J. M. Jones, W. R. Hobbs</t>
+          <t>J. S. Hosking, A. Orr, T. J. Bracegirdle, J. Turner</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10.1175/BAMS-D-14-00018.1</t>
+          <t>10.1002/2015GL067143</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3663,7 +3671,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Bulletin of the American Meteorological Society</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -3676,7 +3684,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>111-121</t>
+          <t>367-376</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3685,7 +3693,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>The Amundsen Sea Low: Variability, Change, and Impact on Antarctic Climate</t>
+          <t>Future circulation changes off West Antarctica: Sensitivity of the Amundsen Sea Low to projected anthropogenic forcing</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3696,7 +3704,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>43</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -3710,12 +3718,12 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, G. J. Marshall, T. Phillips, T. J. Bracegirdle</t>
+          <t>M. N. Raphael, G. J. Marshall, J. Turner, R. L. Fogt, D. Schneider, D. A. Dixon, J. S. Hosking, J. M. Jones, W. R. Hobbs</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>10.1007/s00382-015-2708-9</t>
+          <t>10.1175/BAMS-D-14-00018.1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3723,7 +3731,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Climate Dynamics</t>
+          <t>Bulletin of the American Meteorological Society</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -3731,12 +3739,12 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2391--2402</t>
+          <t>111-121</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3745,7 +3753,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Antarctic sea ice increase dominated by intrinsic variability of the Amundsen Sea Low</t>
+          <t>The Amundsen Sea Low: Variability, Change, and Impact on Antarctic Climate</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3756,7 +3764,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>97</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -3770,12 +3778,12 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>E. R. Thomas, J. S. Hosking, R. R. Tuckwell, R. A. Warren, E. C. Ludlow</t>
+          <t>J. Turner, J. S. Hosking, G. J. Marshall, T. Phillips, T. J. Bracegirdle</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10.1002/2015GL065750</t>
+          <t>10.1007/s00382-015-2708-9</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3783,24 +3791,20 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Climate Dynamics</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Indian Express, red, https://indianexpress.com/article/trending/trending-globally/west-antarctic-coastal-snow-rose-30-per-cent-in-20th-century/</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>9387--9393</t>
+          <t>2391--2402</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3809,7 +3813,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Twentieth century increase in snowfall in coastal West Antarctica</t>
+          <t>Antarctic sea ice increase dominated by intrinsic variability of the Amundsen Sea Low</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3820,12 +3824,12 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -3834,12 +3838,12 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, T. Phillips</t>
+          <t>E. R. Thomas, J. S. Hosking, R. R. Tuckwell, R. A. Warren, E. C. Ludlow</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10.1098/rsta.2014.0163</t>
+          <t>10.1002/2015GL065750</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3847,25 +3851,33 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Philosophical Transactions of the Royal Society of London A: Mathematical, Physical and Engineering Sciences</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Indian Express, red, https://indianexpress.com/article/trending/trending-globally/west-antarctic-coastal-snow-rose-30-per-cent-in-20th-century/</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2045</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr"/>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>9387--9393</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Recent Changes in Antarctic Sea Ice</t>
+          <t>Twentieth century increase in snowfall in coastal West Antarctica</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3876,7 +3888,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>42</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -3890,12 +3902,12 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>C. Chemel, M. R. Russo, J. S. Hosking, P. J. Telford, J. A. Pyle</t>
+          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, T. Phillips</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10.1002/asl2.540</t>
+          <t>10.1098/rsta.2014.0163</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3903,7 +3915,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Atmospheric Science Letters</t>
+          <t>Philosophical Transactions of the Royal Society of London A: Mathematical, Physical and Engineering Sciences</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -3911,21 +3923,17 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>148-154</t>
-        </is>
-      </c>
+          <t>2045</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Sensitivity of tropical deep convection in global models: effects of horizontal resolution, surface constraints and 3D atmospheric nudging</t>
+          <t>Recent Changes in Antarctic Sea Ice</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3936,7 +3944,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>373</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -3950,12 +3958,12 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A. Orr, J. S. Hosking, L. Hoffmann, J. Keeble, S. M. Dean, H. K. Roscoe, N. L. Abraham, S. Vosper, P. Braesicke</t>
+          <t>C. Chemel, M. R. Russo, J. S. Hosking, P. J. Telford, J. A. Pyle</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10.5194/acp-15-1071-2015</t>
+          <t>10.1002/asl2.540</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3963,7 +3971,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Atmospheric Chemistry and Physics</t>
+          <t>Atmospheric Science Letters</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -3976,7 +3984,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1071--1086</t>
+          <t>148-154</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -3985,7 +3993,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Inclusion of mountain-wave-induced cooling for the formation of PSCs over the Antarctic Peninsula in a chemistry-climate model</t>
+          <t>Sensitivity of tropical deep convection in global models: effects of horizontal resolution, surface constraints and 3D atmospheric nudging</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3996,7 +4004,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4010,12 +4018,12 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>J. S. Hosking, D. Bannister, A. Orr, J. King, E. Young, T. Phillips</t>
+          <t>A. Orr, J. S. Hosking, L. Hoffmann, J. Keeble, S. M. Dean, H. K. Roscoe, N. L. Abraham, S. Vosper, P. Braesicke</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10.1002/asl2.519</t>
+          <t>10.5194/acp-15-1071-2015</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -4023,7 +4031,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Atmospheric Science Letters</t>
+          <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -4031,12 +4039,12 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>50-55</t>
+          <t>1071--1086</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4045,7 +4053,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Orographic disturbances of surface winds over the shelf waters adjacent to South Georgia</t>
+          <t>Inclusion of mountain-wave-induced cooling for the formation of PSCs over the Antarctic Peninsula in a chemistry-climate model</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -4056,7 +4064,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4070,12 +4078,12 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A. Orr, T. Phillips, S. Webster, A. Elvidge, M. Weeks, S. Hosking, J. Turner</t>
+          <t>J. S. Hosking, D. Bannister, A. Orr, J. King, E. Young, T. Phillips</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10.1002/qj.2296</t>
+          <t>10.1002/asl2.519</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -4083,7 +4091,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Quarterly Journal of the Royal Meteorological Society</t>
+          <t>Atmospheric Science Letters</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -4091,12 +4099,12 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2287-2297</t>
+          <t>50-55</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -4105,7 +4113,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Met Office Unified Model high resolution simulations of a strong wind event in Antarctica</t>
+          <t>Orographic disturbances of surface winds over the shelf waters adjacent to South Georgia</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -4116,12 +4124,12 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>16</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
@@ -4130,12 +4138,12 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>T. Bracegirdle, J. Turner, J. S. Hosking, T. Phillips</t>
+          <t>A. Orr, T. Phillips, S. Webster, A. Elvidge, M. Weeks, S. Hosking, J. Turner</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10.1007/s00382-013-2032-1</t>
+          <t>10.1002/qj.2296</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -4143,7 +4151,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Climate Dynamics</t>
+          <t>Quarterly Journal of the Royal Meteorological Society</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -4151,12 +4159,12 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>684</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2093-2104</t>
+          <t>2287-2297</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -4165,7 +4173,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Sources of uncertainty in projections of twenty-first century westerly wind changes over the Amundsen Sea, West Antarctica, in CMIP5 climate models</t>
+          <t>Met Office Unified Model high resolution simulations of a strong wind event in Antarctica</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -4176,7 +4184,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4190,12 +4198,12 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, T. Phillips, G. J. Marshall</t>
+          <t>T. Bracegirdle, J. Turner, J. S. Hosking, T. Phillips</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>10.1002/2013GL058371</t>
+          <t>10.1007/s00382-013-2032-1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -4203,7 +4211,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Climate Dynamics</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -4211,12 +4219,12 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>5894-5898</t>
+          <t>2093-2104</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -4225,7 +4233,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Temporal and spatial evolution of the Antarctic sea ice prior to the September 2012 record maximum extent</t>
+          <t>Sources of uncertainty in projections of twenty-first century westerly wind changes over the Amundsen Sea, West Antarctica, in CMIP5 climate models</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4236,12 +4244,12 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
@@ -4250,12 +4258,12 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>J. S. Hosking, A. Orr, G. J. Marshall, J. Turner, T. Phillips</t>
+          <t>J. Turner, J. S. Hosking, T. Phillips, G. J. Marshall</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-12-00813.1</t>
+          <t>10.1002/2013GL058371</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4263,7 +4271,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -4271,12 +4279,12 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>6633--6648</t>
+          <t>5894-5898</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -4285,7 +4293,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>The influence of the Amundsen-Bellingshausen Seas Low on the climate of West Antarctica and its representation in coupled climate model simulations</t>
+          <t>Temporal and spatial evolution of the Antarctic sea ice prior to the September 2012 record maximum extent</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4296,7 +4304,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>40</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4310,12 +4318,12 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>J. Turner, T. Phillips, J. S. Hosking, G. J. Marshall, A. Orr</t>
+          <t>J. S. Hosking, A. Orr, G. J. Marshall, J. Turner, T. Phillips</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10.1002/joc.3558</t>
+          <t>10.1175/JCLI-D-12-00813.1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4323,7 +4331,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>International Journal of Climatology</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -4331,12 +4339,12 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>1818--1829</t>
+          <t>6633--6648</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -4345,7 +4353,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>The Amundsen Sea Low</t>
+          <t>The influence of the Amundsen-Bellingshausen Seas Low on the climate of West Antarctica and its representation in coupled climate model simulations</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4356,7 +4364,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -4370,12 +4378,12 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>N. E. Barrand, D. Vaughan, N. Steiner, M. Tedesco, P. Kuipers Munneke, M. Broeke, J. S. Hosking</t>
+          <t>J. Turner, T. Phillips, J. S. Hosking, G. J. Marshall, A. Orr</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10.1029/2012JF002559</t>
+          <t>10.1002/joc.3558</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4383,7 +4391,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Journal of Geophysical Research: Earth Surface</t>
+          <t>International Journal of Climatology</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -4391,12 +4399,12 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>315-330</t>
+          <t>1818--1829</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -4405,7 +4413,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Trends in Antarctic Peninsula surface melting conditions from observations and regional climate modelling</t>
+          <t>The Amundsen Sea Low</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4416,7 +4424,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>33</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -4430,12 +4438,12 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>J. Turner, T. Bracegirdle, T. Phillips, G. J. Marshall, J. S. Hosking</t>
+          <t>N. E. Barrand, D. Vaughan, N. Steiner, M. Tedesco, P. Kuipers Munneke, M. Broeke, J. S. Hosking</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-12-00068.1</t>
+          <t>10.1029/2012JF002559</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4443,7 +4451,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Journal of Geophysical Research: Earth Surface</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -4451,12 +4459,12 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>1473--1484</t>
+          <t>315-330</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -4465,7 +4473,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>An Initial Assessment of Antarctic Sea Ice Extent in the CMIP5 Models</t>
+          <t>Trends in Antarctic Peninsula surface melting conditions from observations and regional climate modelling</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4476,7 +4484,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>118</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -4490,12 +4498,12 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, W. Feng, H. K. Roscoe, J. D. Haigh</t>
+          <t>J. Turner, T. Bracegirdle, T. Phillips, G. J. Marshall, J. S. Hosking</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-12-00480.1</t>
+          <t>10.1175/JCLI-D-12-00068.1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4511,12 +4519,12 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>662--668</t>
+          <t>1473--1484</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -4525,7 +4533,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Strong dynamical modulation of the cooling of the polar stratosphere associated with the Antarctic ozone hole</t>
+          <t>An Initial Assessment of Antarctic Sea Ice Extent in the CMIP5 Models</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4550,12 +4558,12 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, T. Jung, J. D. Haigh, T. Phillips, W. Feng</t>
+          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, W. Feng, H. K. Roscoe, J. D. Haigh</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>10.1175/JAS-D-11-0210.1</t>
+          <t>10.1175/JCLI-D-12-00480.1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4563,7 +4571,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Journal of the Atmospheric Sciences</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -4571,12 +4579,12 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2917--2932</t>
+          <t>662--668</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
@@ -4585,7 +4593,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Possible Dynamical Mechanisms for Southern Hemisphere Climate Change due to the Ozone Hole</t>
+          <t>Strong dynamical modulation of the cooling of the polar stratosphere associated with the Antarctic ozone hole</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4596,12 +4604,12 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>26</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
@@ -4610,12 +4618,12 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
+          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, T. Jung, J. D. Haigh, T. Phillips, W. Feng</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10.5194/acp-12-9791-2012</t>
+          <t>10.1175/JAS-D-11-0210.1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4623,7 +4631,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Atmospheric Chemistry and Physics</t>
+          <t>Journal of the Atmospheric Sciences</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -4631,12 +4639,12 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>9791--9797</t>
+          <t>2917--2932</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
@@ -4645,7 +4653,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Tropical convective transport and the Walker circulation</t>
+          <t>Possible Dynamical Mechanisms for Southern Hemisphere Climate Change due to the Ozone Hole</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -4656,7 +4664,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>69</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -4670,12 +4678,12 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>C. R. Hoyle, V. Mar&amp;eacute;cal, M. R. Russo, G. Allen, J. Arteta, C. Chemel, M. P. Chipperfield, F. D'Amato, O. Dessens, W. Feng, J. F. Hamilton, N. R. Harris, J. S. Hosking, A. C. Lewis, O. Morgenstern, T. Peter, J. A. Pyle, T. Reddmann, N. A. Richards, P. J. Telford, W. Tian, S. Viciani, A. Volz-Thomas, O. Wild, X. Yang, G. Zeng</t>
+          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10.5194/acp-11-8103-2011</t>
+          <t>10.5194/acp-12-9791-2012</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4691,12 +4699,12 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>8103--8131</t>
+          <t>9791--9797</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -4705,7 +4713,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Representation of tropical deep convection in atmospheric models - Part 2: Tracer transport</t>
+          <t>Tropical convective transport and the Walker circulation</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -4716,12 +4724,12 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
@@ -4730,12 +4738,12 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>M. R. Russo, V. Mar&amp;eacute;cal, C. R. Hoyle, J. Arteta, C. Chemel, M. P. Chipperfield, O. Dessens, W. Feng, J. S. Hosking, P. J. Telford, O. Wild, X. Yang, J. A. Pyle</t>
+          <t>C. R. Hoyle, V. Mar&amp;eacute;cal, M. R. Russo, G. Allen, J. Arteta, C. Chemel, M. P. Chipperfield, F. D'Amato, O. Dessens, W. Feng, J. F. Hamilton, N. R. Harris, J. S. Hosking, A. C. Lewis, O. Morgenstern, T. Peter, J. A. Pyle, T. Reddmann, N. A. Richards, P. J. Telford, W. Tian, S. Viciani, A. Volz-Thomas, O. Wild, X. Yang, G. Zeng</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10.5194/acp-11-2765-2011</t>
+          <t>10.5194/acp-11-8103-2011</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4751,12 +4759,12 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2765--2786</t>
+          <t>8103--8131</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -4765,7 +4773,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Representation of tropical deep convection in atmospheric models - Part 1: Meteorology and comparison with satellite observations</t>
+          <t>Representation of tropical deep convection in atmospheric models - Part 2: Tracer transport</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -4790,12 +4798,12 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
+          <t>M. R. Russo, V. Mar&amp;eacute;cal, C. R. Hoyle, J. Arteta, C. Chemel, M. P. Chipperfield, O. Dessens, W. Feng, J. S. Hosking, P. J. Telford, O. Wild, X. Yang, J. A. Pyle</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>10.5194/acp-10-11175-2010</t>
+          <t>10.5194/acp-11-2765-2011</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -4811,12 +4819,12 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>11175--11188</t>
+          <t>2765--2786</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -4825,7 +4833,7 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Modelling deep convection and its impacts on the tropical tropopause layer</t>
+          <t>Representation of tropical deep convection in atmospheric models - Part 1: Meteorology and comparison with satellite observations</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -4836,128 +4844,124 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>arXiv</t>
-        </is>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>E. G. Daub, T. Dunstan, T. Bennett, M. Burnand, J. Chappell, A. Coca-Castro, N. Eftekhari, J. S. Hosking, M. Janmaijaya, J. Lillis, D. Salvador-Jasin, N. Simpson, O. T. Strickson, R. S. Chan, M. Elmasri, L. A. France, S. Madge, J. Robinson, A. A. Scaife, D. Walters, P. Yatsyshin, T. McCaie, L. Bokeria, H. Brown, T. Dodds, D. Llewellyn-Jones, S. Moreton, T. Potter, I. Stenson, L. Zeeland, K. Bett-Williams, K. I. Dale</t>
+          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>10.48550/arXiv.2509.17658</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>2509.17658</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>The Alan Turing Institute, Met Office</t>
-        </is>
-      </c>
+          <t>10.5194/acp-10-11175-2010</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Atmospheric Chemistry and Physics</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>https://arxiv.org/pdf/2509.17658v1</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>physics.ao-ph</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>11175--11188</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Technical overview and architecture of the FastNet Machine Learning weather prediction model, version 1.0</t>
+          <t>Modelling deep convection and its impacts on the tropical tropopause layer</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>techreport</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>https://arxiv.org/abs/2509.17658</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr"/>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>arXiv</t>
+        </is>
+      </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>A. Conner, S. Hosking, J. Lloyd, A. Rao, G. Shaddick, M. Sharan</t>
+          <t>E. G. Daub, T. Dunstan, T. Bennett, M. Burnand, J. Chappell, A. Coca-Castro, N. Eftekhari, J. S. Hosking, M. Janmaijaya, J. Lillis, D. Salvador-Jasin, N. Simpson, O. T. Strickson, R. S. Chan, M. Elmasri, L. A. France, S. Madge, J. Robinson, A. A. Scaife, D. Walters, P. Yatsyshin, T. McCaie, L. Bokeria, H. Brown, T. Dodds, D. Llewellyn-Jones, S. Moreton, T. Potter, I. Stenson, L. Zeeland, K. Bett-Williams, K. I. Dale</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>10.5281/zenodo.7712969</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
+          <t>10.48550/arXiv.2509.17658</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2509.17658</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>The Alan Turing Institute</t>
+          <t>The Alan Turing Institute, Met Office</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>https://zenodo.org/record/7712969/files/turing_asg_whitepaper_climatechange.pdf</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>Zenodo</t>
-        </is>
-      </c>
+          <t>https://arxiv.org/pdf/2509.17658v1</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>physics.ao-ph</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Tackling climate change with data science and AI</t>
+          <t>Technical overview and architecture of the FastNet Machine Learning weather prediction model, version 1.0</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -4967,13 +4971,13 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5281/zenodo.7712969</t>
+          <t>https://arxiv.org/abs/2509.17658</t>
         </is>
       </c>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -4982,34 +4986,46 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>D. J. Patterson et al.</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>A. Conner, S. Hosking, J. Lloyd, A. Rao, G. Shaddick, M. Sharan</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10.5281/zenodo.7712969</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>WWF and World Bank Group</t>
+          <t>The Alan Turing Institute</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>https://www.wwf.org.uk/sites/default/files/2020-12/Spatial%20Finance_%20Challenges%20and%20Opportunities_Final.pdf</t>
+          <t>https://zenodo.org/record/7712969/files/turing_asg_whitepaper_climatechange.pdf</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Zenodo</t>
+        </is>
+      </c>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Spatial Finance: Challenges and Opportunities in a Changing World</t>
+          <t>Tackling climate change with data science and AI</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -5017,11 +5033,15 @@
           <t>techreport</t>
         </is>
       </c>
-      <c r="T77" t="inlineStr"/>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5281/zenodo.7712969</t>
+        </is>
+      </c>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -5030,14 +5050,14 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>E. Wolff et al.</t>
+          <t>D. J. Patterson et al.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Global Environmental Research Committee (GERC), Royal Society</t>
+          <t>WWF and World Bank Group</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -5049,7 +5069,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-geoengineering-report.pdf</t>
+          <t>https://www.wwf.org.uk/sites/default/files/2020-12/Spatial%20Finance_%20Challenges%20and%20Opportunities_Final.pdf</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -5057,7 +5077,7 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Geoengineering</t>
+          <t>Spatial Finance: Challenges and Opportunities in a Changing World</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -5069,7 +5089,7 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5117,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-air-quality-report.pdf</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-geoengineering-report.pdf</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -5105,7 +5125,7 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Air quality</t>
+          <t>Geoengineering</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -5117,7 +5137,7 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5165,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-biodiversity-report.pdf</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-air-quality-report.pdf</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -5153,7 +5173,7 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>Air quality</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -5193,7 +5213,7 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-naturalres-food-report.pdf?la=en-GB&amp;hash=54A9DBF67437B62966A6CD8B425A5D17</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-biodiversity-report.pdf</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -5201,7 +5221,7 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Natural Resources</t>
+          <t>Biodiversity</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -5213,7 +5233,7 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5261,7 @@
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-climate-report.pdf</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-naturalres-food-report.pdf?la=en-GB&amp;hash=54A9DBF67437B62966A6CD8B425A5D17</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -5249,7 +5269,7 @@
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Natural Resources</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -5270,14 +5290,14 @@
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>A. Maycock, S. Hosking, T. Bracegirdle</t>
+          <t>E. Wolff et al.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Cambridge Centre for Climate Science (CCfCS)</t>
+          <t>Global Environmental Research Committee (GERC), Royal Society</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -5289,7 +5309,7 @@
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>https://www.climatescience.cam.ac.uk/docs/ccfcs-ipcc-key-points-pdf</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-climate-report.pdf</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -5297,7 +5317,7 @@
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Key Points from the IPCC WGI Fifth Assessment Report. Climate Change 2013: The Physical Science Basis</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -5309,68 +5329,64 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Cambridge, UK</t>
-        </is>
-      </c>
+      <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>J. S. Hosking</t>
+          <t>A. Maycock, S. Hosking, T. Bracegirdle</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Cambridge Centre for Climate Science (CCfCS)</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>https://www.climatescience.cam.ac.uk/docs/ccfcs-ipcc-key-points-pdf</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>University of Cambridge</t>
-        </is>
-      </c>
+      <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>The impact of deep convection on the structure of, and transport through, the tropical tropopause layer</t>
+          <t>Key Points from the IPCC WGI Fifth Assessment Report. Climate Change 2013: The Physical Science Basis</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>phdthesis</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>http://ethos.bl.uk/OrderDetails.do?uin=uk.bl.ethos.604249</t>
-        </is>
-      </c>
+          <t>techreport</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr"/>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Cambridge, UK</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
@@ -5384,37 +5400,49 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>University of Cambridge</t>
+        </is>
+      </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Amundsen Sea Low (ASL) index</t>
+          <t>The impact of deep convection on the structure of, and transport through, the tropical tropopause layer</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>datasets</t>
+          <t>phdthesis</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>https://scotthosking.com/asl_index</t>
+          <t>http://ethos.bl.uk/OrderDetails.do?uin=uk.bl.ethos.604249</t>
         </is>
       </c>
       <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>T. Andersson, J. S. Hosking et al.</t>
+          <t>J. S. Hosking</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -5433,7 +5461,7 @@
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Forecasts, neural networks, and results from the paper: 'Seasonal Arctic sea ice forecasting with probabilistic deep learning'</t>
+          <t>Amundsen Sea Low (ASL) index</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -5443,11 +5471,51 @@
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>https://data.bas.ac.uk/full-record.php?id=GB/NERC/BAS/PDC/01526</t>
+          <t>https://scotthosking.com/asl_index</t>
         </is>
       </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>T. Andersson, J. S. Hosking et al.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Forecasts, neural networks, and results from the paper: 'Seasonal Arctic sea ice forecasting with probabilistic deep learning'</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>datasets</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>https://data.bas.ac.uk/full-record.php?id=GB/NERC/BAS/PDC/01526</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,12 +610,12 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B. R. Evans, A. Lowe, A. Crawford, A. Fleming, J. S. Hosking</t>
+          <t>R. Rouse, R. Debnath, D. Rouse, W. Tebbutt, B. Dousset, J. S. Hosking, A. McRobie, C. Mora, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.5194/egusphere-2025-2886</t>
+          <t>https://doi.org/10.21203/rs.3.rs-4736541/v1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -623,25 +623,21 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EGUsphere</t>
+          <t>PREPRINT (Version 1) available at Research Square</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1--28</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Icebergs, jigsaw puzzles and genealogy: Automated multi-generational iceberg tracking and lineage reconstruction</t>
+          <t>Reclassifying Lethal Heat</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -649,19 +645,11 @@
           <t>preprint</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>https://egusphere.copernicus.org/preprints/2025/egusphere-2025-2886/</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
@@ -670,12 +658,12 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>L. Uebbing, H. L. Joakimsen, L. T. Luppino, I. Martinsen, A. McDonald, K. K. Wickstr&amp;oslash;m, S. Lef&amp;egrave;vre, A. B. Salberg, S. Hosking, R. Jenssen</t>
+          <t>B. R. Evans, A. R. Lowe, A. Crawford, A. Fleming, J. S. Hosking</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://openreview.net/forum?id=7TwvcPAyxX</t>
+          <t>10.5194/tc-20-467-2026</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -683,37 +671,53 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Northern Lights Deep Learning Conference 2025</t>
+          <t>The Cryosphere</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Phys.org, black, https://phys.org/news/2026-02-ai-track-icebergs-adrift-sea.html; Heise.de, blue, https://www.heise.de/en/news/Climate-Research-Scientists-Track-Iceberg-Life-Cycle-with-AI-11167824.html</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>467--482</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Investigating the Impact of Feature Reduction for Deep Learning-based Seasonal Sea Ice Forecasting</t>
+          <t>Icebergs, jigsaw puzzles, and genealogy: automated multi-generational iceberg tracking and lineage reconstruction</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>preprint</t>
+          <t>article</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>https://openreview.net/forum?id=7TwvcPAyxX</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
+          <t>https://tc.copernicus.org/articles/20/467/2026/</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2026</t>
         </is>
       </c>
     </row>
@@ -722,46 +726,62 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R. Rouse, R. Debnath, D. Rouse, W. Tebbutt, B. Dousset, J. S. Hosking, A. McRobie, C. Mora, E. Shuckburgh</t>
+          <t>G. Muszynski, A. Orr, I. Roy, G. Di Capua, H. D. Pritchard, J. Scott Hosking</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-4736541/v1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>https://doi.org/10.1002/qj.70114</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://rmets.onlinelibrary.wiley.com/doi/pdf/10.1002/qj.70114</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PREPRINT (Version 1) available at Research Square</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>Quarterly Journal of the Royal Meteorological Society</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>causal effect networks, ENSO teleconnections, Himalayas, monsoon Hadley circulation, regional Walker circulation, summer monsoon precipitation</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>e70114</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Reclassifying Lethal Heat</t>
+          <t>Using a causal effect network approach to quantify the impact of ENSO teleconnections on summer monsoon precipitation over the Himalayas and key regional circulations</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>preprint</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/qj.70114</t>
+        </is>
+      </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2026</t>
         </is>
       </c>
     </row>
@@ -770,12 +790,12 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R. Parthipan, M. Anand, H. M. Christensen, J. S. Hosking, D. J. Wischik</t>
+          <t>K. Tazi, A. Orr, J. S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.48550/arXiv.2405.14714</t>
+          <t>10.1017/eds.2025.10020</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -783,33 +803,41 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ArXiv</t>
+          <t>Environmental Data Science</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>e46</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Defining error accumulation in ML atmospheric simulators</t>
+          <t>Precipitation prediction over the upper Indus Basin from large-scale circulation patterns using Gaussian processes</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>preprint</t>
+          <t>article</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -818,12 +846,12 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P. Thodoroff, M. Kaiser, R. Williams, R. Arthern, S. Hosking, N. Lawrence, J. Byrne, I. Kazlauskaite</t>
+          <t>M. Girona-Mata, A. Orr, M. Widmann, D. Bannister, G. H. Dars, S. Hosking, J. Norris, D. Ocio, T. Phillips, J. Steiner, R. E. Turner</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.48550/arXiv.2307.08449</t>
+          <t>10.5194/hess-29-3073-2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -831,37 +859,49 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>NeurIPS 2022 Workshop on Gaussian Processes, Spatiotemporal Modeling, and Decision-making Systems</t>
+          <t>Hydrology and Earth System Sciences</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3073--3100</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Multi-fidelity experimental design for ice-sheet simulation</t>
+          <t>Probabilistic precipitation downscaling for ungauged mountain sites: a pilot study for the Hindu Kush Himalaya</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>preprint</t>
+          <t>article</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arXiv.2307.08449</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr"/>
+          <t>https://hess.copernicus.org/articles/29/3073/2025/</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -870,12 +910,12 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A. Ravuri, T. R. Andersson, I. Kazlauskaite, W. Tebbutt, R. E. Turner, J. S. Hosking, N. D. Lawrence, M. Kaiser</t>
+          <t>E. Bowler, J. Byrne, L.-M. Leclerc, A. Roberto-Charron, M. S. Rogers, R. D. Cavanagh, J. Harasimo, M. L. Lancaster, R. S. Chan, O. Strickson, J. Wilkinson, R. Downie, J. S. Hosking, T. R. Andersson</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.48550/ARXIV.2210.16568</t>
+          <t>https://doi.org/10.1002/2688-8319.70034</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -883,37 +923,53 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>NeurIPS 2022 Workshop on Gaussian Processes, Spatiotemporal Modeling, and Decision-making Systems</t>
+          <t>Ecological Solutions and Evidence</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Phys.org, black, https://phys.org/news/2025-05-ai-tool-aids-caribou-arctic.html; Anadolu Agency, blue, https://www.aa.com.tr/en/environment/new-ai-tool-can-help-protect-migration-routes-of-endangered-caribou-in-arctic-study/3583642; Business Weekly, grey, https://www.businessweekly.co.uk/posts/british-antarctic-survey-puts-ai-into-arctic-to-aid-caribou-conservation; Press Release, HotPink, https://www.bas.ac.uk/media-post/new-ai-tool-aids-caribou-conservation-in-a-changing-arctic/; Canada's National Observer, red, https://www.nationalobserver.com/2025/06/11/news/ai-protect-caribou-migration-changing-arctic</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>e70034</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Ice Core Dating using Probabilistic Programming</t>
+          <t>AI sea ice forecasts for Arctic conservation: A case study predicting the timing of caribou sea ice migrations</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>preprint</t>
+          <t>article</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2210.16568</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr"/>
+          <t>https://besjournals.onlinelibrary.wiley.com/doi/abs/10.1002/2688-8319.70034</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -922,12 +978,12 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>V. Lalchand, K. Tazi, T. M. Cheema, R. E. Turner, S. Hosking</t>
+          <t>R. E. Rouse, H. Moss, S. Hosking, A. McRobie, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.48550/ARXIV.2209.04947</t>
+          <t>10.1017/eds.2025.16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -935,37 +991,41 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>16th Bayesian Modelling Applications Workshop at UAI, 2022</t>
+          <t>Environmental Data Science</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>e26</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Kernel Learning for Explainable Climate Science</t>
+          <t>Reflective error: a metric for assessing predictive performance at extreme events</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>preprint</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>https://arxiv.org/abs/2209.04947</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr"/>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -974,12 +1034,12 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>M. Amos, U. Sengupta, P. Young, J. S. Hosking</t>
+          <t>A. Allen, S. Markou, W. Tebbutt, J. Requeima, W. P. Bruinsma, T. R. Andersson, N. D. Herzog, M. Chantry, J. S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.31223/X5N91S</t>
+          <t>https://doi.org/10.1038/s41586-025-08897-0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -987,11 +1047,15 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>EarthArXiv</t>
+          <t>Nature</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Guardian, blue, https://www.theguardian.com/technology/2025/mar/20/ai-aardvark-weather-prediction-forecasting-artificial-intelligence; FT, DarkOrange, https://www.ft.com/content/73492128-5822-4bb2-b953-64217eb303e4; New Scientist, grey, https://www.newscientist.com/article/2472659-ai-can-forecast-the-weather-in-seconds-without-needing-supercomputers/; Independent, red, https://www.independent.co.uk/tech/ai-weather-forecast-aardvark-cambridge-b2717122.html; Blog, black, https://www.turing.ac.uk/blog/project-aardvark-reimagining-ai-weather-prediction</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1001,19 +1065,23 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>A continuous vertically resolved ozone dataset from the fusion of chemistry climate models with observations using a Bayesian neural network</t>
+          <t>End-to-end data-driven weather prediction</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>preprint</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>https://www.nature.com/articles/s41586-025-08897-0</t>
+        </is>
+      </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -1022,12 +1090,12 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B. R. Evans, A. R. Lowe, A. Crawford, A. Fleming, J. S. Hosking</t>
+          <t>R. C. Williams, P. Thodoroff, R. J. Arthern, J. Byrne, J. S. Hosking, M. Kaiser, N. D. Lawrence, I. Kazlauskaite</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.5194/tc-20-467-2026</t>
+          <t>10.1038/s43247-025-02010-z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1035,33 +1103,21 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>The Cryosphere</t>
+          <t>Commun Earth Environ</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Phys.org, black, https://phys.org/news/2026-02-ai-track-icebergs-adrift-sea.html; Heise.de, blue, https://www.heise.de/en/news/Climate-Research-Scientists-Track-Iceberg-Life-Cycle-with-AI-11167824.html</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>467--482</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Icebergs, jigsaw puzzles, and genealogy: automated multi-generational iceberg tracking and lineage reconstruction</t>
+          <t>Calculations of extreme sea level rise scenarios are strongly dependent on ice sheet model resolution</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1071,17 +1127,13 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>https://tc.copernicus.org/articles/20/467/2026/</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>https://doi.org/10.1038/s43247-025-02010-z</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -1090,37 +1142,29 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>G. Muszynski, A. Orr, I. Roy, G. Di Capua, H. D. Pritchard, J. Scott Hosking</t>
+          <t>R. E. Rouse, D. Khamis, S. Hosking, A. McRobie, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/qj.70114</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://rmets.onlinelibrary.wiley.com/doi/pdf/10.1002/qj.70114</t>
-        </is>
-      </c>
+          <t>10.1017/eds.2024.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Quarterly Journal of the Royal Meteorological Society</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>causal effect networks, ENSO teleconnections, Himalayas, monsoon Hadley circulation, regional Walker circulation, summer monsoon precipitation</t>
-        </is>
-      </c>
+          <t>Environmental Data Science</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>e70114</t>
+          <t>e5</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1129,7 +1173,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Using a causal effect network approach to quantify the impact of ENSO teleconnections on summer monsoon precipitation over the Himalayas and key regional circulations</t>
+          <t>Streamflow prediction using artificial neural networks and soil moisture proxies</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1137,15 +1181,15 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/qj.70114</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1198,12 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>K. Tazi, A. Orr, J. S. Hosking, R. E. Turner</t>
+          <t>A. Coca-Castro, A. Fouilloux, R. Barros Lourenço, A. McDonald, Y. Rao, J. S. Hosking</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.1017/eds.2025.10020</t>
+          <t>10.1017/eds.2024.35</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1174,18 +1218,14 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>e46</t>
-        </is>
-      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Precipitation prediction over the upper Indus Basin from large-scale circulation patterns using Gaussian processes</t>
+          <t>Improving the reproducibility in geoscientific papers: lessons learned from a Hackathon in climate science</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1210,12 +1250,12 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>M. Girona-Mata, A. Orr, M. Widmann, D. Bannister, G. H. Dars, S. Hosking, J. Norris, D. Ocio, T. Phillips, J. Steiner, R. E. Turner</t>
+          <t>L. Uebbing, H. L. Joakimsen, L. T. Luppino, I. Martinsen, A. McDonald, K. K. Wickstr{&amp;oslash;}m, S. Lef{&amp;egrave;}vre, A. B. Salberg, S. Hosking, R. Jenssen</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.5194/hess-29-3073-2025</t>
+          <t>https://raw.githubusercontent.com/mlresearch/v265/main/assets/uebbing25a/uebbing25a.pdf</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1223,29 +1263,21 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Hydrology and Earth System Sciences</t>
+          <t>Northern Lights Deep Learning Conference 2025</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>3073--3100</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Probabilistic precipitation downscaling for ungauged mountain sites: a pilot study for the Hindu Kush Himalaya</t>
+          <t>Investigating the Impact of Feature Reduction for Deep Learning-based Seasonal Sea Ice Forecasting</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1255,14 +1287,10 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>https://hess.copernicus.org/articles/29/3073/2025/</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/mlresearch/v265/main/assets/uebbing25a/uebbing25a.pdf</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
           <t>2025</t>
@@ -1274,12 +1302,12 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>E. Bowler, J. Byrne, L.-M. Leclerc, A. Roberto-Charron, M. S. Rogers, R. D. Cavanagh, J. Harasimo, M. L. Lancaster, R. S. Chan, O. Strickson, J. Wilkinson, R. Downie, J. S. Hosking, T. R. Andersson</t>
+          <t>R. Parthipan, M. Anand, H. M. Christensen, J. S. Hosking, D. J. Wischik</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/2688-8319.70034</t>
+          <t>10.48550/arXiv.2405.14714</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1287,33 +1315,21 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Ecological Solutions and Evidence</t>
+          <t>ArXiv</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Phys.org, black, https://phys.org/news/2025-05-ai-tool-aids-caribou-arctic.html; Anadolu Agency, blue, https://www.aa.com.tr/en/environment/new-ai-tool-can-help-protect-migration-routes-of-endangered-caribou-in-arctic-study/3583642; Business Weekly, grey, https://www.businessweekly.co.uk/posts/british-antarctic-survey-puts-ai-into-arctic-to-aid-caribou-conservation; Press Release, HotPink, https://www.bas.ac.uk/media-post/new-ai-tool-aids-caribou-conservation-in-a-changing-arctic/; Canada's National Observer, red, https://www.nationalobserver.com/2025/06/11/news/ai-protect-caribou-migration-changing-arctic</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>e70034</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>AI sea ice forecasts for Arctic conservation: A case study predicting the timing of caribou sea ice migrations</t>
+          <t>Defining error accumulation in ML atmospheric simulators</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1321,19 +1337,11 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>https://besjournals.onlinelibrary.wiley.com/doi/abs/10.1002/2688-8319.70034</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1350,12 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>R. E. Rouse, H. Moss, S. Hosking, A. McRobie, E. Shuckburgh</t>
+          <t>K. Tazi, A. Orr, J. Hernandez-Gonz&amp;aacute;lez, S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10.1017/eds.2025.16</t>
+          <t>10.5194/hess-28-4903-2024</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1355,16 +1363,20 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Environmental Data Science</t>
+          <t>Hydrology and Earth System Sciences</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>e26</t>
+          <t>4903--4925</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1373,7 +1385,7 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Reflective error: a metric for assessing predictive performance at extreme events</t>
+          <t>Downscaling precipitation over High-mountain Asia using multi-fidelity Gaussian processes: improved estimates from ERA5</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1381,15 +1393,19 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>https://hess.copernicus.org/articles/28/4903/2024/</t>
+        </is>
+      </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>28</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
@@ -1398,38 +1414,42 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A. Allen, S. Markou, W. Tebbutt, J. Requeima, W. P. Bruinsma, T. R. Andersson, N. D. Herzog, M. Chantry, J. S. Hosking, R. E. Turner</t>
+          <t>M. S. Rogers, M. Fox, A. Fleming, L. {van Zeeland}, J. Wilkinson, J. S. Hosking</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41586-025-08897-0</t>
+          <t>https://doi.org/10.1016/j.rse.2024.114073</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0034-4257</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Nature</t>
+          <t>Remote Sensing of Environment</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Guardian, blue, https://www.theguardian.com/technology/2025/mar/20/ai-aardvark-weather-prediction-forecasting-artificial-intelligence; FT, DarkOrange, https://www.ft.com/content/73492128-5822-4bb2-b953-64217eb303e4; New Scientist, grey, https://www.newscientist.com/article/2472659-ai-can-forecast-the-weather-in-seconds-without-needing-supercomputers/; Independent, red, https://www.independent.co.uk/tech/ai-weather-forecast-aardvark-cambridge-b2717122.html; Blog, black, https://www.turing.ac.uk/blog/project-aardvark-reimagining-ai-weather-prediction</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>114073</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>End-to-end data-driven weather prediction</t>
+          <t>Sea ice detection using concurrent multispectral and synthetic aperture radar imagery</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1439,13 +1459,17 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>https://www.nature.com/articles/s41586-025-08897-0</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr"/>
+          <t>https://www.sciencedirect.com/science/article/pii/S0034425724000841</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1478,12 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>R. C. Williams, P. Thodoroff, R. J. Arthern, J. Byrne, J. S. Hosking, M. Kaiser, N. D. Lawrence, I. Kazlauskaite</t>
+          <t>H. L. Joakimsen, I. Martinsen, L. T. Luppino, A. McDonald, S. Hosking, R. Jenssen</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10.1038/s43247-025-02010-z</t>
+          <t>10.1109/LGRS.2024.3366308</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1467,21 +1491,25 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Commun Earth Environ</t>
+          <t>IEEE Geoscience and Remote Sensing Letters</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Calculations of extreme sea level rise scenarios are strongly dependent on ice sheet model resolution</t>
+          <t>Interrogating Sea Ice Predictability With Gradients</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -1489,15 +1517,15 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1038/s43247-025-02010-z</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
@@ -1506,12 +1534,12 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>R. E. Rouse, D. Khamis, S. Hosking, A. McRobie, E. Shuckburgh</t>
+          <t>C. Jay, Y. Yu, I. Crawford, S. Archer-Nicholls, P. James, A. Gledson, G. Shaddick, R. Haines, L. Lannelongue, E. Lines, S. Hosking, D. Topping</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.1017/eds.2024.48</t>
+          <t>10.1038/s41561-023-01369-y</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1519,25 +1547,21 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Environmental Data Science</t>
+          <t>Nature Geoscience</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>e5</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Streamflow prediction using artificial neural networks and soil moisture proxies</t>
+          <t>Prioritize environmental sustainability in use of AI and data science methods</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -1545,15 +1569,15 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>https://www.nature.com/articles/s41561-023-01369-y</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
@@ -1562,34 +1586,46 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A. Coca-Castro, A. Fouilloux, R. Barros Lourenço, A. McDonald, Y. Rao, J. S. Hosking</t>
+          <t>B. Evans, A. Faul, A. Fleming, D. G. Vaughan, J. S. Hosking</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10.1017/eds.2024.35</t>
+          <t>10.1016/j.rse.2023.113780</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0034-4257</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Environmental Data Science</t>
+          <t>Remote Sensing of Environment</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Fox Weather, blue, https://www.foxweather.com/weather-news/iceberg-a23a-weddell-sea-antarctic-peninsula; Press Release, DarkOrange, https://www.bas.ac.uk/media-post/using-ai-to-track-icebergs/</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>113780</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Improving the reproducibility in geoscientific papers: lessons learned from a Hackathon in climate science</t>
+          <t>Unsupervised machine learning detection of iceberg populations within sea ice from dual-polarisation SAR imagery</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -1597,15 +1633,19 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>https://www.sciencedirect.com/science/article/pii/S0034425723003310</t>
+        </is>
+      </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>297</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1654,12 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>K. Tazi, A. Orr, J. Hernandez-Gonz&amp;aacute;lez, S. Hosking, R. E. Turner</t>
+          <t>T. R. Andersson, W. P. Bruinsma, S. Markou, J. Requeima, A. Coca-Castro, A. Vaughan, A.-L. Ellis, M. A. Lazzara, D. Jones, S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10.5194/hess-28-4903-2024</t>
+          <t>10.1017/eds.2023.22</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1627,20 +1667,16 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Hydrology and Earth System Sciences</t>
+          <t>Environmental Data Science</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>4903--4925</t>
+          <t>e32</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -1649,7 +1685,7 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Downscaling precipitation over High-mountain Asia using multi-fidelity Gaussian processes: improved estimates from ERA5</t>
+          <t>Environmental sensor placement with convolutional Gaussian neural processes</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -1657,19 +1693,15 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>https://hess.copernicus.org/articles/28/4903/2024/</t>
-        </is>
-      </c>
+      <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>2</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -1678,42 +1710,34 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>M. S. Rogers, M. Fox, A. Fleming, L. {van Zeeland}, J. Wilkinson, J. S. Hosking</t>
+          <t>P. Thodoroff, M. Kaiser, R. Williams, R. Arthern, S. Hosking, N. Lawrence, J. Byrne, I. Kazlauskaite</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.rse.2024.114073</t>
+          <t>10.48550/arXiv.2307.08449</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0034-4257</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Remote Sensing of Environment</t>
+          <t>NeurIPS 2022 Workshop on Gaussian Processes, Spatiotemporal Modeling, and Decision-making Systems</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>114073</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Sea ice detection using concurrent multispectral and synthetic aperture radar imagery</t>
+          <t>Multi-fidelity experimental design for ice-sheet simulation</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1723,17 +1747,13 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0034425724000841</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
+          <t>https://doi.org/10.48550/arXiv.2307.08449</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -1742,12 +1762,12 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>H. L. Joakimsen, I. Martinsen, L. T. Luppino, A. McDonald, S. Hosking, R. Jenssen</t>
+          <t>R. Parthipan, H. M. Christensen, J. S. Hosking, D. J. Wischik</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10.1109/LGRS.2024.3366308</t>
+          <t>10.5194/gmd-16-4501-2023</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1755,16 +1775,20 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>IEEE Geoscience and Remote Sensing Letters</t>
+          <t>Geoscientific Model Development</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>4501--4519</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -1773,7 +1797,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Interrogating Sea Ice Predictability With Gradients</t>
+          <t>Using probabilistic machine learning to better model temporal patterns in parameterizations: a case study with the Lorenz 96 model</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1781,15 +1805,19 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>https://gmd.copernicus.org/articles/16/4501/2023/</t>
+        </is>
+      </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -1798,12 +1826,12 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C. Jay, Y. Yu, I. Crawford, S. Archer-Nicholls, P. James, A. Gledson, G. Shaddick, R. Haines, L. Lannelongue, E. Lines, S. Hosking, D. Topping</t>
+          <t>W. P. Bruinsma, S. Markou, J. Requiema, A. Y. Foong, T. R. Andersson, A. Vaughan, A. Buonomo, J. S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10.1038/s41561-023-01369-y</t>
+          <t>10.48550/arXiv.2303.14468</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1811,7 +1839,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Nature Geoscience</t>
+          <t>11th International Conference on Learning Representations (ICLR 2023)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1825,7 +1853,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Prioritize environmental sustainability in use of AI and data science methods</t>
+          <t>Autoregressive Conditional Neural Processes</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1833,15 +1861,11 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>https://www.nature.com/articles/s41561-023-01369-y</t>
-        </is>
-      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -1850,37 +1874,33 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>B. Evans, A. Faul, A. Fleming, D. G. Vaughan, J. S. Hosking</t>
+          <t>T. Summers, E. Mackie, R. Ueno, C. Simpson, J. S. Hosking, T. Suciu, A. Coburn, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10.1016/j.rse.2023.113780</t>
+          <t>10.1002/cli2.35</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0034-4257</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Remote Sensing of Environment</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Fox Weather, blue, https://www.foxweather.com/weather-news/iceberg-a23a-weddell-sea-antarctic-peninsula; Press Release, DarkOrange, https://www.bas.ac.uk/media-post/using-ai-to-track-icebergs/</t>
-        </is>
-      </c>
+          <t>Climate Resilience and Sustainability</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>bias, climate, correction, disruption, economic, exceedance, temperature</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>113780</t>
+          <t>e35</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -1889,7 +1909,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Unsupervised machine learning detection of iceberg populations within sea ice from dual-polarisation SAR imagery</t>
+          <t>Localized impacts and economic implications from high temperature disruption days under climate change</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1899,17 +1919,13 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0034425723003310</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>297</t>
-        </is>
-      </c>
+          <t>https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/cli2.35</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
@@ -1918,12 +1934,12 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>T. R. Andersson, W. P. Bruinsma, S. Markou, J. Requeima, A. Coca-Castro, A. Vaughan, A.-L. Ellis, M. A. Lazzara, D. Jones, S. Hosking, R. E. Turner</t>
+          <t>A. Vaughan, W. Tebbutt, J. S. Hosking, R. E. Turner</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10.1017/eds.2023.22</t>
+          <t>10.5194/gmd-15-251-2022</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1931,16 +1947,20 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Environmental Data Science</t>
+          <t>Geoscientific Model Development</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>e32</t>
+          <t>251--268</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -1949,7 +1969,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Environmental sensor placement with convolutional Gaussian neural processes</t>
+          <t>Convolutional conditional neural processes for local climate downscaling</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1957,15 +1977,19 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>https://gmd.copernicus.org/articles/15/251/2022/</t>
+        </is>
+      </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
@@ -1974,12 +1998,12 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>R. Parthipan, H. M. Christensen, J. S. Hosking, D. J. Wischik</t>
+          <t>A. Ravuri, T. R. Andersson, I. Kazlauskaite, W. Tebbutt, R. E. Turner, J. S. Hosking, N. D. Lawrence, M. Kaiser</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10.5194/gmd-16-4501-2023</t>
+          <t>10.48550/ARXIV.2210.16568</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1987,29 +2011,21 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Geoscientific Model Development</t>
+          <t>NeurIPS 2022 Workshop on Gaussian Processes, Spatiotemporal Modeling, and Decision-making Systems</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>4501--4519</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Using probabilistic machine learning to better model temporal patterns in parameterizations: a case study with the Lorenz 96 model</t>
+          <t>Ice Core Dating using Probabilistic Programming</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2019,17 +2035,13 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>https://gmd.copernicus.org/articles/16/4501/2023/</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>https://arxiv.org/abs/2210.16568</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
@@ -2038,12 +2050,12 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>W. P. Bruinsma, S. Markou, J. Requiema, A. Y. Foong, T. R. Andersson, A. Vaughan, A. Buonomo, J. S. Hosking, R. E. Turner</t>
+          <t>V. Lalchand, K. Tazi, T. M. Cheema, R. E. Turner, S. Hosking</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10.48550/arXiv.2303.14468</t>
+          <t>10.48550/ARXIV.2209.04947</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2051,7 +2063,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>11th International Conference on Learning Representations (ICLR 2023)</t>
+          <t>16th Bayesian Modelling Applications Workshop at UAI, 2022</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -2065,7 +2077,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Autoregressive Conditional Neural Processes</t>
+          <t>Kernel Learning for Explainable Climate Science</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2073,11 +2085,15 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/abs/2209.04947</t>
+        </is>
+      </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2102,12 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>T. Summers, E. Mackie, R. Ueno, C. Simpson, J. S. Hosking, T. Suciu, A. Coburn, E. Shuckburgh</t>
+          <t>C. Simpson, J. S. Hosking, D. Mitchell, R. A. Betts, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10.1002/cli2.35</t>
+          <t>10.1088/1748-9326/ac3288</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2099,20 +2115,24 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Climate Resilience and Sustainability</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>bias, climate, correction, disruption, economic, exceedance, temperature</t>
-        </is>
-      </c>
+          <t>Environmental Research Letters</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>e35</t>
+          <t>124004</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2121,7 +2141,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Localized impacts and economic implications from high temperature disruption days under climate change</t>
+          <t>Regional disparities and seasonal differences in climate risk to rice labour</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2131,13 +2151,17 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/cli2.35</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr"/>
+          <t>https://doi.org/10.1088/1748-9326/ac3288</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
     </row>
@@ -2146,42 +2170,42 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A. Vaughan, W. Tebbutt, J. S. Hosking, R. E. Turner</t>
+          <t>N. Eastwood, W. A. Stubbings, M. A. {Abou-Elwafa Abdallah}, I. Durance, J. Paavola, M. Dallimer, J. H. Pantel, S. Johnson, J. Zhou, J. S. Hosking, J. B. Brown, S. Ullah, S. Krause, D. M. Hannah, S. E. Crawford, M. Widmann, L. Orsini</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10.5194/gmd-15-251-2022</t>
+          <t>https://doi.org/10.1016/j.tree.2021.09.008</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0169-5347</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Geoscientific Model Development</t>
+          <t>Trends in Ecology &amp; Evolution</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>The New Stack, HotPink, https://thenewstack.io/ai-biodiversity-time-machine-could-decide-for-uncertain-future/</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>251--268</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Convolutional conditional neural processes for local climate downscaling</t>
+          <t>The Time Machine framework: monitoring and prediction of biodiversity loss</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2191,17 +2215,13 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>https://gmd.copernicus.org/articles/15/251/2022/</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>https://www.sciencedirect.com/science/article/pii/S0169534721002597</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
     </row>
@@ -2210,12 +2230,12 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>C. Simpson, J. S. Hosking, D. Mitchell, R. A. Betts, E. Shuckburgh</t>
+          <t>T. Andersson, J. S. Hosking, M. Pérez-Ortiz, B. Paige, A. Elliott, C. Russell, S. Law, D. C. Jones, J. Wilkinson, T. Phillips, J. Byrne, S. Tietsche, B. B. Sarojini, E. Blanchard-Wrigglesworth, Y. Aksenov, R. Downie, E. Shuckburgh</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10.1088/1748-9326/ac3288</t>
+          <t>https://doi.org/10.1038/s41467-021-25257-4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2223,33 +2243,25 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Environmental Research Letters</t>
+          <t>Nature Communications</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>nov</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>124004</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Nvidia Blog, green, https://blogs.nvidia.com/blog/2021/08/31/ai-model-predicts-sea-ice-loss/; Wired, black, https://www.wired.com/story/as-the-arctic-warms-ai-forecasts-scope-out-shifting-sea-ice/; Science News, blue, https://www.sciencenews.org/article/artificial-intelligence-sea-ice-forecast; Eos, grey, https://eos.org/articles/could-ai-be-useful-for-arctic-communities-facing-sea-ice-loss; BBC Podcast, red, https://www.bbc.co.uk/programmes/w3ct1lsl; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-9928807/British-Antarctic-Survey-builds-AI-predict-ice-loss.html</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Regional disparities and seasonal differences in climate risk to rice labour</t>
+          <t>Seasonal Arctic sea ice forecasting with probabilistic deep learning</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2259,14 +2271,10 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1748-9326/ac3288</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>https://www.nature.com/articles/s41467-021-25257-4</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
           <t>2021</t>
@@ -2278,32 +2286,24 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>N. Eastwood, W. A. Stubbings, M. A. {Abou-Elwafa Abdallah}, I. Durance, J. Paavola, M. Dallimer, J. H. Pantel, S. Johnson, J. Zhou, J. S. Hosking, J. B. Brown, S. Ullah, S. Krause, D. M. Hannah, S. E. Crawford, M. Widmann, L. Orsini</t>
+          <t>M. Amos, U. Sengupta, P. Young, J. S. Hosking</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.tree.2021.09.008</t>
+          <t>10.31223/X5N91S</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0169-5347</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Trends in Ecology &amp; Evolution</t>
+          <t>EarthArXiv</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>The New Stack, HotPink, https://thenewstack.io/ai-biodiversity-time-machine-could-decide-for-uncertain-future/</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2313,7 +2313,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>The Time Machine framework: monitoring and prediction of biodiversity loss</t>
+          <t>A continuous vertically resolved ozone dataset from the fusion of chemistry climate models with observations using a Bayesian neural network</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2321,11 +2321,7 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0169534721002597</t>
-        </is>
-      </c>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
@@ -2338,12 +2334,12 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>T. Andersson, J. S. Hosking, M. Pérez-Ortiz, B. Paige, A. Elliott, C. Russell, S. Law, D. C. Jones, J. Wilkinson, T. Phillips, J. Byrne, S. Tietsche, B. B. Sarojini, E. Blanchard-Wrigglesworth, Y. Aksenov, R. Downie, E. Shuckburgh</t>
+          <t>J. C. King, J. Turner, S. Colwell, H. Lu, A. Orr, T. Phillips, J. S. Hosking, G. J. Marshall</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41467-021-25257-4</t>
+          <t>10.1175/JCLI-D-20-0748.1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2351,25 +2347,29 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Nature Communications</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Nvidia Blog, green, https://blogs.nvidia.com/blog/2021/08/31/ai-model-predicts-sea-ice-loss/; Wired, black, https://www.wired.com/story/as-the-arctic-warms-ai-forecasts-scope-out-shifting-sea-ice/; Science News, blue, https://www.sciencenews.org/article/artificial-intelligence-sea-ice-forecast; Eos, grey, https://eos.org/articles/could-ai-be-useful-for-arctic-communities-facing-sea-ice-loss; BBC Podcast, red, https://www.bbc.co.uk/programmes/w3ct1lsl; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-9928807/British-Antarctic-Survey-builds-AI-predict-ice-loss.html</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4771 - 4783</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Seasonal Arctic sea ice forecasting with probabilistic deep learning</t>
+          <t>Inhomogeneity of the Surface Air Temperature Record from Halley, Antarctica</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2379,10 +2379,14 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>https://www.nature.com/articles/s41467-021-25257-4</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr"/>
+          <t>https://journals.ametsoc.org/view/journals/clim/34/12/JCLI-D-20-0748.1.xml</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
           <t>2021</t>
@@ -2394,12 +2398,12 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>J. C. King, J. Turner, S. Colwell, H. Lu, A. Orr, T. Phillips, J. S. Hosking, G. J. Marshall</t>
+          <t>S. E. Haupt, W. Chapman, S. V. Adams, C. Kirkwood, J. S. Hosking, N. H. Robinson, S. Lerch, A. C. Subramanian</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-20-0748.1</t>
+          <t>10.1098/rsta.2020.0091</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2407,7 +2411,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Philosophical Transactions of the Royal Society A: Mathematical, Physical and Engineering Sciences</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -2415,12 +2419,12 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2194</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>4771 - 4783</t>
+          <t>20200091</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -2429,7 +2433,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Inhomogeneity of the Surface Air Temperature Record from Halley, Antarctica</t>
+          <t>Towards implementing artificial intelligence post-processing in weather and climate: proposed actions from the Oxford 2019 workshop</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2439,12 +2443,12 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>https://journals.ametsoc.org/view/journals/clim/34/12/JCLI-D-20-0748.1.xml</t>
+          <t>https://royalsocietypublishing.org/doi/abs/10.1098/rsta.2020.0091</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>379</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2458,42 +2462,30 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>S. E. Haupt, W. Chapman, S. V. Adams, C. Kirkwood, J. S. Hosking, N. H. Robinson, S. Lerch, A. C. Subramanian</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>10.1098/rsta.2020.0091</t>
-        </is>
-      </c>
+          <t>U. Sengupta, M. Amos, J. S. Hosking, C. E. Rasmussen, M. Juniper, P. J. Young</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Philosophical Transactions of the Royal Society A: Mathematical, Physical and Engineering Sciences</t>
+          <t>Advances in Neural Information Processing Systems (NeurIPS) 2020</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2194</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>20200091</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Towards implementing artificial intelligence post-processing in weather and climate: proposed actions from the Oxford 2019 workshop</t>
+          <t>Ensembling geophysical models with Bayesian Neural Networks</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -2503,17 +2495,13 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>https://royalsocietypublishing.org/doi/abs/10.1098/rsta.2020.0091</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>379</t>
-        </is>
-      </c>
+          <t>https://arxiv.org/abs/2010.03561v1</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2510,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>U. Sengupta, M. Amos, J. S. Hosking, C. E. Rasmussen, M. Juniper, P. J. Young</t>
+          <t>W. P. Bruinsma, E. Perim, W. Tebbutt, J. S. Hosking, A. Solin, R. E. Turner</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2531,7 +2519,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Advances in Neural Information Processing Systems (NeurIPS) 2020</t>
+          <t>Proceedings of the 37th International Conference on Machine Learning, Vienna, Austria, PMLR 119, 2020</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -2545,7 +2533,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Ensembling geophysical models with Bayesian Neural Networks</t>
+          <t>Scalable Exact Inference in Multi-Output Gaussian Processes</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -2555,7 +2543,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2010.03561v1</t>
+          <t>https://arxiv.org/abs/1911.06287</t>
         </is>
       </c>
       <c r="U36" t="inlineStr"/>
@@ -2570,30 +2558,42 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>W. P. Bruinsma, E. Perim, W. Tebbutt, J. S. Hosking, A. Solin, R. E. Turner</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>A. Orr, J. S. Hosking, A. Delon, L. Hoffmann, R. Spang, T. Moffat-Griffin, J. Keeble, N. L. Abraham, P. Braesicke</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.5194/acp-20-12483-2020</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Proceedings of the 37th International Conference on Machine Learning, Vienna, Austria, PMLR 119, 2020</t>
+          <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>12483--12497</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Scalable Exact Inference in Multi-Output Gaussian Processes</t>
+          <t>Polar stratospheric clouds initiated by mountain waves in a global chemistry--climate model: a missing piece in fully modelling polar stratospheric ozone depletion</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -2603,10 +2603,14 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/1911.06287</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr"/>
+          <t>https://acp.copernicus.org/articles/20/12483/2020/</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr">
         <is>
           <t>2020</t>
@@ -2618,12 +2622,12 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A. Orr, J. S. Hosking, A. Delon, L. Hoffmann, R. Spang, T. Moffat-Griffin, J. Keeble, N. L. Abraham, P. Braesicke</t>
+          <t>M. Amos, P. J. Young, J. S. Hosking, J.-F. Lamarque, N. L. Abraham, H. Akiyoshi, A. T. Archibald, S. Bekki, M. Deushi, P. J&amp;ouml;ckel, D. Kinnison, O. Kirner, M. Kunze, M. Marchand, D. A. Plummer, D. Saint-Martin, K. Sudo, S. Tilmes, Y. Yamashita</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10.5194/acp-20-12483-2020</t>
+          <t>10.5194/acp-20-9961-2020</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2639,12 +2643,12 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>12483--12497</t>
+          <t>9961--9977</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -2653,7 +2657,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Polar stratospheric clouds initiated by mountain waves in a global chemistry--climate model: a missing piece in fully modelling polar stratospheric ozone depletion</t>
+          <t>Projecting ozone hole recovery using an ensemble of chemistry-climate models weighted by model performance and independence</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -2663,7 +2667,7 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>https://acp.copernicus.org/articles/20/12483/2020/</t>
+          <t>https://acp.copernicus.org/articles/20/9961/2020/</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -2682,12 +2686,12 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>M. Amos, P. J. Young, J. S. Hosking, J.-F. Lamarque, N. L. Abraham, H. Akiyoshi, A. T. Archibald, S. Bekki, M. Deushi, P. J&amp;ouml;ckel, D. Kinnison, O. Kirner, M. Kunze, M. Marchand, D. A. Plummer, D. Saint-Martin, K. Sudo, S. Tilmes, Y. Yamashita</t>
+          <t>T. J. Bracegirdle, C. R. Holmes, J. S. Hosking, G. J. Marshall, M. Osman, M. Patterson, T. Rackow</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10.5194/acp-20-9961-2020</t>
+          <t>10.1029/2019EA001065</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2695,7 +2699,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Atmospheric Chemistry and Physics</t>
+          <t>Earth and Space Science</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -2703,12 +2707,12 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>9961--9977</t>
+          <t>e2019EA001065</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -2717,7 +2721,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Projecting ozone hole recovery using an ensemble of chemistry-climate models weighted by model performance and independence</t>
+          <t>Improvements in Circumpolar Southern Hemisphere Extratropical Atmospheric Circulation in CMIP6 Compared to CMIP5</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -2727,12 +2731,12 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>https://acp.copernicus.org/articles/20/9961/2020/</t>
+          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019EA001065</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -2746,12 +2750,12 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>T. J. Bracegirdle, C. R. Holmes, J. S. Hosking, G. J. Marshall, M. Osman, M. Patterson, T. Rackow</t>
+          <t>M. R. McCrystall, J. S. Hosking, I. P. White, A. C. Maycock</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10.1029/2019EA001065</t>
+          <t>10.1175/JCLI-D-19-0456.1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2759,7 +2763,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Earth and Space Science</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -2767,12 +2771,12 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>e2019EA001065</t>
+          <t>null</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -2781,7 +2785,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Improvements in Circumpolar Southern Hemisphere Extratropical Atmospheric Circulation in CMIP6 Compared to CMIP5</t>
+          <t>The impact of changes in tropical sea surface temperatures over 1979-2012 on Northern hemisphere high latitude climate</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2791,12 +2795,12 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019EA001065</t>
+          <t>https://doi.org/10.1175/JCLI-D-19-0456.1</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -2810,42 +2814,30 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>M. R. McCrystall, J. S. Hosking, I. P. White, A. C. Maycock</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>10.1175/JCLI-D-19-0456.1</t>
-        </is>
-      </c>
+          <t>L. Kapetas, N. Kazakis, K. Voudouris, A. T. Martinez, J. S. Hosking</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>ICONHIC 2019: 2nd International Conference on Natural Hazards &amp; Infrastructure, Chania, Greece</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>The impact of changes in tropical sea surface temperatures over 1979-2012 on Northern hemisphere high latitude climate</t>
+          <t>Modelling Groundwater - Surface Water Interactions Under Climate Change Scenarios: insights from Axios Delta, Greece</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2855,17 +2847,13 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1175/JCLI-D-19-0456.1</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>https://www.researchgate.net/profile/K_Voudouris/publication/334130545_Modelling_Groundwater_-Surface_Water_Interactions_Under_Climate_Change_Scenarios_insights_from_Axios_Delta_Greece/links/5d19a640458515c11c06bd23/Modelling-Groundwater-Surface-Water-Interactions-Under-Climate-Change-Scenarios-insights-from-Axios-Delta-Greece.pdf</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
@@ -2874,22 +2862,30 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>L. Kapetas, N. Kazakis, K. Voudouris, A. T. Martinez, J. S. Hosking</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>D. Bannister, A. Orr, S. K. Jain, I. P. Holman, A. Momblanch, T. Phillips, A. J. Adeloye, B. Snapir, T. W. Waine, J. S. Hosking, C. Allen-Sader</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.1029/2019JD030804</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ICONHIC 2019: 2nd International Conference on Natural Hazards &amp; Infrastructure, Chania, Greece</t>
+          <t>Journal of Geophysical Research: Atmospheres</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -2897,7 +2893,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Modelling Groundwater - Surface Water Interactions Under Climate Change Scenarios: insights from Axios Delta, Greece</t>
+          <t>Bias correction of high-resolution regional climate model precipitation output gives the best estimates of precipitation in Himalayan catchments</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2907,10 +2903,14 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/profile/K_Voudouris/publication/334130545_Modelling_Groundwater_-Surface_Water_Interactions_Under_Climate_Change_Scenarios_insights_from_Axios_Delta_Greece/links/5d19a640458515c11c06bd23/Modelling-Groundwater-Surface-Water-Interactions-Under-Climate-Change-Scenarios-insights-from-Axios-Delta-Greece.pdf</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr"/>
+          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019JD030804</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr">
         <is>
           <t>2019</t>
@@ -2922,12 +2922,12 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>D. Bannister, A. Orr, S. K. Jain, I. P. Holman, A. Momblanch, T. Phillips, A. J. Adeloye, B. Snapir, T. W. Waine, J. S. Hosking, C. Allen-Sader</t>
+          <t>J. Turner, T. Phillips, M. Thamban, W. Rahaman, G. J. Marshall, J. D. Wille, V. Favier, V. H. Winton, E. Thomas, Z. Wang, M. Broeke, J. S. Hosking, T. Lachlan-Cope</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10.1029/2019JD030804</t>
+          <t>10.1029/2018GL081517</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2935,25 +2935,33 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Journal of Geophysical Research: Atmospheres</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Phys.org, black, https://phys.org/news/2019-03-antarctic-snowfall-dominated-extreme-snowstorms.html</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>3502-3511</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Bias correction of high-resolution regional climate model precipitation output gives the best estimates of precipitation in Himalayan catchments</t>
+          <t>The Dominant Role of Extreme Precipitation Events in Antarctic Snowfall Variability</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2963,12 +2971,12 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2019JD030804</t>
+          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2018GL081517</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>46</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -2982,12 +2990,12 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>J. Turner, T. Phillips, M. Thamban, W. Rahaman, G. J. Marshall, J. D. Wille, V. Favier, V. H. Winton, E. Thomas, Z. Wang, M. Broeke, J. S. Hosking, T. Lachlan-Cope</t>
+          <t>P. Deb, A. Orr, D. H. Bromwich, J. P. Nicolas, J. Turner, J. S. Hosking</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10.1029/2018GL081517</t>
+          <t>10.1029/2018GL077092</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2999,20 +3007,16 @@
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Phys.org, black, https://phys.org/news/2019-03-antarctic-snowfall-dominated-extreme-snowstorms.html</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3502-3511</t>
+          <t>4124-4133</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -3021,7 +3025,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>The Dominant Role of Extreme Precipitation Events in Antarctic Snowfall Variability</t>
+          <t>Summer Drivers of Atmospheric Variability Affecting Ice Shelf Thinning in the Amundsen Sea Embayment, West Antarctica</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -3029,19 +3033,15 @@
           <t>article</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2018GL081517</t>
-        </is>
-      </c>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
@@ -3050,12 +3050,12 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>P. Deb, A. Orr, D. H. Bromwich, J. P. Nicolas, J. Turner, J. S. Hosking</t>
+          <t>J. S. Hosking, D. MacLeod, T. Phillips, C. R. Holmes, P. Watson, E. Shuckburgh, D. Mitchell</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10.1029/2018GL077092</t>
+          <t>10.1088/1748-9326/aabf78</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -3063,20 +3063,24 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Environmental Research Letters</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Carbon Brief, blue, https://www.carbonbrief.org/uk-onshore-wind-energy-potential-could-rise-by-10-with-1-5c-warming; Independent, red, https://www.independent.co.uk/climate-change/news/wind-power-uk-global-warming-climate-change-british-antarctic-survey-a8354956.html; Phys.org, black, https://phys.org/news/2018-05-european-energy-potential-degree-warmer.html; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-5736189/Global-warming-make-UK-large-parts-northern-Europe-far-windier.html; Treehugger, green, https://www.treehugger.com/climate-change-could-bring-stronger-winds-more-wind-power-4857464</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>4124-4133</t>
+          <t>1--9</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -3085,7 +3089,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Summer Drivers of Atmospheric Variability Affecting Ice Shelf Thinning in the Amundsen Sea Embayment, West Antarctica</t>
+          <t>Changes in European wind energy generation potential within a 1.5C warmer world</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3096,7 +3100,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>13</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3110,12 +3114,12 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>J. S. Hosking, D. MacLeod, T. Phillips, C. R. Holmes, P. Watson, E. Shuckburgh, D. Mitchell</t>
+          <t>J. C. King, D. Bannister, J. S. Hosking, S. R. Colwell</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.1088/1748-9326/aabf78</t>
+          <t>10.1002/asl.793</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3123,24 +3127,20 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Environmental Research Letters</t>
+          <t>Atmospheric Science Letters</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Carbon Brief, blue, https://www.carbonbrief.org/uk-onshore-wind-energy-potential-could-rise-by-10-with-1-5c-warming; Independent, red, https://www.independent.co.uk/climate-change/news/wind-power-uk-global-warming-climate-change-british-antarctic-survey-a8354956.html; Phys.org, black, https://phys.org/news/2018-05-european-energy-potential-degree-warmer.html; Mail Online, DarkOrange, https://www.dailymail.co.uk/sciencetech/article-5736189/Global-warming-make-UK-large-parts-northern-Europe-far-windier.html; Treehugger, green, https://www.treehugger.com/climate-change-could-bring-stronger-winds-more-wind-power-4857464</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1--9</t>
+          <t>491-496</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -3149,7 +3149,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Changes in European wind energy generation potential within a 1.5C warmer world</t>
+          <t>Causes of the Antarctic region record high temperature at Signy Island, 30th January 1982</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3160,12 +3160,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
@@ -3174,12 +3174,12 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>J. C. King, D. Bannister, J. S. Hosking, S. R. Colwell</t>
+          <t>J. S. Hosking, R. Fogt, E. R. Thomas, V. Moosavi, T. Phillips, J. Coggins, D. Reusch</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10.1002/asl.793</t>
+          <t>10.1002/2017GL074722</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -3187,7 +3187,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Atmospheric Science Letters</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -3195,12 +3195,12 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>491-496</t>
+          <t>9084-9092</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -3209,7 +3209,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Causes of the Antarctic region record high temperature at Signy Island, 30th January 1982</t>
+          <t>Accumulation in coastal West Antarctic ice core records and the role of cyclone activity</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3220,7 +3220,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>44</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3234,12 +3234,12 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>J. S. Hosking, R. Fogt, E. R. Thomas, V. Moosavi, T. Phillips, J. Coggins, D. Reusch</t>
+          <t>D. Bannister, M. Herzog, H.-F. Graf, J. S. Hosking, C. A. Short</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10.1002/2017GL074722</t>
+          <t>10.1175/JCLI-D-16-0536.1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3247,7 +3247,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>9084-9092</t>
+          <t>6701-6722</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -3269,7 +3269,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Accumulation in coastal West Antarctic ice core records and the role of cyclone activity</t>
+          <t>An Assessment of Recent and Future Temperature Change over the Sichuan Basin, China, Using CMIP5 Climate Models</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3280,7 +3280,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3294,12 +3294,12 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>D. Bannister, M. Herzog, H.-F. Graf, J. S. Hosking, C. A. Short</t>
+          <t>J. Turner, T. Phillips, G. J. Marshall, J. S. Hosking, J. O. Pope, T. J. Bracegirdle, P. Deb</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-16-0536.1</t>
+          <t>10.1002/2017GL073656</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3307,20 +3307,24 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Phys.org, black, https://phys.org/news/2017-06-storms-massive-antarctic-sea-ice.html</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>6701-6722</t>
+          <t>6868--6875</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -3329,7 +3333,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>An Assessment of Recent and Future Temperature Change over the Sichuan Basin, China, Using CMIP5 Climate Models</t>
+          <t>Unprecedented springtime retreat of Antarctic sea ice in 2016</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3340,7 +3344,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>44</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3354,12 +3358,12 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>J. Turner, T. Phillips, G. J. Marshall, J. S. Hosking, J. O. Pope, T. J. Bracegirdle, P. Deb</t>
+          <t>T. Moffat-Griffin, M. J. Taylor, T. Nakamura, A. J. Kavanagh, J. S. Hosking, A. Orr</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10.1002/2017GL073656</t>
+          <t>10.1007/s00376-016-6197-5</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3367,24 +3371,20 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Advances in Atmospheric Sciences</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Phys.org, black, https://phys.org/news/2017-06-storms-massive-antarctic-sea-ice.html</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>6868--6875</t>
+          <t>1--3</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -3393,7 +3393,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Unprecedented springtime retreat of Antarctic sea ice in 2016</t>
+          <t>3rd ANtarctic Gravity Wave Instrument Network (ANGWIN) science workshop</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3404,7 +3404,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>34</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3418,12 +3418,12 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>T. Moffat-Griffin, M. J. Taylor, T. Nakamura, A. J. Kavanagh, J. S. Hosking, A. Orr</t>
+          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, T. Phillips, G. J. Marshall</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10.1007/s00376-016-6197-5</t>
+          <t>10.1002/joc.4848</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3431,7 +3431,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Advances in Atmospheric Sciences</t>
+          <t>International Journal of Climatology</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3439,12 +3439,12 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1--3</t>
+          <t>2325--2336</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -3453,7 +3453,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>3rd ANtarctic Gravity Wave Instrument Network (ANGWIN) science workshop</t>
+          <t>Variability and trends in the Southern Hemisphere high latitude, quasi-stationary planetary waves</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3464,7 +3464,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -3478,12 +3478,12 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, T. Phillips, G. J. Marshall</t>
+          <t>J. Turner, H. Lu, I. White, J. King, T. Phillips, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, R. Mulvaney, P. Deb</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10.1002/joc.4848</t>
+          <t>10.1038/nature18645</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3491,20 +3491,20 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>International Journal of Climatology</t>
+          <t>Nature</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Carbon Brief, blue, https://www.carbonbrief.org/natural-forces-overpowering-antarctic-peninsula-warming; Washington Post, black, https://www.washingtonpost.com/news/energy-environment/wp/2016/07/20/the-antarctic-peninsula-is-cooling-but-climate-skeptics-shouldnt-get-too-excited/</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2325--2336</t>
+          <t>411--415</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -3513,7 +3513,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Variability and trends in the Southern Hemisphere high latitude, quasi-stationary planetary waves</t>
+          <t>Absence of 21st century warming on Antarctic Peninsula consistent with natural variability</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3524,12 +3524,12 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>535</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -3538,12 +3538,12 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>J. Turner, H. Lu, I. White, J. King, T. Phillips, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, R. Mulvaney, P. Deb</t>
+          <t>P. Deb, A. Orr, J. S. Hosking, T. Phillips, J. Turner, D. Bannister, J. O. Pope, S. Colwell</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10.1038/nature18645</t>
+          <t>10.1002/2015JD024037</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3551,20 +3551,20 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Nature</t>
+          <t>Journal of Geophysical Research: Atmospheres</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Carbon Brief, blue, https://www.carbonbrief.org/natural-forces-overpowering-antarctic-peninsula-warming; Washington Post, black, https://www.washingtonpost.com/news/energy-environment/wp/2016/07/20/the-antarctic-peninsula-is-cooling-but-climate-skeptics-shouldnt-get-too-excited/</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>411--415</t>
+          <t>1532-1548</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -3573,7 +3573,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Absence of 21st century warming on Antarctic Peninsula consistent with natural variability</t>
+          <t>An assessment of the Polar Weather Research and Forecasting (WRF) model representation of near-surface meteorological variables over West Antarctica</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3584,7 +3584,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>121</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -3598,12 +3598,12 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>P. Deb, A. Orr, J. S. Hosking, T. Phillips, J. Turner, D. Bannister, J. O. Pope, S. Colwell</t>
+          <t>J. S. Hosking, A. Orr, T. J. Bracegirdle, J. Turner</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10.1002/2015JD024037</t>
+          <t>10.1002/2015GL067143</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3611,7 +3611,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Journal of Geophysical Research: Atmospheres</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -3619,12 +3619,12 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>1532-1548</t>
+          <t>367-376</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -3633,7 +3633,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>An assessment of the Polar Weather Research and Forecasting (WRF) model representation of near-surface meteorological variables over West Antarctica</t>
+          <t>Future circulation changes off West Antarctica: Sensitivity of the Amundsen Sea Low to projected anthropogenic forcing</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3644,7 +3644,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>43</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -3658,12 +3658,12 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>J. S. Hosking, A. Orr, T. J. Bracegirdle, J. Turner</t>
+          <t>M. N. Raphael, G. J. Marshall, J. Turner, R. L. Fogt, D. Schneider, D. A. Dixon, J. S. Hosking, J. M. Jones, W. R. Hobbs</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10.1002/2015GL067143</t>
+          <t>10.1175/BAMS-D-14-00018.1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3671,7 +3671,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Bulletin of the American Meteorological Society</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>367-376</t>
+          <t>111-121</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3693,7 +3693,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Future circulation changes off West Antarctica: Sensitivity of the Amundsen Sea Low to projected anthropogenic forcing</t>
+          <t>The Amundsen Sea Low: Variability, Change, and Impact on Antarctic Climate</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3704,7 +3704,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>97</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -3718,12 +3718,12 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>M. N. Raphael, G. J. Marshall, J. Turner, R. L. Fogt, D. Schneider, D. A. Dixon, J. S. Hosking, J. M. Jones, W. R. Hobbs</t>
+          <t>J. Turner, J. S. Hosking, G. J. Marshall, T. Phillips, T. J. Bracegirdle</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>10.1175/BAMS-D-14-00018.1</t>
+          <t>10.1007/s00382-015-2708-9</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3731,7 +3731,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Bulletin of the American Meteorological Society</t>
+          <t>Climate Dynamics</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -3739,12 +3739,12 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>111-121</t>
+          <t>2391--2402</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3753,7 +3753,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>The Amundsen Sea Low: Variability, Change, and Impact on Antarctic Climate</t>
+          <t>Antarctic sea ice increase dominated by intrinsic variability of the Amundsen Sea Low</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3764,7 +3764,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>46</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -3778,12 +3778,12 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, G. J. Marshall, T. Phillips, T. J. Bracegirdle</t>
+          <t>E. R. Thomas, J. S. Hosking, R. R. Tuckwell, R. A. Warren, E. C. Ludlow</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10.1007/s00382-015-2708-9</t>
+          <t>10.1002/2015GL065750</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3791,20 +3791,24 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Climate Dynamics</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Indian Express, red, https://indianexpress.com/article/trending/trending-globally/west-antarctic-coastal-snow-rose-30-per-cent-in-20th-century/</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2391--2402</t>
+          <t>9387--9393</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3813,7 +3817,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Antarctic sea ice increase dominated by intrinsic variability of the Amundsen Sea Low</t>
+          <t>Twentieth century increase in snowfall in coastal West Antarctica</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3824,12 +3828,12 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>42</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
@@ -3838,12 +3842,12 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>E. R. Thomas, J. S. Hosking, R. R. Tuckwell, R. A. Warren, E. C. Ludlow</t>
+          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, T. Phillips</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10.1002/2015GL065750</t>
+          <t>10.1098/rsta.2014.0163</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3851,33 +3855,25 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Philosophical Transactions of the Royal Society of London A: Mathematical, Physical and Engineering Sciences</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Indian Express, red, https://indianexpress.com/article/trending/trending-globally/west-antarctic-coastal-snow-rose-30-per-cent-in-20th-century/</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>9387--9393</t>
-        </is>
-      </c>
+          <t>2045</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Twentieth century increase in snowfall in coastal West Antarctica</t>
+          <t>Recent Changes in Antarctic Sea Ice</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3888,7 +3884,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>373</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -3902,12 +3898,12 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, T. J. Bracegirdle, G. J. Marshall, T. Phillips</t>
+          <t>C. Chemel, M. R. Russo, J. S. Hosking, P. J. Telford, J. A. Pyle</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10.1098/rsta.2014.0163</t>
+          <t>10.1002/asl2.540</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3915,7 +3911,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Philosophical Transactions of the Royal Society of London A: Mathematical, Physical and Engineering Sciences</t>
+          <t>Atmospheric Science Letters</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -3923,17 +3919,21 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2045</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>148-154</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Recent Changes in Antarctic Sea Ice</t>
+          <t>Sensitivity of tropical deep convection in global models: effects of horizontal resolution, surface constraints and 3D atmospheric nudging</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3944,7 +3944,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>16</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -3958,12 +3958,12 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>C. Chemel, M. R. Russo, J. S. Hosking, P. J. Telford, J. A. Pyle</t>
+          <t>A. Orr, J. S. Hosking, L. Hoffmann, J. Keeble, S. M. Dean, H. K. Roscoe, N. L. Abraham, S. Vosper, P. Braesicke</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10.1002/asl2.540</t>
+          <t>10.5194/acp-15-1071-2015</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3971,7 +3971,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Atmospheric Science Letters</t>
+          <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>148-154</t>
+          <t>1071--1086</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -3993,7 +3993,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Sensitivity of tropical deep convection in global models: effects of horizontal resolution, surface constraints and 3D atmospheric nudging</t>
+          <t>Inclusion of mountain-wave-induced cooling for the formation of PSCs over the Antarctic Peninsula in a chemistry-climate model</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -4004,7 +4004,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4018,12 +4018,12 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A. Orr, J. S. Hosking, L. Hoffmann, J. Keeble, S. M. Dean, H. K. Roscoe, N. L. Abraham, S. Vosper, P. Braesicke</t>
+          <t>J. S. Hosking, D. Bannister, A. Orr, J. King, E. Young, T. Phillips</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10.5194/acp-15-1071-2015</t>
+          <t>10.1002/asl2.519</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -4031,7 +4031,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Atmospheric Chemistry and Physics</t>
+          <t>Atmospheric Science Letters</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -4039,12 +4039,12 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1071--1086</t>
+          <t>50-55</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4053,7 +4053,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Inclusion of mountain-wave-induced cooling for the formation of PSCs over the Antarctic Peninsula in a chemistry-climate model</t>
+          <t>Orographic disturbances of surface winds over the shelf waters adjacent to South Georgia</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -4064,7 +4064,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4078,12 +4078,12 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>J. S. Hosking, D. Bannister, A. Orr, J. King, E. Young, T. Phillips</t>
+          <t>A. Orr, T. Phillips, S. Webster, A. Elvidge, M. Weeks, S. Hosking, J. Turner</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10.1002/asl2.519</t>
+          <t>10.1002/qj.2296</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -4091,7 +4091,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Atmospheric Science Letters</t>
+          <t>Quarterly Journal of the Royal Meteorological Society</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -4099,12 +4099,12 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>684</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>50-55</t>
+          <t>2287-2297</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -4113,7 +4113,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Orographic disturbances of surface winds over the shelf waters adjacent to South Georgia</t>
+          <t>Met Office Unified Model high resolution simulations of a strong wind event in Antarctica</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -4124,12 +4124,12 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
@@ -4138,12 +4138,12 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A. Orr, T. Phillips, S. Webster, A. Elvidge, M. Weeks, S. Hosking, J. Turner</t>
+          <t>T. Bracegirdle, J. Turner, J. S. Hosking, T. Phillips</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10.1002/qj.2296</t>
+          <t>10.1007/s00382-013-2032-1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -4151,7 +4151,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Quarterly Journal of the Royal Meteorological Society</t>
+          <t>Climate Dynamics</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -4159,12 +4159,12 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2287-2297</t>
+          <t>2093-2104</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -4173,7 +4173,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Met Office Unified Model high resolution simulations of a strong wind event in Antarctica</t>
+          <t>Sources of uncertainty in projections of twenty-first century westerly wind changes over the Amundsen Sea, West Antarctica, in CMIP5 climate models</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -4184,7 +4184,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>43</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4198,12 +4198,12 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>T. Bracegirdle, J. Turner, J. S. Hosking, T. Phillips</t>
+          <t>J. Turner, J. S. Hosking, T. Phillips, G. J. Marshall</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>10.1007/s00382-013-2032-1</t>
+          <t>10.1002/2013GL058371</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -4211,7 +4211,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Climate Dynamics</t>
+          <t>Geophysical Research Letters</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -4219,12 +4219,12 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2093-2104</t>
+          <t>5894-5898</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -4233,7 +4233,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Sources of uncertainty in projections of twenty-first century westerly wind changes over the Amundsen Sea, West Antarctica, in CMIP5 climate models</t>
+          <t>Temporal and spatial evolution of the Antarctic sea ice prior to the September 2012 record maximum extent</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4244,12 +4244,12 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
@@ -4258,12 +4258,12 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>J. Turner, J. S. Hosking, T. Phillips, G. J. Marshall</t>
+          <t>J. S. Hosking, A. Orr, G. J. Marshall, J. Turner, T. Phillips</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10.1002/2013GL058371</t>
+          <t>10.1175/JCLI-D-12-00813.1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4271,7 +4271,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Geophysical Research Letters</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -4279,12 +4279,12 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>5894-5898</t>
+          <t>6633--6648</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -4293,7 +4293,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Temporal and spatial evolution of the Antarctic sea ice prior to the September 2012 record maximum extent</t>
+          <t>The influence of the Amundsen-Bellingshausen Seas Low on the climate of West Antarctica and its representation in coupled climate model simulations</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4304,7 +4304,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>26</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4318,12 +4318,12 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>J. S. Hosking, A. Orr, G. J. Marshall, J. Turner, T. Phillips</t>
+          <t>J. Turner, T. Phillips, J. S. Hosking, G. J. Marshall, A. Orr</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-12-00813.1</t>
+          <t>10.1002/joc.3558</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4331,7 +4331,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>International Journal of Climatology</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -4339,12 +4339,12 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>6633--6648</t>
+          <t>1818--1829</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -4353,7 +4353,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>The influence of the Amundsen-Bellingshausen Seas Low on the climate of West Antarctica and its representation in coupled climate model simulations</t>
+          <t>The Amundsen Sea Low</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4364,7 +4364,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -4378,12 +4378,12 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>J. Turner, T. Phillips, J. S. Hosking, G. J. Marshall, A. Orr</t>
+          <t>N. E. Barrand, D. Vaughan, N. Steiner, M. Tedesco, P. Kuipers Munneke, M. Broeke, J. S. Hosking</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10.1002/joc.3558</t>
+          <t>10.1029/2012JF002559</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4391,7 +4391,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>International Journal of Climatology</t>
+          <t>Journal of Geophysical Research: Earth Surface</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -4399,12 +4399,12 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>1818--1829</t>
+          <t>315-330</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -4413,7 +4413,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>The Amundsen Sea Low</t>
+          <t>Trends in Antarctic Peninsula surface melting conditions from observations and regional climate modelling</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4424,7 +4424,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>118</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -4438,12 +4438,12 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>N. E. Barrand, D. Vaughan, N. Steiner, M. Tedesco, P. Kuipers Munneke, M. Broeke, J. S. Hosking</t>
+          <t>J. Turner, T. Bracegirdle, T. Phillips, G. J. Marshall, J. S. Hosking</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>10.1029/2012JF002559</t>
+          <t>10.1175/JCLI-D-12-00068.1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4451,7 +4451,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Journal of Geophysical Research: Earth Surface</t>
+          <t>Journal of Climate</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -4459,12 +4459,12 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>315-330</t>
+          <t>1473--1484</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -4473,7 +4473,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Trends in Antarctic Peninsula surface melting conditions from observations and regional climate modelling</t>
+          <t>An Initial Assessment of Antarctic Sea Ice Extent in the CMIP5 Models</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4484,7 +4484,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>26</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -4498,12 +4498,12 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>J. Turner, T. Bracegirdle, T. Phillips, G. J. Marshall, J. S. Hosking</t>
+          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, W. Feng, H. K. Roscoe, J. D. Haigh</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-12-00068.1</t>
+          <t>10.1175/JCLI-D-12-00480.1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4519,12 +4519,12 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1473--1484</t>
+          <t>662--668</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -4533,7 +4533,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>An Initial Assessment of Antarctic Sea Ice Extent in the CMIP5 Models</t>
+          <t>Strong dynamical modulation of the cooling of the polar stratosphere associated with the Antarctic ozone hole</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4558,12 +4558,12 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, W. Feng, H. K. Roscoe, J. D. Haigh</t>
+          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, T. Jung, J. D. Haigh, T. Phillips, W. Feng</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>10.1175/JCLI-D-12-00480.1</t>
+          <t>10.1175/JAS-D-11-0210.1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4571,7 +4571,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Journal of Climate</t>
+          <t>Journal of the Atmospheric Sciences</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -4579,12 +4579,12 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>662--668</t>
+          <t>2917--2932</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
@@ -4593,7 +4593,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Strong dynamical modulation of the cooling of the polar stratosphere associated with the Antarctic ozone hole</t>
+          <t>Possible Dynamical Mechanisms for Southern Hemisphere Climate Change due to the Ozone Hole</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4604,12 +4604,12 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>69</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
@@ -4618,12 +4618,12 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>A. Orr, T. J. Bracegirdle, J. S. Hosking, T. Jung, J. D. Haigh, T. Phillips, W. Feng</t>
+          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10.1175/JAS-D-11-0210.1</t>
+          <t>10.5194/acp-12-9791-2012</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4631,7 +4631,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Journal of the Atmospheric Sciences</t>
+          <t>Atmospheric Chemistry and Physics</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -4639,12 +4639,12 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2917--2932</t>
+          <t>9791--9797</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
@@ -4653,7 +4653,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Possible Dynamical Mechanisms for Southern Hemisphere Climate Change due to the Ozone Hole</t>
+          <t>Tropical convective transport and the Walker circulation</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -4664,7 +4664,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>12</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -4678,12 +4678,12 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
+          <t>C. R. Hoyle, V. Mar&amp;eacute;cal, M. R. Russo, G. Allen, J. Arteta, C. Chemel, M. P. Chipperfield, F. D'Amato, O. Dessens, W. Feng, J. F. Hamilton, N. R. Harris, J. S. Hosking, A. C. Lewis, O. Morgenstern, T. Peter, J. A. Pyle, T. Reddmann, N. A. Richards, P. J. Telford, W. Tian, S. Viciani, A. Volz-Thomas, O. Wild, X. Yang, G. Zeng</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10.5194/acp-12-9791-2012</t>
+          <t>10.5194/acp-11-8103-2011</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4699,12 +4699,12 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>9791--9797</t>
+          <t>8103--8131</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -4713,7 +4713,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Tropical convective transport and the Walker circulation</t>
+          <t>Representation of tropical deep convection in atmospheric models - Part 2: Tracer transport</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -4724,12 +4724,12 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
@@ -4738,12 +4738,12 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>C. R. Hoyle, V. Mar&amp;eacute;cal, M. R. Russo, G. Allen, J. Arteta, C. Chemel, M. P. Chipperfield, F. D'Amato, O. Dessens, W. Feng, J. F. Hamilton, N. R. Harris, J. S. Hosking, A. C. Lewis, O. Morgenstern, T. Peter, J. A. Pyle, T. Reddmann, N. A. Richards, P. J. Telford, W. Tian, S. Viciani, A. Volz-Thomas, O. Wild, X. Yang, G. Zeng</t>
+          <t>M. R. Russo, V. Mar&amp;eacute;cal, C. R. Hoyle, J. Arteta, C. Chemel, M. P. Chipperfield, O. Dessens, W. Feng, J. S. Hosking, P. J. Telford, O. Wild, X. Yang, J. A. Pyle</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10.5194/acp-11-8103-2011</t>
+          <t>10.5194/acp-11-2765-2011</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4759,12 +4759,12 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>8103--8131</t>
+          <t>2765--2786</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -4773,7 +4773,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Representation of tropical deep convection in atmospheric models - Part 2: Tracer transport</t>
+          <t>Representation of tropical deep convection in atmospheric models - Part 1: Meteorology and comparison with satellite observations</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -4798,12 +4798,12 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>M. R. Russo, V. Mar&amp;eacute;cal, C. R. Hoyle, J. Arteta, C. Chemel, M. P. Chipperfield, O. Dessens, W. Feng, J. S. Hosking, P. J. Telford, O. Wild, X. Yang, J. A. Pyle</t>
+          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>10.5194/acp-11-2765-2011</t>
+          <t>10.5194/acp-10-11175-2010</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -4819,12 +4819,12 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2765--2786</t>
+          <t>11175--11188</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -4833,7 +4833,7 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Representation of tropical deep convection in atmospheric models - Part 1: Meteorology and comparison with satellite observations</t>
+          <t>Modelling deep convection and its impacts on the tropical tropopause layer</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -4844,124 +4844,128 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>arXiv</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>J. S. Hosking, M. R. Russo, P. Braesicke, J. A. Pyle</t>
+          <t>E. G. Daub, T. Dunstan, T. Bennett, M. Burnand, J. Chappell, A. Coca-Castro, N. Eftekhari, J. S. Hosking, M. Janmaijaya, J. Lillis, D. Salvador-Jasin, N. Simpson, O. T. Strickson, R. S. Chan, M. Elmasri, L. A. France, S. Madge, J. Robinson, A. A. Scaife, D. Walters, P. Yatsyshin, T. McCaie, L. Bokeria, H. Brown, T. Dodds, D. Llewellyn-Jones, S. Moreton, T. Potter, I. Stenson, L. Zeeland, K. Bett-Williams, K. I. Dale</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>10.5194/acp-10-11175-2010</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+          <t>10.48550/arXiv.2509.17658</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2509.17658</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>The Alan Turing Institute, Met Office</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Atmospheric Chemistry and Physics</t>
-        </is>
-      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>11175--11188</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/pdf/2509.17658v1</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>physics.ao-ph</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Modelling deep convection and its impacts on the tropical tropopause layer</t>
+          <t>Technical overview and architecture of the FastNet Machine Learning weather prediction model, version 1.0</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>techreport</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/abs/2509.17658</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>arXiv</t>
-        </is>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>E. G. Daub, T. Dunstan, T. Bennett, M. Burnand, J. Chappell, A. Coca-Castro, N. Eftekhari, J. S. Hosking, M. Janmaijaya, J. Lillis, D. Salvador-Jasin, N. Simpson, O. T. Strickson, R. S. Chan, M. Elmasri, L. A. France, S. Madge, J. Robinson, A. A. Scaife, D. Walters, P. Yatsyshin, T. McCaie, L. Bokeria, H. Brown, T. Dodds, D. Llewellyn-Jones, S. Moreton, T. Potter, I. Stenson, L. Zeeland, K. Bett-Williams, K. I. Dale</t>
+          <t>A. Conner, S. Hosking, J. Lloyd, A. Rao, G. Shaddick, M. Sharan</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>10.48550/arXiv.2509.17658</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2509.17658</t>
-        </is>
-      </c>
+          <t>10.5281/zenodo.7712969</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>The Alan Turing Institute, Met Office</t>
+          <t>The Alan Turing Institute</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>https://arxiv.org/pdf/2509.17658v1</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>physics.ao-ph</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr"/>
+          <t>https://zenodo.org/record/7712969/files/turing_asg_whitepaper_climatechange.pdf</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Zenodo</t>
+        </is>
+      </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Technical overview and architecture of the FastNet Machine Learning weather prediction model, version 1.0</t>
+          <t>Tackling climate change with data science and AI</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -4971,13 +4975,13 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2509.17658</t>
+          <t>https://doi.org/10.5281/zenodo.7712969</t>
         </is>
       </c>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -4986,46 +4990,34 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>A. Conner, S. Hosking, J. Lloyd, A. Rao, G. Shaddick, M. Sharan</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>10.5281/zenodo.7712969</t>
-        </is>
-      </c>
+          <t>D. J. Patterson et al.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>The Alan Turing Institute</t>
+          <t>WWF and World Bank Group</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>https://zenodo.org/record/7712969/files/turing_asg_whitepaper_climatechange.pdf</t>
+          <t>https://www.wwf.org.uk/sites/default/files/2020-12/Spatial%20Finance_%20Challenges%20and%20Opportunities_Final.pdf</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>Zenodo</t>
-        </is>
-      </c>
+      <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Tackling climate change with data science and AI</t>
+          <t>Spatial Finance: Challenges and Opportunities in a Changing World</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -5033,15 +5025,11 @@
           <t>techreport</t>
         </is>
       </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5281/zenodo.7712969</t>
-        </is>
-      </c>
+      <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
     </row>
@@ -5050,14 +5038,14 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>D. J. Patterson et al.</t>
+          <t>E. Wolff et al.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>WWF and World Bank Group</t>
+          <t>Global Environmental Research Committee (GERC), Royal Society</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -5069,7 +5057,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>https://www.wwf.org.uk/sites/default/files/2020-12/Spatial%20Finance_%20Challenges%20and%20Opportunities_Final.pdf</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-geoengineering-report.pdf</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -5077,7 +5065,7 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Spatial Finance: Challenges and Opportunities in a Changing World</t>
+          <t>Geoengineering</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -5089,7 +5077,7 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
@@ -5117,7 +5105,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-geoengineering-report.pdf</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-air-quality-report.pdf</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -5125,7 +5113,7 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Geoengineering</t>
+          <t>Air quality</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -5137,7 +5125,7 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
@@ -5165,7 +5153,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-air-quality-report.pdf</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-biodiversity-report.pdf</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -5173,7 +5161,7 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Air quality</t>
+          <t>Biodiversity</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -5213,7 +5201,7 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-biodiversity-report.pdf</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-naturalres-food-report.pdf?la=en-GB&amp;hash=54A9DBF67437B62966A6CD8B425A5D17</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -5221,7 +5209,7 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>Natural Resources</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -5233,7 +5221,7 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5249,7 @@
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-naturalres-food-report.pdf?la=en-GB&amp;hash=54A9DBF67437B62966A6CD8B425A5D17</t>
+          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-climate-report.pdf</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -5269,7 +5257,7 @@
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Natural Resources</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -5290,14 +5278,14 @@
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>E. Wolff et al.</t>
+          <t>A. Maycock, S. Hosking, T. Bracegirdle</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Global Environmental Research Committee (GERC), Royal Society</t>
+          <t>Cambridge Centre for Climate Science (CCfCS)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -5309,7 +5297,7 @@
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>https://royalsociety.org/-/media/policy/topics/energy-environment-climate/gerc-climate-report.pdf</t>
+          <t>https://www.climatescience.cam.ac.uk/docs/ccfcs-ipcc-key-points-pdf</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -5317,7 +5305,7 @@
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Key Points from the IPCC WGI Fifth Assessment Report. Climate Change 2013: The Physical Science Basis</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -5329,64 +5317,68 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Cambridge, UK</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A. Maycock, S. Hosking, T. Bracegirdle</t>
+          <t>J. S. Hosking</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Cambridge Centre for Climate Science (CCfCS)</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>https://www.climatescience.cam.ac.uk/docs/ccfcs-ipcc-key-points-pdf</t>
-        </is>
-      </c>
+      <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>University of Cambridge</t>
+        </is>
+      </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Key Points from the IPCC WGI Fifth Assessment Report. Climate Change 2013: The Physical Science Basis</t>
+          <t>The impact of deep convection on the structure of, and transport through, the tropical tropopause layer</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>techreport</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr"/>
+          <t>phdthesis</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>http://ethos.bl.uk/OrderDetails.do?uin=uk.bl.ethos.604249</t>
+        </is>
+      </c>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Cambridge, UK</t>
-        </is>
-      </c>
+      <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
@@ -5400,49 +5392,37 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>University of Cambridge</t>
-        </is>
-      </c>
+      <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>The impact of deep convection on the structure of, and transport through, the tropical tropopause layer</t>
+          <t>Amundsen Sea Low (ASL) index</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>phdthesis</t>
+          <t>datasets</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>http://ethos.bl.uk/OrderDetails.do?uin=uk.bl.ethos.604249</t>
+          <t>https://scotthosking.com/asl_index</t>
         </is>
       </c>
       <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
+      <c r="V85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>J. S. Hosking</t>
+          <t>T. Andersson, J. S. Hosking et al.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -5461,7 +5441,7 @@
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Amundsen Sea Low (ASL) index</t>
+          <t>Forecasts, neural networks, and results from the paper: 'Seasonal Arctic sea ice forecasting with probabilistic deep learning'</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -5471,51 +5451,11 @@
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>https://scotthosking.com/asl_index</t>
+          <t>https://data.bas.ac.uk/full-record.php?id=GB/NERC/BAS/PDC/01526</t>
         </is>
       </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>T. Andersson, J. S. Hosking et al.</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>Forecasts, neural networks, and results from the paper: 'Seasonal Arctic sea ice forecasting with probabilistic deep learning'</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>datasets</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>https://data.bas.ac.uk/full-record.php?id=GB/NERC/BAS/PDC/01526</t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -677,7 +677,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Phys.org, black, https://phys.org/news/2026-02-ai-track-icebergs-adrift-sea.html; Heise.de, blue, https://www.heise.de/en/news/Climate-Research-Scientists-Track-Iceberg-Life-Cycle-with-AI-11167824.html</t>
+          <t>Phys.org, black, https://phys.org/news/2026-02-ai-track-icebergs-adrift-sea.html; Heise.de, blue, https://www.heise.de/en/news/Climate-Research-Scientists-Track-Iceberg-Life-Cycle-with-AI-11167824.html; Press Release, HotPink, https://www.bas.ac.uk/media-post/scientists-use-ai-to-track-icebergs-from-birth-to-break-up-for-the-first-time/</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>

--- a/publications.xlsx
+++ b/publications.xlsx
@@ -677,7 +677,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Phys.org, black, https://phys.org/news/2026-02-ai-track-icebergs-adrift-sea.html; Heise.de, blue, https://www.heise.de/en/news/Climate-Research-Scientists-Track-Iceberg-Life-Cycle-with-AI-11167824.html; Press Release, HotPink, https://www.bas.ac.uk/media-post/scientists-use-ai-to-track-icebergs-from-birth-to-break-up-for-the-first-time/</t>
+          <t>Phys.org, black, https://phys.org/news/2026-02-ai-track-icebergs-adrift-sea.html; Heise.de, blue, https://www.heise.de/en/news/Climate-Research-Scientists-Track-Iceberg-Life-Cycle-with-AI-11167824.html; Press Release, HotPink, https://www.bas.ac.uk/media-post/scientists-use-ai-to-track-icebergs-from-birth-to-break-up-for-the-first-time/; Radio France Internationale (RFI), red, https://www.rfi.fr/fr/science/20260208-climat-gr%C3%A2ce-%C3%A0-l-ia-des-scientifiques-reconstituent-les-arbres-g%C3%A9n%C3%A9alogiques-des-icebergs</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
